--- a/topmeperp_v1/UploadFile/expense_form.xlsx
+++ b/topmeperp_v1/UploadFile/expense_form.xlsx
@@ -575,11 +575,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="178" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1519,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1812,19 +1813,16 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1833,10 +1831,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1845,37 +1840,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1893,110 +1861,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
@@ -2004,90 +1873,6 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2097,102 +1882,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2205,16 +1894,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2312,11 +1992,362 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -2326,27 +2357,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2692,138 +2702,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.2">
-      <c r="A1" s="109"/>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="111" t="s">
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="263"/>
+      <c r="T1" s="263"/>
+      <c r="U1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="111"/>
-      <c r="W1" s="112" t="s">
+      <c r="V1" s="264"/>
+      <c r="W1" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="112"/>
+      <c r="X1" s="265"/>
     </row>
     <row r="2" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="266" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="113" t="s">
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
       <c r="N2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="256"/>
+      <c r="Q2" s="256"/>
       <c r="R2" s="88" t="s">
         <v>73</v>
       </c>
       <c r="S2" s="88"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="129" t="s">
+      <c r="U2" s="247" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="129"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="131" t="s">
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="249" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="132"/>
-      <c r="J3" s="208" t="s">
+      <c r="I3" s="250"/>
+      <c r="J3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="100" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="102" t="s">
+      <c r="N3" s="260"/>
+      <c r="O3" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="100" t="s">
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="102" t="s">
+      <c r="S3" s="261"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="104"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="267" t="s">
+      <c r="A4" s="258"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="128"/>
+      <c r="P4" s="246"/>
       <c r="Q4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2836,451 +2846,451 @@
       <c r="T4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="106"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="108"/>
+      <c r="U4" s="245"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="106"/>
     </row>
     <row r="5" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="127"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="10"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="119"/>
+      <c r="O5" s="107"/>
+      <c r="P5" s="108"/>
       <c r="Q5" s="11"/>
       <c r="R5" s="10"/>
       <c r="S5" s="12"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="117"/>
+      <c r="U5" s="242"/>
+      <c r="V5" s="243"/>
+      <c r="W5" s="243"/>
+      <c r="X5" s="244"/>
     </row>
     <row r="6" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
       <c r="M6" s="10"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="118"/>
-      <c r="P6" s="119"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="108"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="10"/>
       <c r="S6" s="12"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="117"/>
+      <c r="U6" s="242"/>
+      <c r="V6" s="243"/>
+      <c r="W6" s="243"/>
+      <c r="X6" s="244"/>
     </row>
     <row r="7" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="10"/>
       <c r="N7" s="11"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="119"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="108"/>
       <c r="Q7" s="11"/>
       <c r="R7" s="10"/>
       <c r="S7" s="12"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="117"/>
+      <c r="U7" s="242"/>
+      <c r="V7" s="243"/>
+      <c r="W7" s="243"/>
+      <c r="X7" s="244"/>
     </row>
     <row r="8" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="127"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="10"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="119"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="108"/>
       <c r="Q8" s="11"/>
       <c r="R8" s="10"/>
       <c r="S8" s="12"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="117"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="244"/>
     </row>
     <row r="9" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="127"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="119"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="108"/>
       <c r="Q9" s="11"/>
       <c r="R9" s="10"/>
       <c r="S9" s="12"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="117"/>
+      <c r="U9" s="242"/>
+      <c r="V9" s="243"/>
+      <c r="W9" s="243"/>
+      <c r="X9" s="244"/>
     </row>
     <row r="10" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="119"/>
+      <c r="O10" s="107"/>
+      <c r="P10" s="108"/>
       <c r="Q10" s="11"/>
       <c r="R10" s="10"/>
       <c r="S10" s="12"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="117"/>
+      <c r="U10" s="242"/>
+      <c r="V10" s="243"/>
+      <c r="W10" s="243"/>
+      <c r="X10" s="244"/>
     </row>
     <row r="11" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="127"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="10"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="119"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="108"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="10"/>
       <c r="S11" s="12"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="117"/>
+      <c r="U11" s="242"/>
+      <c r="V11" s="243"/>
+      <c r="W11" s="243"/>
+      <c r="X11" s="244"/>
     </row>
     <row r="12" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="127"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="10"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="118"/>
-      <c r="P12" s="119"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="108"/>
       <c r="Q12" s="11"/>
       <c r="R12" s="10"/>
       <c r="S12" s="12"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="117"/>
+      <c r="U12" s="242"/>
+      <c r="V12" s="243"/>
+      <c r="W12" s="243"/>
+      <c r="X12" s="244"/>
     </row>
     <row r="13" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
       <c r="M13" s="10"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="118"/>
-      <c r="P13" s="119"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="108"/>
       <c r="Q13" s="11"/>
       <c r="R13" s="10"/>
       <c r="S13" s="12"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="117"/>
+      <c r="U13" s="242"/>
+      <c r="V13" s="243"/>
+      <c r="W13" s="243"/>
+      <c r="X13" s="244"/>
     </row>
     <row r="14" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
       <c r="M14" s="10"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="119"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="108"/>
       <c r="Q14" s="11"/>
       <c r="R14" s="10"/>
       <c r="S14" s="12"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="117"/>
+      <c r="U14" s="242"/>
+      <c r="V14" s="243"/>
+      <c r="W14" s="243"/>
+      <c r="X14" s="244"/>
     </row>
     <row r="15" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="10"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="118"/>
-      <c r="P15" s="119"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="108"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="10"/>
       <c r="S15" s="12"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="117"/>
+      <c r="U15" s="242"/>
+      <c r="V15" s="243"/>
+      <c r="W15" s="243"/>
+      <c r="X15" s="244"/>
     </row>
     <row r="16" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="118"/>
-      <c r="P16" s="119"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="108"/>
       <c r="Q16" s="11"/>
       <c r="R16" s="10"/>
       <c r="S16" s="12"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="117"/>
+      <c r="U16" s="242"/>
+      <c r="V16" s="243"/>
+      <c r="W16" s="243"/>
+      <c r="X16" s="244"/>
     </row>
     <row r="17" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="127"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="10"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="119"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="108"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="10"/>
       <c r="S17" s="12"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="117"/>
+      <c r="U17" s="242"/>
+      <c r="V17" s="243"/>
+      <c r="W17" s="243"/>
+      <c r="X17" s="244"/>
     </row>
     <row r="18" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
       <c r="M18" s="10"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="118"/>
-      <c r="P18" s="119"/>
+      <c r="O18" s="107"/>
+      <c r="P18" s="108"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="10"/>
       <c r="S18" s="12"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="117"/>
+      <c r="U18" s="242"/>
+      <c r="V18" s="243"/>
+      <c r="W18" s="243"/>
+      <c r="X18" s="244"/>
     </row>
     <row r="19" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A19" s="15"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="266"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="125"/>
       <c r="M19" s="17"/>
       <c r="N19" s="18"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="147"/>
+      <c r="O19" s="232"/>
+      <c r="P19" s="233"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="17"/>
       <c r="S19" s="16"/>
       <c r="T19" s="19"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="149"/>
-      <c r="W19" s="149"/>
-      <c r="X19" s="150"/>
+      <c r="U19" s="234"/>
+      <c r="V19" s="235"/>
+      <c r="W19" s="235"/>
+      <c r="X19" s="236"/>
     </row>
     <row r="20" spans="1:24" s="24" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="151"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
+      <c r="A20" s="237"/>
+      <c r="B20" s="238"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="238"/>
+      <c r="F20" s="238"/>
+      <c r="G20" s="238"/>
+      <c r="H20" s="238"/>
+      <c r="I20" s="238"/>
+      <c r="J20" s="238"/>
+      <c r="K20" s="238"/>
       <c r="L20" s="89"/>
       <c r="M20" s="20"/>
       <c r="N20" s="21"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="153"/>
+      <c r="O20" s="239"/>
+      <c r="P20" s="239"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
-      <c r="T20" s="154"/>
-      <c r="U20" s="154"/>
-      <c r="V20" s="154"/>
-      <c r="W20" s="154"/>
-      <c r="X20" s="155"/>
+      <c r="T20" s="240"/>
+      <c r="U20" s="240"/>
+      <c r="V20" s="240"/>
+      <c r="W20" s="240"/>
+      <c r="X20" s="241"/>
     </row>
     <row r="21" spans="1:24" s="29" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A21" s="139" t="s">
+      <c r="A21" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="140"/>
-      <c r="C21" s="141"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="227"/>
       <c r="D21" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="142" t="s">
+      <c r="F21" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="141"/>
-      <c r="H21" s="142" t="s">
+      <c r="G21" s="227"/>
+      <c r="H21" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="141"/>
-      <c r="J21" s="142" t="s">
+      <c r="I21" s="227"/>
+      <c r="J21" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="141"/>
+      <c r="K21" s="227"/>
       <c r="L21" s="25" t="s">
         <v>19</v>
       </c>
@@ -3290,10 +3300,10 @@
       <c r="N21" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="142" t="s">
+      <c r="O21" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="141"/>
+      <c r="P21" s="227"/>
       <c r="Q21" s="25" t="s">
         <v>23</v>
       </c>
@@ -3303,11 +3313,11 @@
       <c r="S21" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T21" s="143" t="s">
+      <c r="T21" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="U21" s="144"/>
-      <c r="V21" s="145"/>
+      <c r="U21" s="230"/>
+      <c r="V21" s="231"/>
       <c r="W21" s="27" t="s">
         <v>27</v>
       </c>
@@ -3316,86 +3326,86 @@
       </c>
     </row>
     <row r="22" spans="1:24" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="220"/>
       <c r="D22" s="9"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="159"/>
-      <c r="G22" s="159"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="221"/>
+      <c r="K22" s="221"/>
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
       <c r="N22" s="30"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="161"/>
+      <c r="O22" s="116"/>
+      <c r="P22" s="117"/>
       <c r="Q22" s="30"/>
       <c r="R22" s="30"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="164"/>
+      <c r="T22" s="222"/>
+      <c r="U22" s="223"/>
+      <c r="V22" s="224"/>
       <c r="W22" s="31"/>
       <c r="X22" s="32"/>
     </row>
     <row r="23" spans="1:24" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="156" t="s">
+      <c r="A23" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="158"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="220"/>
       <c r="D23" s="9"/>
       <c r="E23" s="30"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="221"/>
+      <c r="H23" s="221"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="221"/>
+      <c r="K23" s="221"/>
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
       <c r="N23" s="30"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="161"/>
+      <c r="O23" s="116"/>
+      <c r="P23" s="117"/>
       <c r="Q23" s="30"/>
       <c r="R23" s="30"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="162"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="164"/>
+      <c r="T23" s="222"/>
+      <c r="U23" s="223"/>
+      <c r="V23" s="224"/>
       <c r="W23" s="31"/>
       <c r="X23" s="32"/>
     </row>
     <row r="24" spans="1:24" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="173"/>
-      <c r="C24" s="174"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="211"/>
       <c r="D24" s="33"/>
       <c r="E24" s="34"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="212"/>
+      <c r="K24" s="212"/>
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
       <c r="N24" s="34"/>
-      <c r="O24" s="176"/>
-      <c r="P24" s="177"/>
+      <c r="O24" s="213"/>
+      <c r="P24" s="214"/>
       <c r="Q24" s="34"/>
       <c r="R24" s="34"/>
       <c r="S24" s="33"/>
-      <c r="T24" s="178"/>
-      <c r="U24" s="179"/>
-      <c r="V24" s="180"/>
+      <c r="T24" s="215"/>
+      <c r="U24" s="216"/>
+      <c r="V24" s="217"/>
       <c r="W24" s="35"/>
       <c r="X24" s="36"/>
     </row>
@@ -3418,12 +3428,12 @@
       <c r="P25" s="38"/>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
-      <c r="S25" s="165"/>
-      <c r="T25" s="165"/>
+      <c r="S25" s="204"/>
+      <c r="T25" s="204"/>
       <c r="U25" s="39"/>
-      <c r="V25" s="166"/>
-      <c r="W25" s="166"/>
-      <c r="X25" s="167"/>
+      <c r="V25" s="205"/>
+      <c r="W25" s="205"/>
+      <c r="X25" s="206"/>
     </row>
     <row r="26" spans="1:24" s="29" customFormat="1" ht="11.1" customHeight="1">
       <c r="A26" s="40" t="s">
@@ -3431,181 +3441,181 @@
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
-      <c r="D26" s="168"/>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="168"/>
-      <c r="M26" s="168"/>
+      <c r="D26" s="207"/>
+      <c r="E26" s="207"/>
+      <c r="F26" s="207"/>
+      <c r="G26" s="207"/>
+      <c r="H26" s="207"/>
+      <c r="I26" s="207"/>
+      <c r="J26" s="207"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="207"/>
+      <c r="M26" s="207"/>
       <c r="N26" s="42" t="s">
         <v>33</v>
       </c>
       <c r="O26" s="42"/>
-      <c r="P26" s="169"/>
-      <c r="Q26" s="169"/>
-      <c r="R26" s="169"/>
-      <c r="S26" s="169"/>
-      <c r="T26" s="168" t="s">
+      <c r="P26" s="208"/>
+      <c r="Q26" s="208"/>
+      <c r="R26" s="208"/>
+      <c r="S26" s="208"/>
+      <c r="T26" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="168"/>
-      <c r="V26" s="170"/>
-      <c r="W26" s="170"/>
-      <c r="X26" s="171"/>
+      <c r="U26" s="207"/>
+      <c r="V26" s="175"/>
+      <c r="W26" s="175"/>
+      <c r="X26" s="176"/>
     </row>
     <row r="27" spans="1:24" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A27" s="102" t="s">
+      <c r="A27" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="103"/>
-      <c r="C27" s="181"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="178"/>
       <c r="D27" s="43" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="182" t="s">
+      <c r="F27" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="183"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="183"/>
-      <c r="J27" s="183"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="184"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="202"/>
       <c r="N27" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="182" t="s">
+      <c r="O27" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="183"/>
-      <c r="Q27" s="183"/>
-      <c r="R27" s="183"/>
-      <c r="S27" s="183"/>
+      <c r="P27" s="201"/>
+      <c r="Q27" s="201"/>
+      <c r="R27" s="201"/>
+      <c r="S27" s="201"/>
       <c r="T27" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="185" t="s">
+      <c r="U27" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="V27" s="186"/>
-      <c r="W27" s="182" t="s">
+      <c r="V27" s="180"/>
+      <c r="W27" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="X27" s="187"/>
+      <c r="X27" s="203"/>
     </row>
     <row r="28" spans="1:24" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A28" s="188"/>
-      <c r="B28" s="189"/>
-      <c r="C28" s="189"/>
+      <c r="A28" s="195"/>
+      <c r="B28" s="196"/>
+      <c r="C28" s="196"/>
       <c r="D28" s="46"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="191"/>
-      <c r="L28" s="191"/>
-      <c r="M28" s="192"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="120"/>
       <c r="N28" s="47"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="191"/>
-      <c r="Q28" s="191"/>
-      <c r="R28" s="191"/>
-      <c r="S28" s="192"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="119"/>
+      <c r="Q28" s="119"/>
+      <c r="R28" s="119"/>
+      <c r="S28" s="120"/>
       <c r="T28" s="48"/>
-      <c r="U28" s="193"/>
-      <c r="V28" s="194"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="195"/>
+      <c r="U28" s="197"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="116"/>
+      <c r="X28" s="199"/>
     </row>
     <row r="29" spans="1:24" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A29" s="188"/>
-      <c r="B29" s="189"/>
-      <c r="C29" s="189"/>
+      <c r="A29" s="195"/>
+      <c r="B29" s="196"/>
+      <c r="C29" s="196"/>
       <c r="D29" s="46"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="191"/>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="191"/>
-      <c r="M29" s="192"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="119"/>
+      <c r="J29" s="119"/>
+      <c r="K29" s="119"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="120"/>
       <c r="N29" s="47"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="191"/>
-      <c r="Q29" s="191"/>
-      <c r="R29" s="191"/>
-      <c r="S29" s="192"/>
+      <c r="O29" s="118"/>
+      <c r="P29" s="119"/>
+      <c r="Q29" s="119"/>
+      <c r="R29" s="119"/>
+      <c r="S29" s="120"/>
       <c r="T29" s="48"/>
-      <c r="U29" s="193"/>
-      <c r="V29" s="194"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="195"/>
+      <c r="U29" s="197"/>
+      <c r="V29" s="198"/>
+      <c r="W29" s="116"/>
+      <c r="X29" s="199"/>
     </row>
     <row r="30" spans="1:24" s="49" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A30" s="188"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="189"/>
+      <c r="A30" s="195"/>
+      <c r="B30" s="196"/>
+      <c r="C30" s="196"/>
       <c r="D30" s="46"/>
       <c r="E30" s="30"/>
-      <c r="F30" s="190"/>
-      <c r="G30" s="191"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="192"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
       <c r="N30" s="47"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="191"/>
-      <c r="Q30" s="191"/>
-      <c r="R30" s="191"/>
-      <c r="S30" s="192"/>
+      <c r="O30" s="118"/>
+      <c r="P30" s="119"/>
+      <c r="Q30" s="119"/>
+      <c r="R30" s="119"/>
+      <c r="S30" s="120"/>
       <c r="T30" s="48"/>
-      <c r="U30" s="193"/>
-      <c r="V30" s="194"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="195"/>
+      <c r="U30" s="197"/>
+      <c r="V30" s="198"/>
+      <c r="W30" s="116"/>
+      <c r="X30" s="199"/>
     </row>
     <row r="31" spans="1:24" ht="11.25" customHeight="1">
-      <c r="A31" s="196"/>
-      <c r="B31" s="197"/>
-      <c r="C31" s="197"/>
+      <c r="A31" s="183"/>
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
       <c r="D31" s="50"/>
       <c r="E31" s="34"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="199"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="199"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="199"/>
-      <c r="L31" s="199"/>
-      <c r="M31" s="200"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="186"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="186"/>
+      <c r="J31" s="186"/>
+      <c r="K31" s="186"/>
+      <c r="L31" s="186"/>
+      <c r="M31" s="187"/>
       <c r="N31" s="51"/>
-      <c r="O31" s="198"/>
-      <c r="P31" s="199"/>
-      <c r="Q31" s="199"/>
-      <c r="R31" s="199"/>
-      <c r="S31" s="200"/>
-      <c r="T31" s="201" t="s">
+      <c r="O31" s="185"/>
+      <c r="P31" s="186"/>
+      <c r="Q31" s="186"/>
+      <c r="R31" s="186"/>
+      <c r="S31" s="187"/>
+      <c r="T31" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="202"/>
-      <c r="V31" s="203"/>
-      <c r="W31" s="204"/>
-      <c r="X31" s="205"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="190"/>
+      <c r="W31" s="191"/>
+      <c r="X31" s="192"/>
     </row>
     <row r="32" spans="1:24" ht="3" customHeight="1">
       <c r="A32" s="52"/>
@@ -3627,11 +3637,11 @@
       <c r="Q32" s="58"/>
       <c r="R32" s="58"/>
       <c r="S32" s="59"/>
-      <c r="T32" s="206"/>
-      <c r="U32" s="206"/>
-      <c r="V32" s="206"/>
-      <c r="W32" s="206"/>
-      <c r="X32" s="207"/>
+      <c r="T32" s="193"/>
+      <c r="U32" s="193"/>
+      <c r="V32" s="193"/>
+      <c r="W32" s="193"/>
+      <c r="X32" s="194"/>
     </row>
     <row r="33" spans="1:24" s="63" customFormat="1" ht="11.1" customHeight="1">
       <c r="A33" s="60" t="s">
@@ -3639,37 +3649,37 @@
       </c>
       <c r="B33" s="61"/>
       <c r="C33" s="61"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="213"/>
-      <c r="M33" s="213"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="173"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="173"/>
+      <c r="L33" s="173"/>
+      <c r="M33" s="173"/>
       <c r="N33" s="41"/>
-      <c r="O33" s="214" t="s">
+      <c r="O33" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="P33" s="214"/>
-      <c r="Q33" s="213"/>
-      <c r="R33" s="213"/>
+      <c r="P33" s="174"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="173"/>
       <c r="S33" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="T33" s="170"/>
-      <c r="U33" s="170"/>
-      <c r="V33" s="170"/>
-      <c r="W33" s="170"/>
-      <c r="X33" s="171"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="175"/>
+      <c r="X33" s="176"/>
     </row>
     <row r="34" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="181"/>
+      <c r="B34" s="178"/>
       <c r="C34" s="64" t="s">
         <v>48</v>
       </c>
@@ -3679,310 +3689,310 @@
       <c r="E34" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="208" t="s">
+      <c r="F34" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="181"/>
-      <c r="H34" s="208" t="s">
+      <c r="G34" s="178"/>
+      <c r="H34" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="181"/>
-      <c r="J34" s="208" t="s">
+      <c r="I34" s="178"/>
+      <c r="J34" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="181"/>
+      <c r="K34" s="178"/>
       <c r="L34" s="64" t="s">
         <v>53</v>
       </c>
       <c r="M34" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N34" s="208" t="s">
+      <c r="N34" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="209" t="s">
+      <c r="O34" s="102"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
+      <c r="S34" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="T34" s="186"/>
-      <c r="U34" s="185" t="s">
+      <c r="T34" s="180"/>
+      <c r="U34" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="V34" s="186"/>
-      <c r="W34" s="185" t="s">
+      <c r="V34" s="180"/>
+      <c r="W34" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="X34" s="210"/>
+      <c r="X34" s="182"/>
     </row>
     <row r="35" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A35" s="211"/>
-      <c r="B35" s="212"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="65"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="160"/>
-      <c r="K35" s="161"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="117"/>
       <c r="L35" s="30"/>
       <c r="M35" s="30"/>
-      <c r="N35" s="190"/>
-      <c r="O35" s="191"/>
-      <c r="P35" s="191"/>
-      <c r="Q35" s="191"/>
-      <c r="R35" s="192"/>
-      <c r="S35" s="225"/>
-      <c r="T35" s="226"/>
-      <c r="U35" s="215"/>
-      <c r="V35" s="216"/>
-      <c r="W35" s="219"/>
-      <c r="X35" s="220"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="119"/>
+      <c r="P35" s="119"/>
+      <c r="Q35" s="119"/>
+      <c r="R35" s="120"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="122"/>
+      <c r="U35" s="159"/>
+      <c r="V35" s="160"/>
+      <c r="W35" s="163"/>
+      <c r="X35" s="164"/>
     </row>
     <row r="36" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A36" s="211"/>
-      <c r="B36" s="212"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="65"/>
       <c r="D36" s="46"/>
       <c r="E36" s="46"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="160"/>
-      <c r="K36" s="161"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="117"/>
       <c r="L36" s="30"/>
       <c r="M36" s="30"/>
-      <c r="N36" s="190"/>
-      <c r="O36" s="191"/>
-      <c r="P36" s="191"/>
-      <c r="Q36" s="191"/>
-      <c r="R36" s="192"/>
-      <c r="S36" s="227"/>
-      <c r="T36" s="228"/>
-      <c r="U36" s="229"/>
-      <c r="V36" s="230"/>
-      <c r="W36" s="231"/>
-      <c r="X36" s="232"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="119"/>
+      <c r="P36" s="119"/>
+      <c r="Q36" s="119"/>
+      <c r="R36" s="120"/>
+      <c r="S36" s="123"/>
+      <c r="T36" s="124"/>
+      <c r="U36" s="169"/>
+      <c r="V36" s="170"/>
+      <c r="W36" s="171"/>
+      <c r="X36" s="172"/>
     </row>
     <row r="37" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A37" s="211"/>
-      <c r="B37" s="212"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="115"/>
       <c r="C37" s="65"/>
       <c r="D37" s="46"/>
       <c r="E37" s="46"/>
-      <c r="F37" s="160"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="160"/>
-      <c r="I37" s="161"/>
-      <c r="J37" s="160"/>
-      <c r="K37" s="161"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="117"/>
       <c r="L37" s="30"/>
       <c r="M37" s="30"/>
-      <c r="N37" s="190"/>
-      <c r="O37" s="191"/>
-      <c r="P37" s="191"/>
-      <c r="Q37" s="191"/>
-      <c r="R37" s="192"/>
-      <c r="S37" s="225"/>
-      <c r="T37" s="226"/>
-      <c r="U37" s="215"/>
-      <c r="V37" s="216"/>
-      <c r="W37" s="219"/>
-      <c r="X37" s="220"/>
+      <c r="N37" s="118"/>
+      <c r="O37" s="119"/>
+      <c r="P37" s="119"/>
+      <c r="Q37" s="119"/>
+      <c r="R37" s="120"/>
+      <c r="S37" s="121"/>
+      <c r="T37" s="122"/>
+      <c r="U37" s="159"/>
+      <c r="V37" s="160"/>
+      <c r="W37" s="163"/>
+      <c r="X37" s="164"/>
     </row>
     <row r="38" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A38" s="211"/>
-      <c r="B38" s="212"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="65"/>
       <c r="D38" s="46"/>
       <c r="E38" s="46"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="160"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="160"/>
-      <c r="K38" s="161"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="117"/>
       <c r="L38" s="30"/>
       <c r="M38" s="30"/>
-      <c r="N38" s="190"/>
-      <c r="O38" s="191"/>
-      <c r="P38" s="191"/>
-      <c r="Q38" s="191"/>
-      <c r="R38" s="192"/>
-      <c r="S38" s="227"/>
-      <c r="T38" s="228"/>
-      <c r="U38" s="229"/>
-      <c r="V38" s="230"/>
-      <c r="W38" s="231"/>
-      <c r="X38" s="232"/>
+      <c r="N38" s="118"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="119"/>
+      <c r="Q38" s="119"/>
+      <c r="R38" s="120"/>
+      <c r="S38" s="123"/>
+      <c r="T38" s="124"/>
+      <c r="U38" s="169"/>
+      <c r="V38" s="170"/>
+      <c r="W38" s="171"/>
+      <c r="X38" s="172"/>
     </row>
     <row r="39" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A39" s="211"/>
-      <c r="B39" s="212"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="65"/>
       <c r="D39" s="46"/>
       <c r="E39" s="46"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="160"/>
-      <c r="K39" s="161"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="117"/>
       <c r="L39" s="30"/>
       <c r="M39" s="30"/>
-      <c r="N39" s="190"/>
-      <c r="O39" s="191"/>
-      <c r="P39" s="191"/>
-      <c r="Q39" s="191"/>
-      <c r="R39" s="192"/>
-      <c r="S39" s="225"/>
-      <c r="T39" s="226"/>
-      <c r="U39" s="215"/>
-      <c r="V39" s="216"/>
-      <c r="W39" s="219"/>
-      <c r="X39" s="220"/>
+      <c r="N39" s="118"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="120"/>
+      <c r="S39" s="121"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="159"/>
+      <c r="V39" s="160"/>
+      <c r="W39" s="163"/>
+      <c r="X39" s="164"/>
     </row>
     <row r="40" spans="1:24" s="63" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A40" s="211"/>
-      <c r="B40" s="212"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="65"/>
       <c r="D40" s="46"/>
       <c r="E40" s="46"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="160"/>
-      <c r="K40" s="161"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="117"/>
       <c r="L40" s="30"/>
       <c r="M40" s="66"/>
-      <c r="N40" s="223"/>
-      <c r="O40" s="224"/>
-      <c r="P40" s="191"/>
-      <c r="Q40" s="191"/>
-      <c r="R40" s="192"/>
-      <c r="S40" s="227"/>
-      <c r="T40" s="228"/>
-      <c r="U40" s="217"/>
-      <c r="V40" s="218"/>
-      <c r="W40" s="221"/>
-      <c r="X40" s="222"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="168"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="123"/>
+      <c r="T40" s="124"/>
+      <c r="U40" s="161"/>
+      <c r="V40" s="162"/>
+      <c r="W40" s="165"/>
+      <c r="X40" s="166"/>
     </row>
     <row r="41" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A41" s="235" t="s">
+      <c r="A41" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="239"/>
-      <c r="C41" s="240"/>
-      <c r="D41" s="240"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
-      <c r="G41" s="240"/>
-      <c r="H41" s="240"/>
-      <c r="I41" s="240"/>
-      <c r="J41" s="240"/>
-      <c r="K41" s="240"/>
-      <c r="L41" s="240"/>
+      <c r="B41" s="132"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
       <c r="M41" s="67" t="s">
         <v>75</v>
       </c>
       <c r="N41" s="68"/>
       <c r="O41" s="69"/>
-      <c r="P41" s="245" t="s">
+      <c r="P41" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="Q41" s="246"/>
+      <c r="Q41" s="139"/>
       <c r="R41" s="70"/>
       <c r="S41" s="71"/>
-      <c r="T41" s="235" t="s">
+      <c r="T41" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="U41" s="247"/>
-      <c r="V41" s="248"/>
-      <c r="W41" s="248"/>
-      <c r="X41" s="249"/>
+      <c r="U41" s="140"/>
+      <c r="V41" s="141"/>
+      <c r="W41" s="141"/>
+      <c r="X41" s="142"/>
     </row>
     <row r="42" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A42" s="236"/>
-      <c r="B42" s="241"/>
-      <c r="C42" s="242"/>
-      <c r="D42" s="242"/>
-      <c r="E42" s="242"/>
-      <c r="F42" s="242"/>
-      <c r="G42" s="242"/>
-      <c r="H42" s="242"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="242"/>
-      <c r="K42" s="242"/>
-      <c r="L42" s="242"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="134"/>
+      <c r="C42" s="135"/>
+      <c r="D42" s="135"/>
+      <c r="E42" s="135"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="135"/>
+      <c r="H42" s="135"/>
+      <c r="I42" s="135"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="135"/>
+      <c r="L42" s="135"/>
       <c r="M42" s="72" t="s">
         <v>76</v>
       </c>
       <c r="N42" s="73"/>
       <c r="O42" s="74"/>
-      <c r="P42" s="250" t="s">
+      <c r="P42" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="Q42" s="251"/>
+      <c r="Q42" s="144"/>
       <c r="R42" s="75"/>
       <c r="S42" s="76"/>
-      <c r="T42" s="236"/>
-      <c r="U42" s="252"/>
-      <c r="V42" s="253"/>
-      <c r="W42" s="253"/>
-      <c r="X42" s="254"/>
+      <c r="T42" s="129"/>
+      <c r="U42" s="145"/>
+      <c r="V42" s="146"/>
+      <c r="W42" s="146"/>
+      <c r="X42" s="147"/>
     </row>
     <row r="43" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A43" s="236"/>
-      <c r="B43" s="241"/>
-      <c r="C43" s="242"/>
-      <c r="D43" s="242"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="242"/>
-      <c r="G43" s="242"/>
-      <c r="H43" s="242"/>
-      <c r="I43" s="242"/>
-      <c r="J43" s="242"/>
-      <c r="K43" s="242"/>
-      <c r="L43" s="242"/>
+      <c r="A43" s="129"/>
+      <c r="B43" s="134"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
       <c r="M43" s="72" t="s">
         <v>77</v>
       </c>
       <c r="N43" s="73"/>
       <c r="O43" s="74"/>
-      <c r="P43" s="255" t="s">
+      <c r="P43" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="Q43" s="256"/>
+      <c r="Q43" s="149"/>
       <c r="R43" s="77">
         <f>S24</f>
         <v>0</v>
       </c>
       <c r="S43" s="78"/>
-      <c r="T43" s="236"/>
-      <c r="U43" s="252"/>
-      <c r="V43" s="253"/>
-      <c r="W43" s="253"/>
-      <c r="X43" s="254"/>
+      <c r="T43" s="129"/>
+      <c r="U43" s="145"/>
+      <c r="V43" s="146"/>
+      <c r="W43" s="146"/>
+      <c r="X43" s="147"/>
     </row>
     <row r="44" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A44" s="236"/>
-      <c r="B44" s="241"/>
-      <c r="C44" s="242"/>
-      <c r="D44" s="242"/>
-      <c r="E44" s="242"/>
-      <c r="F44" s="242"/>
-      <c r="G44" s="242"/>
-      <c r="H44" s="242"/>
-      <c r="I44" s="242"/>
-      <c r="J44" s="242"/>
-      <c r="K44" s="242"/>
-      <c r="L44" s="242"/>
+      <c r="A44" s="129"/>
+      <c r="B44" s="134"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="135"/>
+      <c r="F44" s="135"/>
+      <c r="G44" s="135"/>
+      <c r="H44" s="135"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="135"/>
+      <c r="L44" s="135"/>
       <c r="M44" s="72" t="s">
         <v>78</v>
       </c>
@@ -3991,7 +4001,7 @@
         <f>IF($N$43=0,"",N44/$N$43)</f>
         <v/>
       </c>
-      <c r="P44" s="257" t="s">
+      <c r="P44" s="150" t="s">
         <v>63</v>
       </c>
       <c r="Q44" s="79" t="s">
@@ -3999,25 +4009,25 @@
       </c>
       <c r="R44" s="80"/>
       <c r="S44" s="81"/>
-      <c r="T44" s="236"/>
-      <c r="U44" s="252"/>
-      <c r="V44" s="253"/>
-      <c r="W44" s="253"/>
-      <c r="X44" s="254"/>
+      <c r="T44" s="129"/>
+      <c r="U44" s="145"/>
+      <c r="V44" s="146"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="147"/>
     </row>
     <row r="45" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A45" s="237"/>
-      <c r="B45" s="241"/>
-      <c r="C45" s="242"/>
-      <c r="D45" s="242"/>
-      <c r="E45" s="242"/>
-      <c r="F45" s="242"/>
-      <c r="G45" s="242"/>
-      <c r="H45" s="242"/>
-      <c r="I45" s="242"/>
-      <c r="J45" s="242"/>
-      <c r="K45" s="242"/>
-      <c r="L45" s="242"/>
+      <c r="A45" s="130"/>
+      <c r="B45" s="134"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
       <c r="M45" s="72" t="s">
         <v>79</v>
       </c>
@@ -4026,31 +4036,31 @@
         <f>IF($N$43=0,"",N45/$N$43)</f>
         <v/>
       </c>
-      <c r="P45" s="258"/>
+      <c r="P45" s="151"/>
       <c r="Q45" s="72" t="s">
         <v>30</v>
       </c>
       <c r="R45" s="82"/>
       <c r="S45" s="83"/>
-      <c r="T45" s="237"/>
-      <c r="U45" s="260"/>
-      <c r="V45" s="261"/>
-      <c r="W45" s="261"/>
-      <c r="X45" s="262"/>
+      <c r="T45" s="130"/>
+      <c r="U45" s="153"/>
+      <c r="V45" s="154"/>
+      <c r="W45" s="154"/>
+      <c r="X45" s="155"/>
     </row>
     <row r="46" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A46" s="237"/>
-      <c r="B46" s="241"/>
-      <c r="C46" s="242"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="242"/>
-      <c r="F46" s="242"/>
-      <c r="G46" s="242"/>
-      <c r="H46" s="242"/>
-      <c r="I46" s="242"/>
-      <c r="J46" s="242"/>
-      <c r="K46" s="242"/>
-      <c r="L46" s="242"/>
+      <c r="A46" s="130"/>
+      <c r="B46" s="134"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="135"/>
+      <c r="F46" s="135"/>
+      <c r="G46" s="135"/>
+      <c r="H46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="135"/>
+      <c r="L46" s="135"/>
       <c r="M46" s="72" t="s">
         <v>80</v>
       </c>
@@ -4059,37 +4069,37 @@
         <f>IF($N$43=0,"",N46/$N$43)</f>
         <v/>
       </c>
-      <c r="P46" s="258"/>
+      <c r="P46" s="151"/>
       <c r="Q46" s="72" t="s">
         <v>64</v>
       </c>
       <c r="R46" s="82"/>
       <c r="S46" s="83"/>
-      <c r="T46" s="237"/>
-      <c r="U46" s="260"/>
-      <c r="V46" s="261"/>
-      <c r="W46" s="261"/>
-      <c r="X46" s="262"/>
+      <c r="T46" s="130"/>
+      <c r="U46" s="153"/>
+      <c r="V46" s="154"/>
+      <c r="W46" s="154"/>
+      <c r="X46" s="155"/>
     </row>
     <row r="47" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A47" s="238"/>
-      <c r="B47" s="243"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="244"/>
-      <c r="E47" s="244"/>
-      <c r="F47" s="244"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="244"/>
-      <c r="I47" s="244"/>
-      <c r="J47" s="244"/>
-      <c r="K47" s="244"/>
-      <c r="L47" s="244"/>
+      <c r="A47" s="131"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="137"/>
+      <c r="E47" s="137"/>
+      <c r="F47" s="137"/>
+      <c r="G47" s="137"/>
+      <c r="H47" s="137"/>
+      <c r="I47" s="137"/>
+      <c r="J47" s="137"/>
+      <c r="K47" s="137"/>
+      <c r="L47" s="137"/>
       <c r="M47" s="84" t="s">
         <v>81</v>
       </c>
       <c r="N47" s="85"/>
       <c r="O47" s="86"/>
-      <c r="P47" s="259"/>
+      <c r="P47" s="152"/>
       <c r="Q47" s="87" t="s">
         <v>65</v>
       </c>
@@ -4098,67 +4108,215 @@
         <v>0</v>
       </c>
       <c r="S47" s="78"/>
-      <c r="T47" s="238"/>
-      <c r="U47" s="263"/>
-      <c r="V47" s="264"/>
-      <c r="W47" s="264"/>
-      <c r="X47" s="265"/>
+      <c r="T47" s="131"/>
+      <c r="U47" s="156"/>
+      <c r="V47" s="157"/>
+      <c r="W47" s="157"/>
+      <c r="X47" s="158"/>
     </row>
     <row r="48" spans="1:24" ht="12" customHeight="1">
-      <c r="A48" s="233" t="s">
+      <c r="A48" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="233"/>
-      <c r="C48" s="233"/>
-      <c r="D48" s="233"/>
-      <c r="E48" s="233"/>
-      <c r="F48" s="233"/>
-      <c r="G48" s="233"/>
-      <c r="H48" s="233"/>
-      <c r="I48" s="233"/>
-      <c r="J48" s="233"/>
-      <c r="K48" s="233"/>
-      <c r="L48" s="233"/>
-      <c r="M48" s="233"/>
-      <c r="N48" s="233"/>
-      <c r="O48" s="233"/>
-      <c r="P48" s="233"/>
-      <c r="Q48" s="233"/>
-      <c r="R48" s="233"/>
-      <c r="S48" s="233"/>
-      <c r="T48" s="233"/>
-      <c r="U48" s="233"/>
-      <c r="V48" s="233"/>
-      <c r="W48" s="234"/>
+      <c r="B48" s="126"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="126"/>
+      <c r="H48" s="126"/>
+      <c r="I48" s="126"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
+      <c r="L48" s="126"/>
+      <c r="M48" s="126"/>
+      <c r="N48" s="126"/>
+      <c r="O48" s="126"/>
+      <c r="P48" s="126"/>
+      <c r="Q48" s="126"/>
+      <c r="R48" s="126"/>
+      <c r="S48" s="126"/>
+      <c r="T48" s="126"/>
+      <c r="U48" s="126"/>
+      <c r="V48" s="126"/>
+      <c r="W48" s="127"/>
     </row>
     <row r="49" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="222">
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="T20:X20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="D26:M26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="F27:M27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="F28:M28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="F31:M31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="T32:X32"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="F29:M29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="F30:M30"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="T33:X33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D33:M33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="U39:V40"/>
+    <mergeCell ref="W39:X40"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="S35:T36"/>
+    <mergeCell ref="U35:V36"/>
+    <mergeCell ref="W35:X36"/>
+    <mergeCell ref="U37:V38"/>
+    <mergeCell ref="W37:X38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A48:W48"/>
+    <mergeCell ref="A41:A47"/>
+    <mergeCell ref="B41:L47"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="T41:T47"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="W47:X47"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
@@ -4183,179 +4341,31 @@
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="J18:L18"/>
     <mergeCell ref="N37:R37"/>
-    <mergeCell ref="A48:W48"/>
-    <mergeCell ref="A41:A47"/>
-    <mergeCell ref="B41:L47"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="T41:T47"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="U39:V40"/>
-    <mergeCell ref="W39:X40"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="S35:T36"/>
-    <mergeCell ref="U35:V36"/>
-    <mergeCell ref="W35:X36"/>
-    <mergeCell ref="U37:V38"/>
-    <mergeCell ref="W37:X38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D33:M33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:X33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="F31:M31"/>
-    <mergeCell ref="O31:S31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="T32:X32"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="F29:M29"/>
-    <mergeCell ref="O29:S29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="F30:M30"/>
-    <mergeCell ref="O30:S30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="F27:M27"/>
-    <mergeCell ref="O27:S27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="F28:M28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="D26:M26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="T20:X20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4370,7 +4380,7 @@
   <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="O5" sqref="O5:P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
@@ -4397,138 +4407,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.2">
-      <c r="A1" s="109"/>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
-      <c r="U1" s="111" t="s">
+      <c r="A1" s="262"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+      <c r="S1" s="263"/>
+      <c r="T1" s="263"/>
+      <c r="U1" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="111"/>
-      <c r="W1" s="112" t="s">
+      <c r="V1" s="264"/>
+      <c r="W1" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="112"/>
+      <c r="X1" s="265"/>
     </row>
     <row r="2" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="266" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="113" t="s">
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="113"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
       <c r="N2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="256"/>
+      <c r="Q2" s="256"/>
       <c r="R2" s="88" t="s">
         <v>73</v>
       </c>
       <c r="S2" s="88"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="129" t="s">
+      <c r="U2" s="247" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="129"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="248"/>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="131" t="s">
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="249" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="132"/>
-      <c r="J3" s="208" t="s">
+      <c r="I3" s="250"/>
+      <c r="J3" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="103"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="100" t="s">
+      <c r="K3" s="102"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="102" t="s">
+      <c r="N3" s="260"/>
+      <c r="O3" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="100" t="s">
+      <c r="P3" s="102"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="105"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="102" t="s">
+      <c r="S3" s="261"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="104"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="103"/>
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="267" t="s">
+      <c r="A4" s="258"/>
+      <c r="B4" s="251"/>
+      <c r="C4" s="254"/>
+      <c r="D4" s="254"/>
+      <c r="E4" s="254"/>
+      <c r="F4" s="254"/>
+      <c r="G4" s="252"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="106"/>
       <c r="M4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="106" t="s">
+      <c r="O4" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="128"/>
+      <c r="P4" s="246"/>
       <c r="Q4" s="7" t="s">
         <v>11</v>
       </c>
@@ -4541,1288 +4551,1288 @@
       <c r="T4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="106"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="108"/>
+      <c r="U4" s="245"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="106"/>
     </row>
     <row r="5" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A5" s="90"/>
-      <c r="B5" s="122"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="127"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="91"/>
       <c r="N5" s="92"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="121"/>
+      <c r="O5" s="271"/>
+      <c r="P5" s="272"/>
       <c r="Q5" s="92"/>
       <c r="R5" s="91"/>
       <c r="S5" s="93"/>
       <c r="T5" s="94"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="117"/>
+      <c r="U5" s="242"/>
+      <c r="V5" s="243"/>
+      <c r="W5" s="243"/>
+      <c r="X5" s="244"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A6" s="90"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="123"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="127"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="99"/>
+      <c r="L6" s="100"/>
       <c r="M6" s="91"/>
       <c r="N6" s="92"/>
-      <c r="O6" s="276"/>
-      <c r="P6" s="121"/>
+      <c r="O6" s="271"/>
+      <c r="P6" s="272"/>
       <c r="Q6" s="92"/>
       <c r="R6" s="91"/>
       <c r="S6" s="93"/>
       <c r="T6" s="94"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="117"/>
+      <c r="U6" s="242"/>
+      <c r="V6" s="243"/>
+      <c r="W6" s="243"/>
+      <c r="X6" s="244"/>
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A7" s="90"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="127"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
       <c r="M7" s="91"/>
       <c r="N7" s="92"/>
-      <c r="O7" s="276"/>
-      <c r="P7" s="121"/>
+      <c r="O7" s="271"/>
+      <c r="P7" s="272"/>
       <c r="Q7" s="92"/>
       <c r="R7" s="91"/>
       <c r="S7" s="93"/>
       <c r="T7" s="94"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="117"/>
+      <c r="U7" s="242"/>
+      <c r="V7" s="243"/>
+      <c r="W7" s="243"/>
+      <c r="X7" s="244"/>
     </row>
     <row r="8" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A8" s="90"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="127"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="91"/>
       <c r="N8" s="92"/>
-      <c r="O8" s="276"/>
-      <c r="P8" s="121"/>
+      <c r="O8" s="271"/>
+      <c r="P8" s="272"/>
       <c r="Q8" s="92"/>
       <c r="R8" s="91"/>
       <c r="S8" s="93"/>
       <c r="T8" s="94"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="116"/>
-      <c r="W8" s="116"/>
-      <c r="X8" s="117"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="243"/>
+      <c r="W8" s="243"/>
+      <c r="X8" s="244"/>
     </row>
     <row r="9" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A9" s="90"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="127"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="91"/>
       <c r="N9" s="92"/>
-      <c r="O9" s="276"/>
-      <c r="P9" s="121"/>
+      <c r="O9" s="271"/>
+      <c r="P9" s="272"/>
       <c r="Q9" s="92"/>
       <c r="R9" s="91"/>
       <c r="S9" s="93"/>
       <c r="T9" s="94"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="116"/>
-      <c r="W9" s="116"/>
-      <c r="X9" s="117"/>
+      <c r="U9" s="242"/>
+      <c r="V9" s="243"/>
+      <c r="W9" s="243"/>
+      <c r="X9" s="244"/>
     </row>
     <row r="10" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A10" s="90"/>
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="127"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="91"/>
       <c r="N10" s="92"/>
-      <c r="O10" s="276"/>
-      <c r="P10" s="121"/>
+      <c r="O10" s="271"/>
+      <c r="P10" s="272"/>
       <c r="Q10" s="92"/>
       <c r="R10" s="91"/>
       <c r="S10" s="93"/>
       <c r="T10" s="94"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="116"/>
-      <c r="W10" s="116"/>
-      <c r="X10" s="117"/>
+      <c r="U10" s="242"/>
+      <c r="V10" s="243"/>
+      <c r="W10" s="243"/>
+      <c r="X10" s="244"/>
     </row>
     <row r="11" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A11" s="90"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="127"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="91"/>
       <c r="N11" s="92"/>
-      <c r="O11" s="276"/>
-      <c r="P11" s="121"/>
+      <c r="O11" s="271"/>
+      <c r="P11" s="272"/>
       <c r="Q11" s="92"/>
       <c r="R11" s="91"/>
       <c r="S11" s="93"/>
       <c r="T11" s="94"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="116"/>
-      <c r="W11" s="116"/>
-      <c r="X11" s="117"/>
+      <c r="U11" s="242"/>
+      <c r="V11" s="243"/>
+      <c r="W11" s="243"/>
+      <c r="X11" s="244"/>
     </row>
     <row r="12" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A12" s="90"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="123"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="127"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="91"/>
       <c r="N12" s="92"/>
-      <c r="O12" s="276"/>
-      <c r="P12" s="121"/>
+      <c r="O12" s="271"/>
+      <c r="P12" s="272"/>
       <c r="Q12" s="92"/>
       <c r="R12" s="91"/>
       <c r="S12" s="93"/>
       <c r="T12" s="94"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="116"/>
-      <c r="W12" s="116"/>
-      <c r="X12" s="117"/>
+      <c r="U12" s="242"/>
+      <c r="V12" s="243"/>
+      <c r="W12" s="243"/>
+      <c r="X12" s="244"/>
     </row>
     <row r="13" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A13" s="90"/>
-      <c r="B13" s="122"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="127"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
       <c r="M13" s="91"/>
       <c r="N13" s="92"/>
-      <c r="O13" s="276"/>
-      <c r="P13" s="121"/>
+      <c r="O13" s="271"/>
+      <c r="P13" s="272"/>
       <c r="Q13" s="92"/>
       <c r="R13" s="91"/>
       <c r="S13" s="93"/>
       <c r="T13" s="94"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="116"/>
-      <c r="W13" s="116"/>
-      <c r="X13" s="117"/>
+      <c r="U13" s="242"/>
+      <c r="V13" s="243"/>
+      <c r="W13" s="243"/>
+      <c r="X13" s="244"/>
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A14" s="90"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="123"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="124"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="127"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
       <c r="M14" s="91"/>
       <c r="N14" s="92"/>
-      <c r="O14" s="276"/>
-      <c r="P14" s="121"/>
+      <c r="O14" s="271"/>
+      <c r="P14" s="272"/>
       <c r="Q14" s="92"/>
       <c r="R14" s="91"/>
       <c r="S14" s="93"/>
       <c r="T14" s="94"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="116"/>
-      <c r="W14" s="116"/>
-      <c r="X14" s="117"/>
+      <c r="U14" s="242"/>
+      <c r="V14" s="243"/>
+      <c r="W14" s="243"/>
+      <c r="X14" s="244"/>
     </row>
     <row r="15" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A15" s="90"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="123"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="124"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="109"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="91"/>
       <c r="N15" s="92"/>
-      <c r="O15" s="276"/>
-      <c r="P15" s="121"/>
+      <c r="O15" s="271"/>
+      <c r="P15" s="272"/>
       <c r="Q15" s="92"/>
       <c r="R15" s="91"/>
       <c r="S15" s="93"/>
       <c r="T15" s="94"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="116"/>
-      <c r="W15" s="116"/>
-      <c r="X15" s="117"/>
+      <c r="U15" s="242"/>
+      <c r="V15" s="243"/>
+      <c r="W15" s="243"/>
+      <c r="X15" s="244"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A16" s="90"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="123"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="124"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="127"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="91"/>
       <c r="N16" s="92"/>
-      <c r="O16" s="276"/>
-      <c r="P16" s="121"/>
+      <c r="O16" s="271"/>
+      <c r="P16" s="272"/>
       <c r="Q16" s="92"/>
       <c r="R16" s="91"/>
       <c r="S16" s="93"/>
       <c r="T16" s="94"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="117"/>
+      <c r="U16" s="242"/>
+      <c r="V16" s="243"/>
+      <c r="W16" s="243"/>
+      <c r="X16" s="244"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A17" s="90"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="124"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="126"/>
-      <c r="L17" s="127"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="91"/>
       <c r="N17" s="92"/>
-      <c r="O17" s="276"/>
-      <c r="P17" s="121"/>
+      <c r="O17" s="271"/>
+      <c r="P17" s="272"/>
       <c r="Q17" s="92"/>
       <c r="R17" s="91"/>
       <c r="S17" s="93"/>
       <c r="T17" s="94"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="116"/>
-      <c r="X17" s="117"/>
+      <c r="U17" s="242"/>
+      <c r="V17" s="243"/>
+      <c r="W17" s="243"/>
+      <c r="X17" s="244"/>
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A18" s="90"/>
-      <c r="B18" s="122"/>
-      <c r="C18" s="123"/>
-      <c r="D18" s="123"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="124"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="125"/>
-      <c r="K18" s="126"/>
-      <c r="L18" s="127"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
       <c r="M18" s="91"/>
       <c r="N18" s="92"/>
-      <c r="O18" s="276"/>
-      <c r="P18" s="121"/>
+      <c r="O18" s="271"/>
+      <c r="P18" s="272"/>
       <c r="Q18" s="92"/>
       <c r="R18" s="91"/>
       <c r="S18" s="93"/>
       <c r="T18" s="94"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="116"/>
-      <c r="W18" s="116"/>
-      <c r="X18" s="117"/>
+      <c r="U18" s="242"/>
+      <c r="V18" s="243"/>
+      <c r="W18" s="243"/>
+      <c r="X18" s="244"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A19" s="90"/>
-      <c r="B19" s="122"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="126"/>
-      <c r="L19" s="127"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="91"/>
       <c r="N19" s="92"/>
-      <c r="O19" s="276"/>
-      <c r="P19" s="121"/>
+      <c r="O19" s="271"/>
+      <c r="P19" s="272"/>
       <c r="Q19" s="92"/>
       <c r="R19" s="91"/>
       <c r="S19" s="93"/>
       <c r="T19" s="94"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="116"/>
-      <c r="X19" s="117"/>
+      <c r="U19" s="242"/>
+      <c r="V19" s="243"/>
+      <c r="W19" s="243"/>
+      <c r="X19" s="244"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A20" s="90"/>
-      <c r="B20" s="122"/>
-      <c r="C20" s="123"/>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="126"/>
-      <c r="L20" s="127"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
       <c r="M20" s="91"/>
       <c r="N20" s="92"/>
-      <c r="O20" s="276"/>
-      <c r="P20" s="121"/>
+      <c r="O20" s="271"/>
+      <c r="P20" s="272"/>
       <c r="Q20" s="92"/>
       <c r="R20" s="91"/>
       <c r="S20" s="93"/>
       <c r="T20" s="94"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="116"/>
-      <c r="X20" s="117"/>
+      <c r="U20" s="242"/>
+      <c r="V20" s="243"/>
+      <c r="W20" s="243"/>
+      <c r="X20" s="244"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A21" s="90"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="123"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="125"/>
-      <c r="K21" s="126"/>
-      <c r="L21" s="127"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
       <c r="M21" s="91"/>
       <c r="N21" s="92"/>
-      <c r="O21" s="276"/>
-      <c r="P21" s="121"/>
+      <c r="O21" s="271"/>
+      <c r="P21" s="272"/>
       <c r="Q21" s="92"/>
       <c r="R21" s="91"/>
       <c r="S21" s="93"/>
       <c r="T21" s="94"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="116"/>
-      <c r="W21" s="116"/>
-      <c r="X21" s="117"/>
+      <c r="U21" s="242"/>
+      <c r="V21" s="243"/>
+      <c r="W21" s="243"/>
+      <c r="X21" s="244"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
       <c r="A22" s="90"/>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="125"/>
-      <c r="K22" s="126"/>
-      <c r="L22" s="127"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
       <c r="M22" s="91"/>
       <c r="N22" s="92"/>
-      <c r="O22" s="276"/>
-      <c r="P22" s="121"/>
+      <c r="O22" s="271"/>
+      <c r="P22" s="272"/>
       <c r="Q22" s="92"/>
       <c r="R22" s="91"/>
       <c r="S22" s="93"/>
       <c r="T22" s="94"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="116"/>
-      <c r="W22" s="116"/>
-      <c r="X22" s="117"/>
+      <c r="U22" s="242"/>
+      <c r="V22" s="243"/>
+      <c r="W22" s="243"/>
+      <c r="X22" s="244"/>
     </row>
     <row r="23" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A23" s="90"/>
-      <c r="B23" s="122"/>
-      <c r="C23" s="123"/>
-      <c r="D23" s="123"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="126"/>
-      <c r="L23" s="127"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
       <c r="M23" s="91"/>
       <c r="N23" s="92"/>
-      <c r="O23" s="276"/>
-      <c r="P23" s="121"/>
+      <c r="O23" s="271"/>
+      <c r="P23" s="272"/>
       <c r="Q23" s="92"/>
       <c r="R23" s="91"/>
       <c r="S23" s="93"/>
       <c r="T23" s="94"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="116"/>
-      <c r="W23" s="116"/>
-      <c r="X23" s="117"/>
+      <c r="U23" s="242"/>
+      <c r="V23" s="243"/>
+      <c r="W23" s="243"/>
+      <c r="X23" s="244"/>
     </row>
     <row r="24" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A24" s="90"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="123"/>
-      <c r="E24" s="123"/>
-      <c r="F24" s="123"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="120"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="125"/>
-      <c r="K24" s="126"/>
-      <c r="L24" s="127"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="100"/>
       <c r="M24" s="91"/>
       <c r="N24" s="92"/>
-      <c r="O24" s="276"/>
-      <c r="P24" s="121"/>
+      <c r="O24" s="271"/>
+      <c r="P24" s="272"/>
       <c r="Q24" s="92"/>
       <c r="R24" s="91"/>
       <c r="S24" s="93"/>
       <c r="T24" s="94"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="116"/>
-      <c r="W24" s="116"/>
-      <c r="X24" s="117"/>
+      <c r="U24" s="242"/>
+      <c r="V24" s="243"/>
+      <c r="W24" s="243"/>
+      <c r="X24" s="244"/>
     </row>
     <row r="25" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A25" s="90"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="124"/>
-      <c r="H25" s="120"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="125"/>
-      <c r="K25" s="126"/>
-      <c r="L25" s="127"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="100"/>
       <c r="M25" s="91"/>
       <c r="N25" s="92"/>
-      <c r="O25" s="276"/>
-      <c r="P25" s="121"/>
+      <c r="O25" s="271"/>
+      <c r="P25" s="272"/>
       <c r="Q25" s="92"/>
       <c r="R25" s="91"/>
       <c r="S25" s="93"/>
       <c r="T25" s="94"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="116"/>
-      <c r="W25" s="116"/>
-      <c r="X25" s="117"/>
+      <c r="U25" s="242"/>
+      <c r="V25" s="243"/>
+      <c r="W25" s="243"/>
+      <c r="X25" s="244"/>
     </row>
     <row r="26" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A26" s="90"/>
-      <c r="B26" s="122"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="125"/>
-      <c r="K26" s="126"/>
-      <c r="L26" s="127"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
       <c r="M26" s="91"/>
       <c r="N26" s="92"/>
-      <c r="O26" s="276"/>
-      <c r="P26" s="121"/>
+      <c r="O26" s="271"/>
+      <c r="P26" s="272"/>
       <c r="Q26" s="92"/>
       <c r="R26" s="91"/>
       <c r="S26" s="93"/>
       <c r="T26" s="94"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="116"/>
-      <c r="W26" s="116"/>
-      <c r="X26" s="117"/>
+      <c r="U26" s="242"/>
+      <c r="V26" s="243"/>
+      <c r="W26" s="243"/>
+      <c r="X26" s="244"/>
     </row>
     <row r="27" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A27" s="90"/>
-      <c r="B27" s="122"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="123"/>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="120"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="125"/>
-      <c r="K27" s="126"/>
-      <c r="L27" s="127"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="100"/>
       <c r="M27" s="91"/>
       <c r="N27" s="92"/>
-      <c r="O27" s="276"/>
-      <c r="P27" s="121"/>
+      <c r="O27" s="271"/>
+      <c r="P27" s="272"/>
       <c r="Q27" s="92"/>
       <c r="R27" s="91"/>
       <c r="S27" s="93"/>
       <c r="T27" s="94"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="116"/>
-      <c r="W27" s="116"/>
-      <c r="X27" s="117"/>
+      <c r="U27" s="242"/>
+      <c r="V27" s="243"/>
+      <c r="W27" s="243"/>
+      <c r="X27" s="244"/>
     </row>
     <row r="28" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A28" s="90"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="124"/>
-      <c r="H28" s="120"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="126"/>
-      <c r="L28" s="127"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="109"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="100"/>
       <c r="M28" s="91"/>
       <c r="N28" s="92"/>
-      <c r="O28" s="276"/>
-      <c r="P28" s="121"/>
+      <c r="O28" s="271"/>
+      <c r="P28" s="272"/>
       <c r="Q28" s="92"/>
       <c r="R28" s="91"/>
       <c r="S28" s="93"/>
       <c r="T28" s="94"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="116"/>
-      <c r="W28" s="116"/>
-      <c r="X28" s="117"/>
+      <c r="U28" s="242"/>
+      <c r="V28" s="243"/>
+      <c r="W28" s="243"/>
+      <c r="X28" s="244"/>
     </row>
     <row r="29" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A29" s="90"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="120"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="127"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="109"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="100"/>
       <c r="M29" s="91"/>
       <c r="N29" s="92"/>
-      <c r="O29" s="276"/>
-      <c r="P29" s="121"/>
+      <c r="O29" s="271"/>
+      <c r="P29" s="272"/>
       <c r="Q29" s="92"/>
       <c r="R29" s="91"/>
       <c r="S29" s="93"/>
       <c r="T29" s="94"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
-      <c r="X29" s="117"/>
+      <c r="U29" s="242"/>
+      <c r="V29" s="243"/>
+      <c r="W29" s="243"/>
+      <c r="X29" s="244"/>
     </row>
     <row r="30" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A30" s="90"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="124"/>
-      <c r="H30" s="120"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="126"/>
-      <c r="L30" s="127"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="109"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="100"/>
       <c r="M30" s="91"/>
       <c r="N30" s="92"/>
-      <c r="O30" s="276"/>
-      <c r="P30" s="121"/>
+      <c r="O30" s="271"/>
+      <c r="P30" s="272"/>
       <c r="Q30" s="92"/>
       <c r="R30" s="91"/>
       <c r="S30" s="93"/>
       <c r="T30" s="94"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="117"/>
+      <c r="U30" s="242"/>
+      <c r="V30" s="243"/>
+      <c r="W30" s="243"/>
+      <c r="X30" s="244"/>
     </row>
     <row r="31" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A31" s="90"/>
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
-      <c r="E31" s="123"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="127"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="112"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="100"/>
       <c r="M31" s="91"/>
       <c r="N31" s="92"/>
-      <c r="O31" s="276"/>
-      <c r="P31" s="121"/>
+      <c r="O31" s="271"/>
+      <c r="P31" s="272"/>
       <c r="Q31" s="92"/>
       <c r="R31" s="91"/>
       <c r="S31" s="93"/>
       <c r="T31" s="94"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="117"/>
+      <c r="U31" s="242"/>
+      <c r="V31" s="243"/>
+      <c r="W31" s="243"/>
+      <c r="X31" s="244"/>
     </row>
     <row r="32" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A32" s="90"/>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="120"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="126"/>
-      <c r="L32" s="127"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100"/>
       <c r="M32" s="91"/>
       <c r="N32" s="92"/>
-      <c r="O32" s="276"/>
-      <c r="P32" s="121"/>
+      <c r="O32" s="271"/>
+      <c r="P32" s="272"/>
       <c r="Q32" s="92"/>
       <c r="R32" s="91"/>
       <c r="S32" s="93"/>
       <c r="T32" s="94"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="117"/>
+      <c r="U32" s="242"/>
+      <c r="V32" s="243"/>
+      <c r="W32" s="243"/>
+      <c r="X32" s="244"/>
     </row>
     <row r="33" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A33" s="90"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="125"/>
-      <c r="K33" s="126"/>
-      <c r="L33" s="127"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="100"/>
       <c r="M33" s="91"/>
       <c r="N33" s="92"/>
-      <c r="O33" s="276"/>
-      <c r="P33" s="121"/>
+      <c r="O33" s="271"/>
+      <c r="P33" s="272"/>
       <c r="Q33" s="92"/>
       <c r="R33" s="91"/>
       <c r="S33" s="93"/>
       <c r="T33" s="94"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="117"/>
+      <c r="U33" s="242"/>
+      <c r="V33" s="243"/>
+      <c r="W33" s="243"/>
+      <c r="X33" s="244"/>
     </row>
     <row r="34" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A34" s="90"/>
-      <c r="B34" s="122"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="127"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99"/>
+      <c r="L34" s="100"/>
       <c r="M34" s="91"/>
       <c r="N34" s="92"/>
-      <c r="O34" s="276"/>
-      <c r="P34" s="121"/>
+      <c r="O34" s="271"/>
+      <c r="P34" s="272"/>
       <c r="Q34" s="92"/>
       <c r="R34" s="91"/>
       <c r="S34" s="93"/>
       <c r="T34" s="94"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="117"/>
+      <c r="U34" s="242"/>
+      <c r="V34" s="243"/>
+      <c r="W34" s="243"/>
+      <c r="X34" s="244"/>
     </row>
     <row r="35" spans="1:24" s="14" customFormat="1" ht="10.8" customHeight="1">
       <c r="A35" s="90"/>
-      <c r="B35" s="122"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="123"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="123"/>
-      <c r="G35" s="124"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="125"/>
-      <c r="K35" s="126"/>
-      <c r="L35" s="127"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="100"/>
       <c r="M35" s="91"/>
       <c r="N35" s="92"/>
-      <c r="O35" s="276"/>
-      <c r="P35" s="121"/>
+      <c r="O35" s="271"/>
+      <c r="P35" s="272"/>
       <c r="Q35" s="92"/>
       <c r="R35" s="91"/>
       <c r="S35" s="93"/>
       <c r="T35" s="94"/>
-      <c r="U35" s="115"/>
-      <c r="V35" s="116"/>
-      <c r="W35" s="116"/>
-      <c r="X35" s="117"/>
+      <c r="U35" s="242"/>
+      <c r="V35" s="243"/>
+      <c r="W35" s="243"/>
+      <c r="X35" s="244"/>
     </row>
     <row r="36" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A36" s="90"/>
-      <c r="B36" s="122"/>
-      <c r="C36" s="123"/>
-      <c r="D36" s="123"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="123"/>
-      <c r="G36" s="124"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="126"/>
-      <c r="L36" s="127"/>
+      <c r="B36" s="111"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="98"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="100"/>
       <c r="M36" s="91"/>
       <c r="N36" s="92"/>
-      <c r="O36" s="276"/>
-      <c r="P36" s="121"/>
+      <c r="O36" s="271"/>
+      <c r="P36" s="272"/>
       <c r="Q36" s="92"/>
       <c r="R36" s="91"/>
       <c r="S36" s="93"/>
       <c r="T36" s="94"/>
-      <c r="U36" s="115"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="117"/>
+      <c r="U36" s="242"/>
+      <c r="V36" s="243"/>
+      <c r="W36" s="243"/>
+      <c r="X36" s="244"/>
     </row>
     <row r="37" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A37" s="90"/>
-      <c r="B37" s="122"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="124"/>
-      <c r="H37" s="120"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="100"/>
       <c r="M37" s="91"/>
       <c r="N37" s="92"/>
-      <c r="O37" s="276"/>
-      <c r="P37" s="121"/>
+      <c r="O37" s="271"/>
+      <c r="P37" s="272"/>
       <c r="Q37" s="92"/>
       <c r="R37" s="91"/>
       <c r="S37" s="93"/>
       <c r="T37" s="94"/>
-      <c r="U37" s="115"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="117"/>
+      <c r="U37" s="242"/>
+      <c r="V37" s="243"/>
+      <c r="W37" s="243"/>
+      <c r="X37" s="244"/>
     </row>
     <row r="38" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A38" s="90"/>
-      <c r="B38" s="122"/>
-      <c r="C38" s="123"/>
-      <c r="D38" s="123"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="120"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="126"/>
-      <c r="L38" s="127"/>
+      <c r="B38" s="111"/>
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="100"/>
       <c r="M38" s="91"/>
       <c r="N38" s="92"/>
-      <c r="O38" s="276"/>
-      <c r="P38" s="121"/>
+      <c r="O38" s="271"/>
+      <c r="P38" s="272"/>
       <c r="Q38" s="92"/>
       <c r="R38" s="91"/>
       <c r="S38" s="93"/>
       <c r="T38" s="94"/>
-      <c r="U38" s="115"/>
-      <c r="V38" s="116"/>
-      <c r="W38" s="116"/>
-      <c r="X38" s="117"/>
+      <c r="U38" s="242"/>
+      <c r="V38" s="243"/>
+      <c r="W38" s="243"/>
+      <c r="X38" s="244"/>
     </row>
     <row r="39" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A39" s="90"/>
-      <c r="B39" s="122"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="123"/>
-      <c r="E39" s="123"/>
-      <c r="F39" s="123"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="120"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="125"/>
-      <c r="K39" s="126"/>
-      <c r="L39" s="127"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="98"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="100"/>
       <c r="M39" s="91"/>
       <c r="N39" s="92"/>
-      <c r="O39" s="276"/>
-      <c r="P39" s="121"/>
+      <c r="O39" s="271"/>
+      <c r="P39" s="272"/>
       <c r="Q39" s="92"/>
       <c r="R39" s="91"/>
       <c r="S39" s="93"/>
       <c r="T39" s="94"/>
-      <c r="U39" s="115"/>
-      <c r="V39" s="116"/>
-      <c r="W39" s="116"/>
-      <c r="X39" s="117"/>
+      <c r="U39" s="242"/>
+      <c r="V39" s="243"/>
+      <c r="W39" s="243"/>
+      <c r="X39" s="244"/>
     </row>
     <row r="40" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A40" s="90"/>
-      <c r="B40" s="122"/>
-      <c r="C40" s="123"/>
-      <c r="D40" s="123"/>
-      <c r="E40" s="123"/>
-      <c r="F40" s="123"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="120"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="125"/>
-      <c r="K40" s="126"/>
-      <c r="L40" s="127"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="98"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="100"/>
       <c r="M40" s="91"/>
       <c r="N40" s="92"/>
-      <c r="O40" s="276"/>
-      <c r="P40" s="121"/>
+      <c r="O40" s="271"/>
+      <c r="P40" s="272"/>
       <c r="Q40" s="92"/>
       <c r="R40" s="91"/>
       <c r="S40" s="93"/>
       <c r="T40" s="94"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="116"/>
-      <c r="W40" s="116"/>
-      <c r="X40" s="117"/>
+      <c r="U40" s="242"/>
+      <c r="V40" s="243"/>
+      <c r="W40" s="243"/>
+      <c r="X40" s="244"/>
     </row>
     <row r="41" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A41" s="90"/>
-      <c r="B41" s="122"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="127"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="100"/>
       <c r="M41" s="91"/>
       <c r="N41" s="92"/>
-      <c r="O41" s="276"/>
-      <c r="P41" s="121"/>
+      <c r="O41" s="271"/>
+      <c r="P41" s="272"/>
       <c r="Q41" s="92"/>
       <c r="R41" s="91"/>
       <c r="S41" s="93"/>
       <c r="T41" s="94"/>
-      <c r="U41" s="115"/>
-      <c r="V41" s="116"/>
-      <c r="W41" s="116"/>
-      <c r="X41" s="117"/>
+      <c r="U41" s="242"/>
+      <c r="V41" s="243"/>
+      <c r="W41" s="243"/>
+      <c r="X41" s="244"/>
     </row>
     <row r="42" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A42" s="90"/>
-      <c r="B42" s="122"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="123"/>
-      <c r="E42" s="123"/>
-      <c r="F42" s="123"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="125"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="127"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="100"/>
       <c r="M42" s="91"/>
       <c r="N42" s="92"/>
-      <c r="O42" s="276"/>
-      <c r="P42" s="121"/>
+      <c r="O42" s="271"/>
+      <c r="P42" s="272"/>
       <c r="Q42" s="92"/>
       <c r="R42" s="91"/>
       <c r="S42" s="93"/>
       <c r="T42" s="94"/>
-      <c r="U42" s="115"/>
-      <c r="V42" s="116"/>
-      <c r="W42" s="116"/>
-      <c r="X42" s="117"/>
+      <c r="U42" s="242"/>
+      <c r="V42" s="243"/>
+      <c r="W42" s="243"/>
+      <c r="X42" s="244"/>
     </row>
     <row r="43" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A43" s="90"/>
-      <c r="B43" s="122"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="125"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="127"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="112"/>
+      <c r="E43" s="112"/>
+      <c r="F43" s="112"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="100"/>
       <c r="M43" s="91"/>
       <c r="N43" s="92"/>
-      <c r="O43" s="276"/>
-      <c r="P43" s="121"/>
+      <c r="O43" s="271"/>
+      <c r="P43" s="272"/>
       <c r="Q43" s="92"/>
       <c r="R43" s="91"/>
       <c r="S43" s="93"/>
       <c r="T43" s="94"/>
-      <c r="U43" s="115"/>
-      <c r="V43" s="116"/>
-      <c r="W43" s="116"/>
-      <c r="X43" s="117"/>
+      <c r="U43" s="242"/>
+      <c r="V43" s="243"/>
+      <c r="W43" s="243"/>
+      <c r="X43" s="244"/>
     </row>
     <row r="44" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A44" s="90"/>
-      <c r="B44" s="122"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="120"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="126"/>
-      <c r="L44" s="127"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="112"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="100"/>
       <c r="M44" s="91"/>
       <c r="N44" s="92"/>
-      <c r="O44" s="276"/>
-      <c r="P44" s="121"/>
+      <c r="O44" s="271"/>
+      <c r="P44" s="272"/>
       <c r="Q44" s="92"/>
       <c r="R44" s="91"/>
       <c r="S44" s="93"/>
       <c r="T44" s="94"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="116"/>
-      <c r="W44" s="116"/>
-      <c r="X44" s="117"/>
+      <c r="U44" s="242"/>
+      <c r="V44" s="243"/>
+      <c r="W44" s="243"/>
+      <c r="X44" s="244"/>
     </row>
     <row r="45" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A45" s="90"/>
-      <c r="B45" s="122"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="120"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="126"/>
-      <c r="L45" s="127"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="100"/>
       <c r="M45" s="91"/>
       <c r="N45" s="92"/>
-      <c r="O45" s="276"/>
-      <c r="P45" s="121"/>
+      <c r="O45" s="271"/>
+      <c r="P45" s="272"/>
       <c r="Q45" s="92"/>
       <c r="R45" s="91"/>
       <c r="S45" s="93"/>
       <c r="T45" s="94"/>
-      <c r="U45" s="115"/>
-      <c r="V45" s="116"/>
-      <c r="W45" s="116"/>
-      <c r="X45" s="117"/>
+      <c r="U45" s="242"/>
+      <c r="V45" s="243"/>
+      <c r="W45" s="243"/>
+      <c r="X45" s="244"/>
     </row>
     <row r="46" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A46" s="90"/>
-      <c r="B46" s="122"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="126"/>
-      <c r="L46" s="127"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="100"/>
       <c r="M46" s="91"/>
       <c r="N46" s="92"/>
-      <c r="O46" s="276"/>
-      <c r="P46" s="121"/>
+      <c r="O46" s="271"/>
+      <c r="P46" s="272"/>
       <c r="Q46" s="92"/>
       <c r="R46" s="91"/>
       <c r="S46" s="93"/>
       <c r="T46" s="94"/>
-      <c r="U46" s="115"/>
-      <c r="V46" s="116"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="117"/>
+      <c r="U46" s="242"/>
+      <c r="V46" s="243"/>
+      <c r="W46" s="243"/>
+      <c r="X46" s="244"/>
     </row>
     <row r="47" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A47" s="90"/>
-      <c r="B47" s="122"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="120"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="126"/>
-      <c r="L47" s="127"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="112"/>
+      <c r="D47" s="112"/>
+      <c r="E47" s="112"/>
+      <c r="F47" s="112"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="100"/>
       <c r="M47" s="91"/>
       <c r="N47" s="92"/>
-      <c r="O47" s="276"/>
-      <c r="P47" s="121"/>
+      <c r="O47" s="271"/>
+      <c r="P47" s="272"/>
       <c r="Q47" s="92"/>
       <c r="R47" s="91"/>
       <c r="S47" s="93"/>
       <c r="T47" s="94"/>
-      <c r="U47" s="115"/>
-      <c r="V47" s="116"/>
-      <c r="W47" s="116"/>
-      <c r="X47" s="117"/>
+      <c r="U47" s="242"/>
+      <c r="V47" s="243"/>
+      <c r="W47" s="243"/>
+      <c r="X47" s="244"/>
     </row>
     <row r="48" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A48" s="15"/>
-      <c r="B48" s="268"/>
-      <c r="C48" s="269"/>
-      <c r="D48" s="269"/>
-      <c r="E48" s="269"/>
-      <c r="F48" s="269"/>
-      <c r="G48" s="270"/>
-      <c r="H48" s="271"/>
-      <c r="I48" s="272"/>
+      <c r="B48" s="278"/>
+      <c r="C48" s="279"/>
+      <c r="D48" s="279"/>
+      <c r="E48" s="279"/>
+      <c r="F48" s="279"/>
+      <c r="G48" s="280"/>
+      <c r="H48" s="276"/>
+      <c r="I48" s="277"/>
       <c r="J48" s="273"/>
       <c r="K48" s="274"/>
       <c r="L48" s="275"/>
       <c r="M48" s="17"/>
       <c r="N48" s="18"/>
-      <c r="O48" s="277"/>
-      <c r="P48" s="272"/>
+      <c r="O48" s="269"/>
+      <c r="P48" s="270"/>
       <c r="Q48" s="18"/>
       <c r="R48" s="17"/>
       <c r="S48" s="16"/>
       <c r="T48" s="19"/>
-      <c r="U48" s="148"/>
-      <c r="V48" s="149"/>
-      <c r="W48" s="149"/>
-      <c r="X48" s="150"/>
+      <c r="U48" s="234"/>
+      <c r="V48" s="235"/>
+      <c r="W48" s="235"/>
+      <c r="X48" s="236"/>
     </row>
     <row r="49" spans="1:24" s="14" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A49" s="109"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="110"/>
-      <c r="N49" s="110"/>
-      <c r="O49" s="110"/>
-      <c r="P49" s="110"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="110"/>
-      <c r="S49" s="110"/>
-      <c r="T49" s="110"/>
-      <c r="U49" s="111" t="s">
+      <c r="A49" s="262"/>
+      <c r="B49" s="262"/>
+      <c r="C49" s="262"/>
+      <c r="D49" s="262"/>
+      <c r="E49" s="263"/>
+      <c r="F49" s="263"/>
+      <c r="G49" s="263"/>
+      <c r="H49" s="263"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="263"/>
+      <c r="L49" s="263"/>
+      <c r="M49" s="263"/>
+      <c r="N49" s="263"/>
+      <c r="O49" s="263"/>
+      <c r="P49" s="263"/>
+      <c r="Q49" s="263"/>
+      <c r="R49" s="263"/>
+      <c r="S49" s="263"/>
+      <c r="T49" s="263"/>
+      <c r="U49" s="264" t="s">
         <v>0</v>
       </c>
-      <c r="V49" s="111"/>
-      <c r="W49" s="112" t="s">
+      <c r="V49" s="264"/>
+      <c r="W49" s="265" t="s">
         <v>1</v>
       </c>
-      <c r="X49" s="112"/>
+      <c r="X49" s="265"/>
     </row>
     <row r="50" spans="1:24" s="14" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A50" s="113" t="s">
+      <c r="A50" s="266" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="114"/>
-      <c r="E50" s="114"/>
-      <c r="F50" s="114"/>
-      <c r="G50" s="114"/>
-      <c r="H50" s="113" t="s">
+      <c r="B50" s="266"/>
+      <c r="C50" s="266"/>
+      <c r="D50" s="267"/>
+      <c r="E50" s="267"/>
+      <c r="F50" s="267"/>
+      <c r="G50" s="267"/>
+      <c r="H50" s="266" t="s">
         <v>2</v>
       </c>
-      <c r="I50" s="113"/>
-      <c r="J50" s="137"/>
-      <c r="K50" s="137"/>
-      <c r="L50" s="137"/>
-      <c r="M50" s="137"/>
+      <c r="I50" s="266"/>
+      <c r="J50" s="255"/>
+      <c r="K50" s="255"/>
+      <c r="L50" s="255"/>
+      <c r="M50" s="255"/>
       <c r="N50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O50" s="138"/>
-      <c r="P50" s="138"/>
-      <c r="Q50" s="138"/>
+      <c r="O50" s="256"/>
+      <c r="P50" s="256"/>
+      <c r="Q50" s="256"/>
       <c r="R50" s="88" t="s">
         <v>73</v>
       </c>
       <c r="S50" s="88"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="129" t="s">
+      <c r="U50" s="247" t="s">
         <v>72</v>
       </c>
-      <c r="V50" s="129"/>
-      <c r="W50" s="130"/>
-      <c r="X50" s="130"/>
+      <c r="V50" s="247"/>
+      <c r="W50" s="248"/>
+      <c r="X50" s="248"/>
     </row>
     <row r="51" spans="1:24" s="14" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A51" s="98" t="s">
+      <c r="A51" s="257" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="131" t="s">
+      <c r="B51" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="135"/>
-      <c r="D51" s="135"/>
-      <c r="E51" s="135"/>
-      <c r="F51" s="135"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="131" t="s">
+      <c r="C51" s="253"/>
+      <c r="D51" s="253"/>
+      <c r="E51" s="253"/>
+      <c r="F51" s="253"/>
+      <c r="G51" s="250"/>
+      <c r="H51" s="249" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="132"/>
-      <c r="J51" s="208" t="s">
+      <c r="I51" s="250"/>
+      <c r="J51" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="K51" s="103"/>
-      <c r="L51" s="104"/>
-      <c r="M51" s="100" t="s">
+      <c r="K51" s="102"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="259" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="101"/>
-      <c r="O51" s="102" t="s">
+      <c r="N51" s="260"/>
+      <c r="O51" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="104"/>
-      <c r="R51" s="100" t="s">
+      <c r="P51" s="102"/>
+      <c r="Q51" s="103"/>
+      <c r="R51" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="S51" s="105"/>
-      <c r="T51" s="101"/>
-      <c r="U51" s="102" t="s">
+      <c r="S51" s="261"/>
+      <c r="T51" s="260"/>
+      <c r="U51" s="177" t="s">
         <v>74</v>
       </c>
-      <c r="V51" s="103"/>
-      <c r="W51" s="103"/>
-      <c r="X51" s="104"/>
+      <c r="V51" s="102"/>
+      <c r="W51" s="102"/>
+      <c r="X51" s="103"/>
     </row>
     <row r="52" spans="1:24" s="14" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A52" s="99"/>
-      <c r="B52" s="133"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="267" t="s">
+      <c r="A52" s="258"/>
+      <c r="B52" s="251"/>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="252"/>
+      <c r="H52" s="251"/>
+      <c r="I52" s="252"/>
+      <c r="J52" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="107"/>
-      <c r="L52" s="108"/>
+      <c r="K52" s="105"/>
+      <c r="L52" s="106"/>
       <c r="M52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="106" t="s">
+      <c r="O52" s="245" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="128"/>
+      <c r="P52" s="246"/>
       <c r="Q52" s="7" t="s">
         <v>11</v>
       </c>
@@ -5835,399 +5845,399 @@
       <c r="T52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U52" s="106"/>
-      <c r="V52" s="107"/>
-      <c r="W52" s="107"/>
-      <c r="X52" s="108"/>
+      <c r="U52" s="245"/>
+      <c r="V52" s="105"/>
+      <c r="W52" s="105"/>
+      <c r="X52" s="106"/>
     </row>
     <row r="53" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A53" s="90"/>
-      <c r="B53" s="122"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="123"/>
-      <c r="E53" s="123"/>
-      <c r="F53" s="123"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="120"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="126"/>
-      <c r="L53" s="127"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="112"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="112"/>
+      <c r="F53" s="112"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="99"/>
+      <c r="L53" s="100"/>
       <c r="M53" s="96"/>
       <c r="N53" s="97"/>
-      <c r="O53" s="276"/>
-      <c r="P53" s="121"/>
+      <c r="O53" s="268"/>
+      <c r="P53" s="110"/>
       <c r="Q53" s="97"/>
       <c r="R53" s="96"/>
       <c r="S53" s="95"/>
       <c r="T53" s="94"/>
-      <c r="U53" s="115"/>
-      <c r="V53" s="116"/>
-      <c r="W53" s="116"/>
-      <c r="X53" s="117"/>
+      <c r="U53" s="242"/>
+      <c r="V53" s="243"/>
+      <c r="W53" s="243"/>
+      <c r="X53" s="244"/>
     </row>
     <row r="54" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A54" s="90"/>
-      <c r="B54" s="122"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="123"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="124"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="126"/>
-      <c r="L54" s="127"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="112"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="112"/>
+      <c r="F54" s="112"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="99"/>
+      <c r="L54" s="100"/>
       <c r="M54" s="96"/>
       <c r="N54" s="97"/>
-      <c r="O54" s="276"/>
-      <c r="P54" s="121"/>
+      <c r="O54" s="268"/>
+      <c r="P54" s="110"/>
       <c r="Q54" s="97"/>
       <c r="R54" s="96"/>
       <c r="S54" s="95"/>
       <c r="T54" s="94"/>
-      <c r="U54" s="115"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="116"/>
-      <c r="X54" s="117"/>
+      <c r="U54" s="242"/>
+      <c r="V54" s="243"/>
+      <c r="W54" s="243"/>
+      <c r="X54" s="244"/>
     </row>
     <row r="55" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A55" s="90"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="123"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="126"/>
-      <c r="L55" s="127"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="112"/>
+      <c r="D55" s="112"/>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="99"/>
+      <c r="L55" s="100"/>
       <c r="M55" s="96"/>
       <c r="N55" s="97"/>
-      <c r="O55" s="276"/>
-      <c r="P55" s="121"/>
+      <c r="O55" s="268"/>
+      <c r="P55" s="110"/>
       <c r="Q55" s="97"/>
       <c r="R55" s="96"/>
       <c r="S55" s="95"/>
       <c r="T55" s="94"/>
-      <c r="U55" s="115"/>
-      <c r="V55" s="116"/>
-      <c r="W55" s="116"/>
-      <c r="X55" s="117"/>
+      <c r="U55" s="242"/>
+      <c r="V55" s="243"/>
+      <c r="W55" s="243"/>
+      <c r="X55" s="244"/>
     </row>
     <row r="56" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A56" s="90"/>
-      <c r="B56" s="122"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="127"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="112"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="99"/>
+      <c r="L56" s="100"/>
       <c r="M56" s="96"/>
       <c r="N56" s="97"/>
-      <c r="O56" s="276"/>
-      <c r="P56" s="121"/>
+      <c r="O56" s="268"/>
+      <c r="P56" s="110"/>
       <c r="Q56" s="97"/>
       <c r="R56" s="96"/>
       <c r="S56" s="95"/>
       <c r="T56" s="94"/>
-      <c r="U56" s="115"/>
-      <c r="V56" s="116"/>
-      <c r="W56" s="116"/>
-      <c r="X56" s="117"/>
+      <c r="U56" s="242"/>
+      <c r="V56" s="243"/>
+      <c r="W56" s="243"/>
+      <c r="X56" s="244"/>
     </row>
     <row r="57" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A57" s="90"/>
-      <c r="B57" s="122"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="125"/>
-      <c r="K57" s="126"/>
-      <c r="L57" s="127"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="99"/>
+      <c r="L57" s="100"/>
       <c r="M57" s="96"/>
       <c r="N57" s="97"/>
-      <c r="O57" s="276"/>
-      <c r="P57" s="121"/>
+      <c r="O57" s="268"/>
+      <c r="P57" s="110"/>
       <c r="Q57" s="97"/>
       <c r="R57" s="96"/>
       <c r="S57" s="95"/>
       <c r="T57" s="94"/>
-      <c r="U57" s="115"/>
-      <c r="V57" s="116"/>
-      <c r="W57" s="116"/>
-      <c r="X57" s="117"/>
+      <c r="U57" s="242"/>
+      <c r="V57" s="243"/>
+      <c r="W57" s="243"/>
+      <c r="X57" s="244"/>
     </row>
     <row r="58" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A58" s="90"/>
-      <c r="B58" s="122"/>
-      <c r="C58" s="123"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="126"/>
-      <c r="L58" s="127"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="112"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="99"/>
+      <c r="L58" s="100"/>
       <c r="M58" s="96"/>
       <c r="N58" s="97"/>
-      <c r="O58" s="276"/>
-      <c r="P58" s="121"/>
+      <c r="O58" s="268"/>
+      <c r="P58" s="110"/>
       <c r="Q58" s="97"/>
       <c r="R58" s="96"/>
       <c r="S58" s="95"/>
       <c r="T58" s="94"/>
-      <c r="U58" s="115"/>
-      <c r="V58" s="116"/>
-      <c r="W58" s="116"/>
-      <c r="X58" s="117"/>
+      <c r="U58" s="242"/>
+      <c r="V58" s="243"/>
+      <c r="W58" s="243"/>
+      <c r="X58" s="244"/>
     </row>
     <row r="59" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A59" s="90"/>
-      <c r="B59" s="122"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="124"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="121"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="126"/>
-      <c r="L59" s="127"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="99"/>
+      <c r="L59" s="100"/>
       <c r="M59" s="96"/>
       <c r="N59" s="97"/>
-      <c r="O59" s="276"/>
-      <c r="P59" s="121"/>
+      <c r="O59" s="268"/>
+      <c r="P59" s="110"/>
       <c r="Q59" s="97"/>
       <c r="R59" s="96"/>
       <c r="S59" s="95"/>
       <c r="T59" s="94"/>
-      <c r="U59" s="115"/>
-      <c r="V59" s="116"/>
-      <c r="W59" s="116"/>
-      <c r="X59" s="117"/>
+      <c r="U59" s="242"/>
+      <c r="V59" s="243"/>
+      <c r="W59" s="243"/>
+      <c r="X59" s="244"/>
     </row>
     <row r="60" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A60" s="90"/>
-      <c r="B60" s="122"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="123"/>
-      <c r="E60" s="123"/>
-      <c r="F60" s="123"/>
-      <c r="G60" s="124"/>
-      <c r="H60" s="120"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="126"/>
-      <c r="L60" s="127"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="98"/>
+      <c r="K60" s="99"/>
+      <c r="L60" s="100"/>
       <c r="M60" s="96"/>
       <c r="N60" s="97"/>
-      <c r="O60" s="276"/>
-      <c r="P60" s="121"/>
+      <c r="O60" s="268"/>
+      <c r="P60" s="110"/>
       <c r="Q60" s="97"/>
       <c r="R60" s="96"/>
       <c r="S60" s="95"/>
       <c r="T60" s="94"/>
-      <c r="U60" s="115"/>
-      <c r="V60" s="116"/>
-      <c r="W60" s="116"/>
-      <c r="X60" s="117"/>
+      <c r="U60" s="242"/>
+      <c r="V60" s="243"/>
+      <c r="W60" s="243"/>
+      <c r="X60" s="244"/>
     </row>
     <row r="61" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A61" s="90"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="124"/>
-      <c r="H61" s="120"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="125"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="127"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="112"/>
+      <c r="D61" s="112"/>
+      <c r="E61" s="112"/>
+      <c r="F61" s="112"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="98"/>
+      <c r="K61" s="99"/>
+      <c r="L61" s="100"/>
       <c r="M61" s="96"/>
       <c r="N61" s="97"/>
-      <c r="O61" s="276"/>
-      <c r="P61" s="121"/>
+      <c r="O61" s="268"/>
+      <c r="P61" s="110"/>
       <c r="Q61" s="97"/>
       <c r="R61" s="96"/>
       <c r="S61" s="95"/>
       <c r="T61" s="94"/>
-      <c r="U61" s="115"/>
-      <c r="V61" s="116"/>
-      <c r="W61" s="116"/>
-      <c r="X61" s="117"/>
+      <c r="U61" s="242"/>
+      <c r="V61" s="243"/>
+      <c r="W61" s="243"/>
+      <c r="X61" s="244"/>
     </row>
     <row r="62" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A62" s="90"/>
-      <c r="B62" s="122"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="123"/>
-      <c r="E62" s="123"/>
-      <c r="F62" s="123"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="121"/>
-      <c r="J62" s="125"/>
-      <c r="K62" s="126"/>
-      <c r="L62" s="127"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="109"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="100"/>
       <c r="M62" s="96"/>
       <c r="N62" s="97"/>
-      <c r="O62" s="276"/>
-      <c r="P62" s="121"/>
+      <c r="O62" s="268"/>
+      <c r="P62" s="110"/>
       <c r="Q62" s="97"/>
       <c r="R62" s="96"/>
       <c r="S62" s="95"/>
       <c r="T62" s="94"/>
-      <c r="U62" s="115"/>
-      <c r="V62" s="116"/>
-      <c r="W62" s="116"/>
-      <c r="X62" s="117"/>
+      <c r="U62" s="242"/>
+      <c r="V62" s="243"/>
+      <c r="W62" s="243"/>
+      <c r="X62" s="244"/>
     </row>
     <row r="63" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A63" s="90"/>
-      <c r="B63" s="122"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="123"/>
-      <c r="F63" s="123"/>
-      <c r="G63" s="124"/>
-      <c r="H63" s="120"/>
-      <c r="I63" s="121"/>
-      <c r="J63" s="125"/>
-      <c r="K63" s="126"/>
-      <c r="L63" s="127"/>
+      <c r="B63" s="111"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="113"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="98"/>
+      <c r="K63" s="99"/>
+      <c r="L63" s="100"/>
       <c r="M63" s="96"/>
       <c r="N63" s="97"/>
-      <c r="O63" s="276"/>
-      <c r="P63" s="121"/>
+      <c r="O63" s="268"/>
+      <c r="P63" s="110"/>
       <c r="Q63" s="97"/>
       <c r="R63" s="96"/>
       <c r="S63" s="95"/>
       <c r="T63" s="94"/>
-      <c r="U63" s="115"/>
-      <c r="V63" s="116"/>
-      <c r="W63" s="116"/>
-      <c r="X63" s="117"/>
+      <c r="U63" s="242"/>
+      <c r="V63" s="243"/>
+      <c r="W63" s="243"/>
+      <c r="X63" s="244"/>
     </row>
     <row r="64" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A64" s="90"/>
-      <c r="B64" s="122"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="123"/>
-      <c r="E64" s="123"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="124"/>
-      <c r="H64" s="120"/>
-      <c r="I64" s="121"/>
-      <c r="J64" s="125"/>
-      <c r="K64" s="126"/>
-      <c r="L64" s="127"/>
+      <c r="B64" s="111"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="113"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="99"/>
+      <c r="L64" s="100"/>
       <c r="M64" s="96"/>
       <c r="N64" s="97"/>
-      <c r="O64" s="276"/>
-      <c r="P64" s="121"/>
+      <c r="O64" s="268"/>
+      <c r="P64" s="110"/>
       <c r="Q64" s="97"/>
       <c r="R64" s="96"/>
       <c r="S64" s="95"/>
       <c r="T64" s="94"/>
-      <c r="U64" s="115"/>
-      <c r="V64" s="116"/>
-      <c r="W64" s="116"/>
-      <c r="X64" s="117"/>
+      <c r="U64" s="242"/>
+      <c r="V64" s="243"/>
+      <c r="W64" s="243"/>
+      <c r="X64" s="244"/>
     </row>
     <row r="65" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A65" s="90"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="123"/>
-      <c r="E65" s="123"/>
-      <c r="F65" s="123"/>
-      <c r="G65" s="124"/>
-      <c r="H65" s="120"/>
-      <c r="I65" s="121"/>
-      <c r="J65" s="125"/>
-      <c r="K65" s="126"/>
-      <c r="L65" s="127"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="98"/>
+      <c r="K65" s="99"/>
+      <c r="L65" s="100"/>
       <c r="M65" s="96"/>
       <c r="N65" s="97"/>
-      <c r="O65" s="276"/>
-      <c r="P65" s="121"/>
+      <c r="O65" s="268"/>
+      <c r="P65" s="110"/>
       <c r="Q65" s="97"/>
       <c r="R65" s="96"/>
       <c r="S65" s="95"/>
       <c r="T65" s="94"/>
-      <c r="U65" s="115"/>
-      <c r="V65" s="116"/>
-      <c r="W65" s="116"/>
-      <c r="X65" s="117"/>
+      <c r="U65" s="242"/>
+      <c r="V65" s="243"/>
+      <c r="W65" s="243"/>
+      <c r="X65" s="244"/>
     </row>
     <row r="66" spans="1:24" s="14" customFormat="1" ht="11.1" customHeight="1">
       <c r="A66" s="90"/>
-      <c r="B66" s="122"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="124"/>
-      <c r="H66" s="120"/>
-      <c r="I66" s="121"/>
-      <c r="J66" s="125"/>
-      <c r="K66" s="126"/>
-      <c r="L66" s="127"/>
+      <c r="B66" s="111"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="113"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="99"/>
+      <c r="L66" s="100"/>
       <c r="M66" s="96"/>
       <c r="N66" s="97"/>
-      <c r="O66" s="276"/>
-      <c r="P66" s="121"/>
+      <c r="O66" s="268"/>
+      <c r="P66" s="110"/>
       <c r="Q66" s="97"/>
       <c r="R66" s="96"/>
       <c r="S66" s="95"/>
       <c r="T66" s="94"/>
-      <c r="U66" s="115"/>
-      <c r="V66" s="116"/>
-      <c r="W66" s="116"/>
-      <c r="X66" s="117"/>
+      <c r="U66" s="242"/>
+      <c r="V66" s="243"/>
+      <c r="W66" s="243"/>
+      <c r="X66" s="244"/>
     </row>
     <row r="67" spans="1:24" s="29" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A67" s="139" t="s">
+      <c r="A67" s="225" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="140"/>
-      <c r="C67" s="141"/>
+      <c r="B67" s="226"/>
+      <c r="C67" s="227"/>
       <c r="D67" s="25" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="142" t="s">
+      <c r="F67" s="228" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="141"/>
-      <c r="H67" s="142" t="s">
+      <c r="G67" s="227"/>
+      <c r="H67" s="228" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="141"/>
-      <c r="J67" s="142" t="s">
+      <c r="I67" s="227"/>
+      <c r="J67" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="141"/>
+      <c r="K67" s="227"/>
       <c r="L67" s="25" t="s">
         <v>19</v>
       </c>
@@ -6237,10 +6247,10 @@
       <c r="N67" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O67" s="142" t="s">
+      <c r="O67" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="P67" s="141"/>
+      <c r="P67" s="227"/>
       <c r="Q67" s="25" t="s">
         <v>23</v>
       </c>
@@ -6250,11 +6260,11 @@
       <c r="S67" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T67" s="143" t="s">
+      <c r="T67" s="229" t="s">
         <v>26</v>
       </c>
-      <c r="U67" s="144"/>
-      <c r="V67" s="145"/>
+      <c r="U67" s="230"/>
+      <c r="V67" s="231"/>
       <c r="W67" s="27" t="s">
         <v>27</v>
       </c>
@@ -6263,86 +6273,86 @@
       </c>
     </row>
     <row r="68" spans="1:24" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="156" t="s">
+      <c r="A68" s="218" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="157"/>
-      <c r="C68" s="158"/>
+      <c r="B68" s="219"/>
+      <c r="C68" s="220"/>
       <c r="D68" s="9"/>
       <c r="E68" s="30"/>
-      <c r="F68" s="159"/>
-      <c r="G68" s="159"/>
-      <c r="H68" s="159"/>
-      <c r="I68" s="159"/>
-      <c r="J68" s="159"/>
-      <c r="K68" s="159"/>
+      <c r="F68" s="221"/>
+      <c r="G68" s="221"/>
+      <c r="H68" s="221"/>
+      <c r="I68" s="221"/>
+      <c r="J68" s="221"/>
+      <c r="K68" s="221"/>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
       <c r="N68" s="30"/>
-      <c r="O68" s="160"/>
-      <c r="P68" s="161"/>
+      <c r="O68" s="116"/>
+      <c r="P68" s="117"/>
       <c r="Q68" s="30"/>
       <c r="R68" s="30"/>
       <c r="S68" s="9"/>
-      <c r="T68" s="162"/>
-      <c r="U68" s="163"/>
-      <c r="V68" s="164"/>
+      <c r="T68" s="222"/>
+      <c r="U68" s="223"/>
+      <c r="V68" s="224"/>
       <c r="W68" s="31"/>
       <c r="X68" s="32"/>
     </row>
     <row r="69" spans="1:24" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="156" t="s">
+      <c r="A69" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="157"/>
-      <c r="C69" s="158"/>
+      <c r="B69" s="219"/>
+      <c r="C69" s="220"/>
       <c r="D69" s="9"/>
       <c r="E69" s="30"/>
-      <c r="F69" s="159"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="159"/>
-      <c r="I69" s="159"/>
-      <c r="J69" s="159"/>
-      <c r="K69" s="159"/>
+      <c r="F69" s="221"/>
+      <c r="G69" s="221"/>
+      <c r="H69" s="221"/>
+      <c r="I69" s="221"/>
+      <c r="J69" s="221"/>
+      <c r="K69" s="221"/>
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
       <c r="N69" s="30"/>
-      <c r="O69" s="160"/>
-      <c r="P69" s="161"/>
+      <c r="O69" s="116"/>
+      <c r="P69" s="117"/>
       <c r="Q69" s="30"/>
       <c r="R69" s="30"/>
       <c r="S69" s="9"/>
-      <c r="T69" s="162"/>
-      <c r="U69" s="163"/>
-      <c r="V69" s="164"/>
+      <c r="T69" s="222"/>
+      <c r="U69" s="223"/>
+      <c r="V69" s="224"/>
       <c r="W69" s="31"/>
       <c r="X69" s="32"/>
     </row>
     <row r="70" spans="1:24" s="29" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="172" t="s">
+      <c r="A70" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="173"/>
-      <c r="C70" s="174"/>
+      <c r="B70" s="210"/>
+      <c r="C70" s="211"/>
       <c r="D70" s="33"/>
       <c r="E70" s="34"/>
-      <c r="F70" s="175"/>
-      <c r="G70" s="175"/>
-      <c r="H70" s="175"/>
-      <c r="I70" s="175"/>
-      <c r="J70" s="175"/>
-      <c r="K70" s="175"/>
+      <c r="F70" s="212"/>
+      <c r="G70" s="212"/>
+      <c r="H70" s="212"/>
+      <c r="I70" s="212"/>
+      <c r="J70" s="212"/>
+      <c r="K70" s="212"/>
       <c r="L70" s="34"/>
       <c r="M70" s="34"/>
       <c r="N70" s="34"/>
-      <c r="O70" s="176"/>
-      <c r="P70" s="177"/>
+      <c r="O70" s="213"/>
+      <c r="P70" s="214"/>
       <c r="Q70" s="34"/>
       <c r="R70" s="34"/>
       <c r="S70" s="33"/>
-      <c r="T70" s="178"/>
-      <c r="U70" s="179"/>
-      <c r="V70" s="180"/>
+      <c r="T70" s="215"/>
+      <c r="U70" s="216"/>
+      <c r="V70" s="217"/>
       <c r="W70" s="35"/>
       <c r="X70" s="36"/>
     </row>
@@ -6365,12 +6375,12 @@
       <c r="P71" s="38"/>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
-      <c r="S71" s="165"/>
-      <c r="T71" s="165"/>
+      <c r="S71" s="204"/>
+      <c r="T71" s="204"/>
       <c r="U71" s="39"/>
-      <c r="V71" s="166"/>
-      <c r="W71" s="166"/>
-      <c r="X71" s="167"/>
+      <c r="V71" s="205"/>
+      <c r="W71" s="205"/>
+      <c r="X71" s="206"/>
     </row>
     <row r="72" spans="1:24" s="29" customFormat="1" ht="11.1" customHeight="1">
       <c r="A72" s="40" t="s">
@@ -6378,181 +6388,181 @@
       </c>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
-      <c r="D72" s="168"/>
-      <c r="E72" s="168"/>
-      <c r="F72" s="168"/>
-      <c r="G72" s="168"/>
-      <c r="H72" s="168"/>
-      <c r="I72" s="168"/>
-      <c r="J72" s="168"/>
-      <c r="K72" s="168"/>
-      <c r="L72" s="168"/>
-      <c r="M72" s="168"/>
+      <c r="D72" s="207"/>
+      <c r="E72" s="207"/>
+      <c r="F72" s="207"/>
+      <c r="G72" s="207"/>
+      <c r="H72" s="207"/>
+      <c r="I72" s="207"/>
+      <c r="J72" s="207"/>
+      <c r="K72" s="207"/>
+      <c r="L72" s="207"/>
+      <c r="M72" s="207"/>
       <c r="N72" s="42" t="s">
         <v>33</v>
       </c>
       <c r="O72" s="42"/>
-      <c r="P72" s="169"/>
-      <c r="Q72" s="169"/>
-      <c r="R72" s="169"/>
-      <c r="S72" s="169"/>
-      <c r="T72" s="168" t="s">
+      <c r="P72" s="208"/>
+      <c r="Q72" s="208"/>
+      <c r="R72" s="208"/>
+      <c r="S72" s="208"/>
+      <c r="T72" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="U72" s="168"/>
-      <c r="V72" s="170"/>
-      <c r="W72" s="170"/>
-      <c r="X72" s="171"/>
+      <c r="U72" s="207"/>
+      <c r="V72" s="175"/>
+      <c r="W72" s="175"/>
+      <c r="X72" s="176"/>
     </row>
     <row r="73" spans="1:24" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A73" s="102" t="s">
+      <c r="A73" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="103"/>
-      <c r="C73" s="181"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="178"/>
       <c r="D73" s="43" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="182" t="s">
+      <c r="F73" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="G73" s="183"/>
-      <c r="H73" s="183"/>
-      <c r="I73" s="183"/>
-      <c r="J73" s="183"/>
-      <c r="K73" s="183"/>
-      <c r="L73" s="183"/>
-      <c r="M73" s="184"/>
+      <c r="G73" s="201"/>
+      <c r="H73" s="201"/>
+      <c r="I73" s="201"/>
+      <c r="J73" s="201"/>
+      <c r="K73" s="201"/>
+      <c r="L73" s="201"/>
+      <c r="M73" s="202"/>
       <c r="N73" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O73" s="182" t="s">
+      <c r="O73" s="200" t="s">
         <v>40</v>
       </c>
-      <c r="P73" s="183"/>
-      <c r="Q73" s="183"/>
-      <c r="R73" s="183"/>
-      <c r="S73" s="183"/>
+      <c r="P73" s="201"/>
+      <c r="Q73" s="201"/>
+      <c r="R73" s="201"/>
+      <c r="S73" s="201"/>
       <c r="T73" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="U73" s="185" t="s">
+      <c r="U73" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="V73" s="186"/>
-      <c r="W73" s="182" t="s">
+      <c r="V73" s="180"/>
+      <c r="W73" s="200" t="s">
         <v>10</v>
       </c>
-      <c r="X73" s="187"/>
+      <c r="X73" s="203"/>
     </row>
     <row r="74" spans="1:24" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A74" s="188"/>
-      <c r="B74" s="189"/>
-      <c r="C74" s="189"/>
+      <c r="A74" s="195"/>
+      <c r="B74" s="196"/>
+      <c r="C74" s="196"/>
       <c r="D74" s="46"/>
       <c r="E74" s="30"/>
-      <c r="F74" s="190"/>
-      <c r="G74" s="191"/>
-      <c r="H74" s="191"/>
-      <c r="I74" s="191"/>
-      <c r="J74" s="191"/>
-      <c r="K74" s="191"/>
-      <c r="L74" s="191"/>
-      <c r="M74" s="192"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="119"/>
+      <c r="J74" s="119"/>
+      <c r="K74" s="119"/>
+      <c r="L74" s="119"/>
+      <c r="M74" s="120"/>
       <c r="N74" s="47"/>
-      <c r="O74" s="190"/>
-      <c r="P74" s="191"/>
-      <c r="Q74" s="191"/>
-      <c r="R74" s="191"/>
-      <c r="S74" s="192"/>
+      <c r="O74" s="118"/>
+      <c r="P74" s="119"/>
+      <c r="Q74" s="119"/>
+      <c r="R74" s="119"/>
+      <c r="S74" s="120"/>
       <c r="T74" s="48"/>
-      <c r="U74" s="193"/>
-      <c r="V74" s="194"/>
-      <c r="W74" s="160"/>
-      <c r="X74" s="195"/>
+      <c r="U74" s="197"/>
+      <c r="V74" s="198"/>
+      <c r="W74" s="116"/>
+      <c r="X74" s="199"/>
     </row>
     <row r="75" spans="1:24" s="29" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A75" s="188"/>
-      <c r="B75" s="189"/>
-      <c r="C75" s="189"/>
+      <c r="A75" s="195"/>
+      <c r="B75" s="196"/>
+      <c r="C75" s="196"/>
       <c r="D75" s="46"/>
       <c r="E75" s="30"/>
-      <c r="F75" s="190"/>
-      <c r="G75" s="191"/>
-      <c r="H75" s="191"/>
-      <c r="I75" s="191"/>
-      <c r="J75" s="191"/>
-      <c r="K75" s="191"/>
-      <c r="L75" s="191"/>
-      <c r="M75" s="192"/>
+      <c r="F75" s="118"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="119"/>
+      <c r="J75" s="119"/>
+      <c r="K75" s="119"/>
+      <c r="L75" s="119"/>
+      <c r="M75" s="120"/>
       <c r="N75" s="47"/>
-      <c r="O75" s="190"/>
-      <c r="P75" s="191"/>
-      <c r="Q75" s="191"/>
-      <c r="R75" s="191"/>
-      <c r="S75" s="192"/>
+      <c r="O75" s="118"/>
+      <c r="P75" s="119"/>
+      <c r="Q75" s="119"/>
+      <c r="R75" s="119"/>
+      <c r="S75" s="120"/>
       <c r="T75" s="48"/>
-      <c r="U75" s="193"/>
-      <c r="V75" s="194"/>
-      <c r="W75" s="160"/>
-      <c r="X75" s="195"/>
+      <c r="U75" s="197"/>
+      <c r="V75" s="198"/>
+      <c r="W75" s="116"/>
+      <c r="X75" s="199"/>
     </row>
     <row r="76" spans="1:24" s="49" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A76" s="188"/>
-      <c r="B76" s="189"/>
-      <c r="C76" s="189"/>
+      <c r="A76" s="195"/>
+      <c r="B76" s="196"/>
+      <c r="C76" s="196"/>
       <c r="D76" s="46"/>
       <c r="E76" s="30"/>
-      <c r="F76" s="190"/>
-      <c r="G76" s="191"/>
-      <c r="H76" s="191"/>
-      <c r="I76" s="191"/>
-      <c r="J76" s="191"/>
-      <c r="K76" s="191"/>
-      <c r="L76" s="191"/>
-      <c r="M76" s="192"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="119"/>
+      <c r="H76" s="119"/>
+      <c r="I76" s="119"/>
+      <c r="J76" s="119"/>
+      <c r="K76" s="119"/>
+      <c r="L76" s="119"/>
+      <c r="M76" s="120"/>
       <c r="N76" s="47"/>
-      <c r="O76" s="190"/>
-      <c r="P76" s="191"/>
-      <c r="Q76" s="191"/>
-      <c r="R76" s="191"/>
-      <c r="S76" s="192"/>
+      <c r="O76" s="118"/>
+      <c r="P76" s="119"/>
+      <c r="Q76" s="119"/>
+      <c r="R76" s="119"/>
+      <c r="S76" s="120"/>
       <c r="T76" s="48"/>
-      <c r="U76" s="193"/>
-      <c r="V76" s="194"/>
-      <c r="W76" s="160"/>
-      <c r="X76" s="195"/>
+      <c r="U76" s="197"/>
+      <c r="V76" s="198"/>
+      <c r="W76" s="116"/>
+      <c r="X76" s="199"/>
     </row>
     <row r="77" spans="1:24" ht="11.25" customHeight="1">
-      <c r="A77" s="196"/>
-      <c r="B77" s="197"/>
-      <c r="C77" s="197"/>
+      <c r="A77" s="183"/>
+      <c r="B77" s="184"/>
+      <c r="C77" s="184"/>
       <c r="D77" s="50"/>
       <c r="E77" s="34"/>
-      <c r="F77" s="198"/>
-      <c r="G77" s="199"/>
-      <c r="H77" s="199"/>
-      <c r="I77" s="199"/>
-      <c r="J77" s="199"/>
-      <c r="K77" s="199"/>
-      <c r="L77" s="199"/>
-      <c r="M77" s="200"/>
+      <c r="F77" s="185"/>
+      <c r="G77" s="186"/>
+      <c r="H77" s="186"/>
+      <c r="I77" s="186"/>
+      <c r="J77" s="186"/>
+      <c r="K77" s="186"/>
+      <c r="L77" s="186"/>
+      <c r="M77" s="187"/>
       <c r="N77" s="51"/>
-      <c r="O77" s="198"/>
-      <c r="P77" s="199"/>
-      <c r="Q77" s="199"/>
-      <c r="R77" s="199"/>
-      <c r="S77" s="200"/>
-      <c r="T77" s="201" t="s">
+      <c r="O77" s="185"/>
+      <c r="P77" s="186"/>
+      <c r="Q77" s="186"/>
+      <c r="R77" s="186"/>
+      <c r="S77" s="187"/>
+      <c r="T77" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="U77" s="202"/>
-      <c r="V77" s="203"/>
-      <c r="W77" s="204"/>
-      <c r="X77" s="205"/>
+      <c r="U77" s="189"/>
+      <c r="V77" s="190"/>
+      <c r="W77" s="191"/>
+      <c r="X77" s="192"/>
     </row>
     <row r="78" spans="1:24" ht="3" customHeight="1">
       <c r="A78" s="52"/>
@@ -6574,11 +6584,11 @@
       <c r="Q78" s="58"/>
       <c r="R78" s="58"/>
       <c r="S78" s="59"/>
-      <c r="T78" s="206"/>
-      <c r="U78" s="206"/>
-      <c r="V78" s="206"/>
-      <c r="W78" s="206"/>
-      <c r="X78" s="207"/>
+      <c r="T78" s="193"/>
+      <c r="U78" s="193"/>
+      <c r="V78" s="193"/>
+      <c r="W78" s="193"/>
+      <c r="X78" s="194"/>
     </row>
     <row r="79" spans="1:24" s="63" customFormat="1" ht="11.1" customHeight="1">
       <c r="A79" s="60" t="s">
@@ -6586,37 +6596,37 @@
       </c>
       <c r="B79" s="61"/>
       <c r="C79" s="61"/>
-      <c r="D79" s="213"/>
-      <c r="E79" s="213"/>
-      <c r="F79" s="213"/>
-      <c r="G79" s="213"/>
-      <c r="H79" s="213"/>
-      <c r="I79" s="213"/>
-      <c r="J79" s="213"/>
-      <c r="K79" s="213"/>
-      <c r="L79" s="213"/>
-      <c r="M79" s="213"/>
+      <c r="D79" s="173"/>
+      <c r="E79" s="173"/>
+      <c r="F79" s="173"/>
+      <c r="G79" s="173"/>
+      <c r="H79" s="173"/>
+      <c r="I79" s="173"/>
+      <c r="J79" s="173"/>
+      <c r="K79" s="173"/>
+      <c r="L79" s="173"/>
+      <c r="M79" s="173"/>
       <c r="N79" s="41"/>
-      <c r="O79" s="214" t="s">
+      <c r="O79" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="P79" s="214"/>
-      <c r="Q79" s="213"/>
-      <c r="R79" s="213"/>
+      <c r="P79" s="174"/>
+      <c r="Q79" s="173"/>
+      <c r="R79" s="173"/>
       <c r="S79" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="T79" s="170"/>
-      <c r="U79" s="170"/>
-      <c r="V79" s="170"/>
-      <c r="W79" s="170"/>
-      <c r="X79" s="171"/>
+      <c r="T79" s="175"/>
+      <c r="U79" s="175"/>
+      <c r="V79" s="175"/>
+      <c r="W79" s="175"/>
+      <c r="X79" s="176"/>
     </row>
     <row r="80" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A80" s="102" t="s">
+      <c r="A80" s="177" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="181"/>
+      <c r="B80" s="178"/>
       <c r="C80" s="64" t="s">
         <v>48</v>
       </c>
@@ -6626,310 +6636,310 @@
       <c r="E80" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="208" t="s">
+      <c r="F80" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="G80" s="181"/>
-      <c r="H80" s="208" t="s">
+      <c r="G80" s="178"/>
+      <c r="H80" s="101" t="s">
         <v>51</v>
       </c>
-      <c r="I80" s="181"/>
-      <c r="J80" s="208" t="s">
+      <c r="I80" s="178"/>
+      <c r="J80" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="K80" s="181"/>
+      <c r="K80" s="178"/>
       <c r="L80" s="64" t="s">
         <v>53</v>
       </c>
       <c r="M80" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N80" s="208" t="s">
+      <c r="N80" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="O80" s="103"/>
-      <c r="P80" s="103"/>
-      <c r="Q80" s="103"/>
-      <c r="R80" s="103"/>
-      <c r="S80" s="209" t="s">
+      <c r="O80" s="102"/>
+      <c r="P80" s="102"/>
+      <c r="Q80" s="102"/>
+      <c r="R80" s="102"/>
+      <c r="S80" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="T80" s="186"/>
-      <c r="U80" s="185" t="s">
+      <c r="T80" s="180"/>
+      <c r="U80" s="181" t="s">
         <v>56</v>
       </c>
-      <c r="V80" s="186"/>
-      <c r="W80" s="185" t="s">
+      <c r="V80" s="180"/>
+      <c r="W80" s="181" t="s">
         <v>57</v>
       </c>
-      <c r="X80" s="210"/>
+      <c r="X80" s="182"/>
     </row>
     <row r="81" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A81" s="211"/>
-      <c r="B81" s="212"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="115"/>
       <c r="C81" s="65"/>
       <c r="D81" s="46"/>
       <c r="E81" s="46"/>
-      <c r="F81" s="160"/>
-      <c r="G81" s="161"/>
-      <c r="H81" s="160"/>
-      <c r="I81" s="161"/>
-      <c r="J81" s="160"/>
-      <c r="K81" s="161"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="116"/>
+      <c r="I81" s="117"/>
+      <c r="J81" s="116"/>
+      <c r="K81" s="117"/>
       <c r="L81" s="30"/>
       <c r="M81" s="30"/>
-      <c r="N81" s="190"/>
-      <c r="O81" s="191"/>
-      <c r="P81" s="191"/>
-      <c r="Q81" s="191"/>
-      <c r="R81" s="192"/>
-      <c r="S81" s="225"/>
-      <c r="T81" s="226"/>
-      <c r="U81" s="215"/>
-      <c r="V81" s="216"/>
-      <c r="W81" s="219"/>
-      <c r="X81" s="220"/>
+      <c r="N81" s="118"/>
+      <c r="O81" s="119"/>
+      <c r="P81" s="119"/>
+      <c r="Q81" s="119"/>
+      <c r="R81" s="120"/>
+      <c r="S81" s="121"/>
+      <c r="T81" s="122"/>
+      <c r="U81" s="159"/>
+      <c r="V81" s="160"/>
+      <c r="W81" s="163"/>
+      <c r="X81" s="164"/>
     </row>
     <row r="82" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A82" s="211"/>
-      <c r="B82" s="212"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="65"/>
       <c r="D82" s="46"/>
       <c r="E82" s="46"/>
-      <c r="F82" s="160"/>
-      <c r="G82" s="161"/>
-      <c r="H82" s="160"/>
-      <c r="I82" s="161"/>
-      <c r="J82" s="160"/>
-      <c r="K82" s="161"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="116"/>
+      <c r="I82" s="117"/>
+      <c r="J82" s="116"/>
+      <c r="K82" s="117"/>
       <c r="L82" s="30"/>
       <c r="M82" s="30"/>
-      <c r="N82" s="190"/>
-      <c r="O82" s="191"/>
-      <c r="P82" s="191"/>
-      <c r="Q82" s="191"/>
-      <c r="R82" s="192"/>
-      <c r="S82" s="227"/>
-      <c r="T82" s="228"/>
-      <c r="U82" s="229"/>
-      <c r="V82" s="230"/>
-      <c r="W82" s="231"/>
-      <c r="X82" s="232"/>
+      <c r="N82" s="118"/>
+      <c r="O82" s="119"/>
+      <c r="P82" s="119"/>
+      <c r="Q82" s="119"/>
+      <c r="R82" s="120"/>
+      <c r="S82" s="123"/>
+      <c r="T82" s="124"/>
+      <c r="U82" s="169"/>
+      <c r="V82" s="170"/>
+      <c r="W82" s="171"/>
+      <c r="X82" s="172"/>
     </row>
     <row r="83" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A83" s="211"/>
-      <c r="B83" s="212"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="115"/>
       <c r="C83" s="65"/>
       <c r="D83" s="46"/>
       <c r="E83" s="46"/>
-      <c r="F83" s="160"/>
-      <c r="G83" s="161"/>
-      <c r="H83" s="160"/>
-      <c r="I83" s="161"/>
-      <c r="J83" s="160"/>
-      <c r="K83" s="161"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="116"/>
+      <c r="I83" s="117"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="117"/>
       <c r="L83" s="30"/>
       <c r="M83" s="30"/>
-      <c r="N83" s="190"/>
-      <c r="O83" s="191"/>
-      <c r="P83" s="191"/>
-      <c r="Q83" s="191"/>
-      <c r="R83" s="192"/>
-      <c r="S83" s="225"/>
-      <c r="T83" s="226"/>
-      <c r="U83" s="215"/>
-      <c r="V83" s="216"/>
-      <c r="W83" s="219"/>
-      <c r="X83" s="220"/>
+      <c r="N83" s="118"/>
+      <c r="O83" s="119"/>
+      <c r="P83" s="119"/>
+      <c r="Q83" s="119"/>
+      <c r="R83" s="120"/>
+      <c r="S83" s="121"/>
+      <c r="T83" s="122"/>
+      <c r="U83" s="159"/>
+      <c r="V83" s="160"/>
+      <c r="W83" s="163"/>
+      <c r="X83" s="164"/>
     </row>
     <row r="84" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A84" s="211"/>
-      <c r="B84" s="212"/>
+      <c r="A84" s="114"/>
+      <c r="B84" s="115"/>
       <c r="C84" s="65"/>
       <c r="D84" s="46"/>
       <c r="E84" s="46"/>
-      <c r="F84" s="160"/>
-      <c r="G84" s="161"/>
-      <c r="H84" s="160"/>
-      <c r="I84" s="161"/>
-      <c r="J84" s="160"/>
-      <c r="K84" s="161"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="116"/>
+      <c r="I84" s="117"/>
+      <c r="J84" s="116"/>
+      <c r="K84" s="117"/>
       <c r="L84" s="30"/>
       <c r="M84" s="30"/>
-      <c r="N84" s="190"/>
-      <c r="O84" s="191"/>
-      <c r="P84" s="191"/>
-      <c r="Q84" s="191"/>
-      <c r="R84" s="192"/>
-      <c r="S84" s="227"/>
-      <c r="T84" s="228"/>
-      <c r="U84" s="229"/>
-      <c r="V84" s="230"/>
-      <c r="W84" s="231"/>
-      <c r="X84" s="232"/>
+      <c r="N84" s="118"/>
+      <c r="O84" s="119"/>
+      <c r="P84" s="119"/>
+      <c r="Q84" s="119"/>
+      <c r="R84" s="120"/>
+      <c r="S84" s="123"/>
+      <c r="T84" s="124"/>
+      <c r="U84" s="169"/>
+      <c r="V84" s="170"/>
+      <c r="W84" s="171"/>
+      <c r="X84" s="172"/>
     </row>
     <row r="85" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A85" s="211"/>
-      <c r="B85" s="212"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="115"/>
       <c r="C85" s="65"/>
       <c r="D85" s="46"/>
       <c r="E85" s="46"/>
-      <c r="F85" s="160"/>
-      <c r="G85" s="161"/>
-      <c r="H85" s="160"/>
-      <c r="I85" s="161"/>
-      <c r="J85" s="160"/>
-      <c r="K85" s="161"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="117"/>
+      <c r="J85" s="116"/>
+      <c r="K85" s="117"/>
       <c r="L85" s="30"/>
       <c r="M85" s="30"/>
-      <c r="N85" s="190"/>
-      <c r="O85" s="191"/>
-      <c r="P85" s="191"/>
-      <c r="Q85" s="191"/>
-      <c r="R85" s="192"/>
-      <c r="S85" s="225"/>
-      <c r="T85" s="226"/>
-      <c r="U85" s="215"/>
-      <c r="V85" s="216"/>
-      <c r="W85" s="219"/>
-      <c r="X85" s="220"/>
+      <c r="N85" s="118"/>
+      <c r="O85" s="119"/>
+      <c r="P85" s="119"/>
+      <c r="Q85" s="119"/>
+      <c r="R85" s="120"/>
+      <c r="S85" s="121"/>
+      <c r="T85" s="122"/>
+      <c r="U85" s="159"/>
+      <c r="V85" s="160"/>
+      <c r="W85" s="163"/>
+      <c r="X85" s="164"/>
     </row>
     <row r="86" spans="1:24" s="63" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A86" s="211"/>
-      <c r="B86" s="212"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="115"/>
       <c r="C86" s="65"/>
       <c r="D86" s="46"/>
       <c r="E86" s="46"/>
-      <c r="F86" s="160"/>
-      <c r="G86" s="161"/>
-      <c r="H86" s="160"/>
-      <c r="I86" s="161"/>
-      <c r="J86" s="160"/>
-      <c r="K86" s="161"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="117"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="117"/>
       <c r="L86" s="30"/>
       <c r="M86" s="66"/>
-      <c r="N86" s="223"/>
-      <c r="O86" s="224"/>
-      <c r="P86" s="191"/>
-      <c r="Q86" s="191"/>
-      <c r="R86" s="192"/>
-      <c r="S86" s="227"/>
-      <c r="T86" s="228"/>
-      <c r="U86" s="217"/>
-      <c r="V86" s="218"/>
-      <c r="W86" s="221"/>
-      <c r="X86" s="222"/>
+      <c r="N86" s="167"/>
+      <c r="O86" s="168"/>
+      <c r="P86" s="119"/>
+      <c r="Q86" s="119"/>
+      <c r="R86" s="120"/>
+      <c r="S86" s="123"/>
+      <c r="T86" s="124"/>
+      <c r="U86" s="161"/>
+      <c r="V86" s="162"/>
+      <c r="W86" s="165"/>
+      <c r="X86" s="166"/>
     </row>
     <row r="87" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A87" s="235" t="s">
+      <c r="A87" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="239"/>
-      <c r="C87" s="240"/>
-      <c r="D87" s="240"/>
-      <c r="E87" s="240"/>
-      <c r="F87" s="240"/>
-      <c r="G87" s="240"/>
-      <c r="H87" s="240"/>
-      <c r="I87" s="240"/>
-      <c r="J87" s="240"/>
-      <c r="K87" s="240"/>
-      <c r="L87" s="240"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="133"/>
+      <c r="D87" s="133"/>
+      <c r="E87" s="133"/>
+      <c r="F87" s="133"/>
+      <c r="G87" s="133"/>
+      <c r="H87" s="133"/>
+      <c r="I87" s="133"/>
+      <c r="J87" s="133"/>
+      <c r="K87" s="133"/>
+      <c r="L87" s="133"/>
       <c r="M87" s="67" t="s">
         <v>75</v>
       </c>
       <c r="N87" s="68"/>
       <c r="O87" s="69"/>
-      <c r="P87" s="245" t="s">
+      <c r="P87" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="Q87" s="246"/>
+      <c r="Q87" s="139"/>
       <c r="R87" s="70"/>
       <c r="S87" s="71"/>
-      <c r="T87" s="235" t="s">
+      <c r="T87" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="U87" s="247"/>
-      <c r="V87" s="248"/>
-      <c r="W87" s="248"/>
-      <c r="X87" s="249"/>
+      <c r="U87" s="140"/>
+      <c r="V87" s="141"/>
+      <c r="W87" s="141"/>
+      <c r="X87" s="142"/>
     </row>
     <row r="88" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A88" s="236"/>
-      <c r="B88" s="241"/>
-      <c r="C88" s="242"/>
-      <c r="D88" s="242"/>
-      <c r="E88" s="242"/>
-      <c r="F88" s="242"/>
-      <c r="G88" s="242"/>
-      <c r="H88" s="242"/>
-      <c r="I88" s="242"/>
-      <c r="J88" s="242"/>
-      <c r="K88" s="242"/>
-      <c r="L88" s="242"/>
+      <c r="A88" s="129"/>
+      <c r="B88" s="134"/>
+      <c r="C88" s="135"/>
+      <c r="D88" s="135"/>
+      <c r="E88" s="135"/>
+      <c r="F88" s="135"/>
+      <c r="G88" s="135"/>
+      <c r="H88" s="135"/>
+      <c r="I88" s="135"/>
+      <c r="J88" s="135"/>
+      <c r="K88" s="135"/>
+      <c r="L88" s="135"/>
       <c r="M88" s="72" t="s">
         <v>76</v>
       </c>
       <c r="N88" s="73"/>
       <c r="O88" s="74"/>
-      <c r="P88" s="250" t="s">
+      <c r="P88" s="143" t="s">
         <v>61</v>
       </c>
-      <c r="Q88" s="251"/>
+      <c r="Q88" s="144"/>
       <c r="R88" s="75"/>
       <c r="S88" s="76"/>
-      <c r="T88" s="236"/>
-      <c r="U88" s="252"/>
-      <c r="V88" s="253"/>
-      <c r="W88" s="253"/>
-      <c r="X88" s="254"/>
+      <c r="T88" s="129"/>
+      <c r="U88" s="145"/>
+      <c r="V88" s="146"/>
+      <c r="W88" s="146"/>
+      <c r="X88" s="147"/>
     </row>
     <row r="89" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A89" s="236"/>
-      <c r="B89" s="241"/>
-      <c r="C89" s="242"/>
-      <c r="D89" s="242"/>
-      <c r="E89" s="242"/>
-      <c r="F89" s="242"/>
-      <c r="G89" s="242"/>
-      <c r="H89" s="242"/>
-      <c r="I89" s="242"/>
-      <c r="J89" s="242"/>
-      <c r="K89" s="242"/>
-      <c r="L89" s="242"/>
+      <c r="A89" s="129"/>
+      <c r="B89" s="134"/>
+      <c r="C89" s="135"/>
+      <c r="D89" s="135"/>
+      <c r="E89" s="135"/>
+      <c r="F89" s="135"/>
+      <c r="G89" s="135"/>
+      <c r="H89" s="135"/>
+      <c r="I89" s="135"/>
+      <c r="J89" s="135"/>
+      <c r="K89" s="135"/>
+      <c r="L89" s="135"/>
       <c r="M89" s="72" t="s">
         <v>77</v>
       </c>
       <c r="N89" s="73"/>
       <c r="O89" s="74"/>
-      <c r="P89" s="255" t="s">
+      <c r="P89" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="Q89" s="256"/>
+      <c r="Q89" s="149"/>
       <c r="R89" s="77">
         <f>S70</f>
         <v>0</v>
       </c>
       <c r="S89" s="78"/>
-      <c r="T89" s="236"/>
-      <c r="U89" s="252"/>
-      <c r="V89" s="253"/>
-      <c r="W89" s="253"/>
-      <c r="X89" s="254"/>
+      <c r="T89" s="129"/>
+      <c r="U89" s="145"/>
+      <c r="V89" s="146"/>
+      <c r="W89" s="146"/>
+      <c r="X89" s="147"/>
     </row>
     <row r="90" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A90" s="236"/>
-      <c r="B90" s="241"/>
-      <c r="C90" s="242"/>
-      <c r="D90" s="242"/>
-      <c r="E90" s="242"/>
-      <c r="F90" s="242"/>
-      <c r="G90" s="242"/>
-      <c r="H90" s="242"/>
-      <c r="I90" s="242"/>
-      <c r="J90" s="242"/>
-      <c r="K90" s="242"/>
-      <c r="L90" s="242"/>
+      <c r="A90" s="129"/>
+      <c r="B90" s="134"/>
+      <c r="C90" s="135"/>
+      <c r="D90" s="135"/>
+      <c r="E90" s="135"/>
+      <c r="F90" s="135"/>
+      <c r="G90" s="135"/>
+      <c r="H90" s="135"/>
+      <c r="I90" s="135"/>
+      <c r="J90" s="135"/>
+      <c r="K90" s="135"/>
+      <c r="L90" s="135"/>
       <c r="M90" s="72" t="s">
         <v>78</v>
       </c>
@@ -6938,7 +6948,7 @@
         <f>IF($N$89=0,"",N90/$N$89)</f>
         <v/>
       </c>
-      <c r="P90" s="257" t="s">
+      <c r="P90" s="150" t="s">
         <v>63</v>
       </c>
       <c r="Q90" s="79" t="s">
@@ -6946,25 +6956,25 @@
       </c>
       <c r="R90" s="80"/>
       <c r="S90" s="81"/>
-      <c r="T90" s="236"/>
-      <c r="U90" s="252"/>
-      <c r="V90" s="253"/>
-      <c r="W90" s="253"/>
-      <c r="X90" s="254"/>
+      <c r="T90" s="129"/>
+      <c r="U90" s="145"/>
+      <c r="V90" s="146"/>
+      <c r="W90" s="146"/>
+      <c r="X90" s="147"/>
     </row>
     <row r="91" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A91" s="237"/>
-      <c r="B91" s="241"/>
-      <c r="C91" s="242"/>
-      <c r="D91" s="242"/>
-      <c r="E91" s="242"/>
-      <c r="F91" s="242"/>
-      <c r="G91" s="242"/>
-      <c r="H91" s="242"/>
-      <c r="I91" s="242"/>
-      <c r="J91" s="242"/>
-      <c r="K91" s="242"/>
-      <c r="L91" s="242"/>
+      <c r="A91" s="130"/>
+      <c r="B91" s="134"/>
+      <c r="C91" s="135"/>
+      <c r="D91" s="135"/>
+      <c r="E91" s="135"/>
+      <c r="F91" s="135"/>
+      <c r="G91" s="135"/>
+      <c r="H91" s="135"/>
+      <c r="I91" s="135"/>
+      <c r="J91" s="135"/>
+      <c r="K91" s="135"/>
+      <c r="L91" s="135"/>
       <c r="M91" s="72" t="s">
         <v>79</v>
       </c>
@@ -6973,31 +6983,31 @@
         <f>IF($N$89=0,"",N91/$N$89)</f>
         <v/>
       </c>
-      <c r="P91" s="258"/>
+      <c r="P91" s="151"/>
       <c r="Q91" s="72" t="s">
         <v>30</v>
       </c>
       <c r="R91" s="82"/>
       <c r="S91" s="83"/>
-      <c r="T91" s="237"/>
-      <c r="U91" s="260"/>
-      <c r="V91" s="261"/>
-      <c r="W91" s="261"/>
-      <c r="X91" s="262"/>
+      <c r="T91" s="130"/>
+      <c r="U91" s="153"/>
+      <c r="V91" s="154"/>
+      <c r="W91" s="154"/>
+      <c r="X91" s="155"/>
     </row>
     <row r="92" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A92" s="237"/>
-      <c r="B92" s="241"/>
-      <c r="C92" s="242"/>
-      <c r="D92" s="242"/>
-      <c r="E92" s="242"/>
-      <c r="F92" s="242"/>
-      <c r="G92" s="242"/>
-      <c r="H92" s="242"/>
-      <c r="I92" s="242"/>
-      <c r="J92" s="242"/>
-      <c r="K92" s="242"/>
-      <c r="L92" s="242"/>
+      <c r="A92" s="130"/>
+      <c r="B92" s="134"/>
+      <c r="C92" s="135"/>
+      <c r="D92" s="135"/>
+      <c r="E92" s="135"/>
+      <c r="F92" s="135"/>
+      <c r="G92" s="135"/>
+      <c r="H92" s="135"/>
+      <c r="I92" s="135"/>
+      <c r="J92" s="135"/>
+      <c r="K92" s="135"/>
+      <c r="L92" s="135"/>
       <c r="M92" s="72" t="s">
         <v>80</v>
       </c>
@@ -7006,37 +7016,37 @@
         <f>IF($N$89=0,"",N92/$N$89)</f>
         <v/>
       </c>
-      <c r="P92" s="258"/>
+      <c r="P92" s="151"/>
       <c r="Q92" s="72" t="s">
         <v>64</v>
       </c>
       <c r="R92" s="82"/>
       <c r="S92" s="83"/>
-      <c r="T92" s="237"/>
-      <c r="U92" s="260"/>
-      <c r="V92" s="261"/>
-      <c r="W92" s="261"/>
-      <c r="X92" s="262"/>
+      <c r="T92" s="130"/>
+      <c r="U92" s="153"/>
+      <c r="V92" s="154"/>
+      <c r="W92" s="154"/>
+      <c r="X92" s="155"/>
     </row>
     <row r="93" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A93" s="238"/>
-      <c r="B93" s="243"/>
-      <c r="C93" s="244"/>
-      <c r="D93" s="244"/>
-      <c r="E93" s="244"/>
-      <c r="F93" s="244"/>
-      <c r="G93" s="244"/>
-      <c r="H93" s="244"/>
-      <c r="I93" s="244"/>
-      <c r="J93" s="244"/>
-      <c r="K93" s="244"/>
-      <c r="L93" s="244"/>
+      <c r="A93" s="131"/>
+      <c r="B93" s="136"/>
+      <c r="C93" s="137"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="137"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="137"/>
+      <c r="K93" s="137"/>
+      <c r="L93" s="137"/>
       <c r="M93" s="84" t="s">
         <v>81</v>
       </c>
       <c r="N93" s="85"/>
       <c r="O93" s="86"/>
-      <c r="P93" s="259"/>
+      <c r="P93" s="152"/>
       <c r="Q93" s="87" t="s">
         <v>65</v>
       </c>
@@ -7045,57 +7055,458 @@
         <v>0</v>
       </c>
       <c r="S93" s="78"/>
-      <c r="T93" s="238"/>
-      <c r="U93" s="263"/>
-      <c r="V93" s="264"/>
-      <c r="W93" s="264"/>
-      <c r="X93" s="265"/>
+      <c r="T93" s="131"/>
+      <c r="U93" s="156"/>
+      <c r="V93" s="157"/>
+      <c r="W93" s="157"/>
+      <c r="X93" s="158"/>
     </row>
     <row r="94" spans="1:24" ht="12" customHeight="1">
-      <c r="A94" s="233" t="s">
+      <c r="A94" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="233"/>
-      <c r="C94" s="233"/>
-      <c r="D94" s="233"/>
-      <c r="E94" s="233"/>
-      <c r="F94" s="233"/>
-      <c r="G94" s="233"/>
-      <c r="H94" s="233"/>
-      <c r="I94" s="233"/>
-      <c r="J94" s="233"/>
-      <c r="K94" s="233"/>
-      <c r="L94" s="233"/>
-      <c r="M94" s="233"/>
-      <c r="N94" s="233"/>
-      <c r="O94" s="233"/>
-      <c r="P94" s="233"/>
-      <c r="Q94" s="233"/>
-      <c r="R94" s="233"/>
-      <c r="S94" s="233"/>
-      <c r="T94" s="233"/>
-      <c r="U94" s="233"/>
-      <c r="V94" s="233"/>
-      <c r="W94" s="234"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="126"/>
+      <c r="D94" s="126"/>
+      <c r="E94" s="126"/>
+      <c r="F94" s="126"/>
+      <c r="G94" s="126"/>
+      <c r="H94" s="126"/>
+      <c r="I94" s="126"/>
+      <c r="J94" s="126"/>
+      <c r="K94" s="126"/>
+      <c r="L94" s="126"/>
+      <c r="M94" s="126"/>
+      <c r="N94" s="126"/>
+      <c r="O94" s="126"/>
+      <c r="P94" s="126"/>
+      <c r="Q94" s="126"/>
+      <c r="R94" s="126"/>
+      <c r="S94" s="126"/>
+      <c r="T94" s="126"/>
+      <c r="U94" s="126"/>
+      <c r="V94" s="126"/>
+      <c r="W94" s="127"/>
     </row>
     <row r="95" spans="1:24" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="455">
-    <mergeCell ref="J59:L59"/>
-    <mergeCell ref="J60:L60"/>
-    <mergeCell ref="J61:L61"/>
-    <mergeCell ref="U64:X64"/>
-    <mergeCell ref="U65:X65"/>
-    <mergeCell ref="U66:X66"/>
-    <mergeCell ref="U55:X55"/>
-    <mergeCell ref="U56:X56"/>
-    <mergeCell ref="U57:X57"/>
-    <mergeCell ref="U58:X58"/>
-    <mergeCell ref="U59:X59"/>
-    <mergeCell ref="U60:X60"/>
-    <mergeCell ref="U61:X61"/>
-    <mergeCell ref="U62:X62"/>
-    <mergeCell ref="U63:X63"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:T1"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="T67:V67"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:G4"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:X4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="E49:T49"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="T69:V69"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="T68:V68"/>
+    <mergeCell ref="S71:T71"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="D72:M72"/>
+    <mergeCell ref="P72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="T70:V70"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="F73:M73"/>
+    <mergeCell ref="O73:S73"/>
+    <mergeCell ref="U73:V73"/>
+    <mergeCell ref="W73:X73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="O74:S74"/>
+    <mergeCell ref="U74:V74"/>
+    <mergeCell ref="W74:X74"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="F77:M77"/>
+    <mergeCell ref="O77:S77"/>
+    <mergeCell ref="T77:V77"/>
+    <mergeCell ref="W77:X77"/>
+    <mergeCell ref="T78:X78"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="F75:M75"/>
+    <mergeCell ref="O75:S75"/>
+    <mergeCell ref="U75:V75"/>
+    <mergeCell ref="W75:X75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="F76:M76"/>
+    <mergeCell ref="O76:S76"/>
+    <mergeCell ref="U76:V76"/>
+    <mergeCell ref="W76:X76"/>
+    <mergeCell ref="D79:M79"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="Q79:R79"/>
+    <mergeCell ref="T79:X79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="N80:R80"/>
+    <mergeCell ref="S80:T80"/>
+    <mergeCell ref="U80:V80"/>
+    <mergeCell ref="W80:X80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="N81:R81"/>
+    <mergeCell ref="S81:T82"/>
+    <mergeCell ref="U81:V82"/>
+    <mergeCell ref="W81:X82"/>
+    <mergeCell ref="S83:T84"/>
+    <mergeCell ref="U83:V84"/>
+    <mergeCell ref="W83:X84"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="N82:R82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="N83:R83"/>
+    <mergeCell ref="U85:V86"/>
+    <mergeCell ref="W85:X86"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="N85:R85"/>
+    <mergeCell ref="S85:T86"/>
+    <mergeCell ref="U90:X90"/>
+    <mergeCell ref="U91:X91"/>
+    <mergeCell ref="U92:X92"/>
+    <mergeCell ref="U93:V93"/>
+    <mergeCell ref="W93:X93"/>
+    <mergeCell ref="A94:W94"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="B87:L93"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="T87:T93"/>
+    <mergeCell ref="U87:X87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="U88:X88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="U89:X89"/>
+    <mergeCell ref="P90:P93"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="O50:Q50"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:X52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="B51:G52"/>
+    <mergeCell ref="H51:I52"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:Q51"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="U23:X23"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="U25:X25"/>
+    <mergeCell ref="U26:X26"/>
+    <mergeCell ref="U27:X27"/>
+    <mergeCell ref="U28:X28"/>
+    <mergeCell ref="U29:X29"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="U19:X19"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="U5:X5"/>
+    <mergeCell ref="U6:X6"/>
+    <mergeCell ref="U7:X7"/>
+    <mergeCell ref="U8:X8"/>
+    <mergeCell ref="U9:X9"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="U30:X30"/>
+    <mergeCell ref="U31:X31"/>
+    <mergeCell ref="U32:X32"/>
+    <mergeCell ref="U33:X33"/>
+    <mergeCell ref="U34:X34"/>
+    <mergeCell ref="U35:X35"/>
+    <mergeCell ref="U36:X36"/>
+    <mergeCell ref="U37:X37"/>
+    <mergeCell ref="U38:X38"/>
+    <mergeCell ref="U39:X39"/>
+    <mergeCell ref="U40:X40"/>
+    <mergeCell ref="U41:X41"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="U42:X42"/>
+    <mergeCell ref="U43:X43"/>
+    <mergeCell ref="U44:X44"/>
+    <mergeCell ref="U45:X45"/>
+    <mergeCell ref="U46:X46"/>
+    <mergeCell ref="U47:X47"/>
+    <mergeCell ref="U48:X48"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L54"/>
+    <mergeCell ref="U53:X53"/>
+    <mergeCell ref="U54:X54"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="J62:L62"/>
+    <mergeCell ref="J63:L63"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
     <mergeCell ref="B57:G57"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="B59:G59"/>
@@ -7120,422 +7531,21 @@
     <mergeCell ref="J56:L56"/>
     <mergeCell ref="J57:L57"/>
     <mergeCell ref="J58:L58"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="J62:L62"/>
-    <mergeCell ref="J63:L63"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="U39:X39"/>
-    <mergeCell ref="U40:X40"/>
-    <mergeCell ref="U41:X41"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="U42:X42"/>
-    <mergeCell ref="U43:X43"/>
-    <mergeCell ref="U44:X44"/>
-    <mergeCell ref="U45:X45"/>
-    <mergeCell ref="U46:X46"/>
-    <mergeCell ref="U47:X47"/>
-    <mergeCell ref="U48:X48"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L54"/>
-    <mergeCell ref="U53:X53"/>
-    <mergeCell ref="U54:X54"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="U30:X30"/>
-    <mergeCell ref="U31:X31"/>
-    <mergeCell ref="U32:X32"/>
-    <mergeCell ref="U33:X33"/>
-    <mergeCell ref="U34:X34"/>
-    <mergeCell ref="U35:X35"/>
-    <mergeCell ref="U36:X36"/>
-    <mergeCell ref="U37:X37"/>
-    <mergeCell ref="U38:X38"/>
-    <mergeCell ref="U5:X5"/>
-    <mergeCell ref="U6:X6"/>
-    <mergeCell ref="U7:X7"/>
-    <mergeCell ref="U8:X8"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="U19:X19"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="U23:X23"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="U25:X25"/>
-    <mergeCell ref="U26:X26"/>
-    <mergeCell ref="U27:X27"/>
-    <mergeCell ref="U28:X28"/>
-    <mergeCell ref="U29:X29"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="O50:Q50"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:X52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="B51:G52"/>
-    <mergeCell ref="H51:I52"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:Q51"/>
-    <mergeCell ref="U90:X90"/>
-    <mergeCell ref="U91:X91"/>
-    <mergeCell ref="U92:X92"/>
-    <mergeCell ref="U93:V93"/>
-    <mergeCell ref="W93:X93"/>
-    <mergeCell ref="A94:W94"/>
-    <mergeCell ref="A87:A93"/>
-    <mergeCell ref="B87:L93"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="T87:T93"/>
-    <mergeCell ref="U87:X87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="U88:X88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="U89:X89"/>
-    <mergeCell ref="P90:P93"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="N83:R83"/>
-    <mergeCell ref="U85:V86"/>
-    <mergeCell ref="W85:X86"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="N86:R86"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="N85:R85"/>
-    <mergeCell ref="S85:T86"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="N81:R81"/>
-    <mergeCell ref="S81:T82"/>
-    <mergeCell ref="U81:V82"/>
-    <mergeCell ref="W81:X82"/>
-    <mergeCell ref="S83:T84"/>
-    <mergeCell ref="U83:V84"/>
-    <mergeCell ref="W83:X84"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="N82:R82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="D79:M79"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="Q79:R79"/>
-    <mergeCell ref="T79:X79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="N80:R80"/>
-    <mergeCell ref="S80:T80"/>
-    <mergeCell ref="U80:V80"/>
-    <mergeCell ref="W80:X80"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="F77:M77"/>
-    <mergeCell ref="O77:S77"/>
-    <mergeCell ref="T77:V77"/>
-    <mergeCell ref="W77:X77"/>
-    <mergeCell ref="T78:X78"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="F75:M75"/>
-    <mergeCell ref="O75:S75"/>
-    <mergeCell ref="U75:V75"/>
-    <mergeCell ref="W75:X75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="F76:M76"/>
-    <mergeCell ref="O76:S76"/>
-    <mergeCell ref="U76:V76"/>
-    <mergeCell ref="W76:X76"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="F73:M73"/>
-    <mergeCell ref="O73:S73"/>
-    <mergeCell ref="U73:V73"/>
-    <mergeCell ref="W73:X73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="O74:S74"/>
-    <mergeCell ref="U74:V74"/>
-    <mergeCell ref="W74:X74"/>
-    <mergeCell ref="S71:T71"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="D72:M72"/>
-    <mergeCell ref="P72:S72"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="T70:V70"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="T69:V69"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="T68:V68"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="T67:V67"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="H3:I4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:X4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="U50:V50"/>
-    <mergeCell ref="W50:X50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="E49:T49"/>
-    <mergeCell ref="U49:V49"/>
-    <mergeCell ref="W49:X49"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="J59:L59"/>
+    <mergeCell ref="J60:L60"/>
+    <mergeCell ref="J61:L61"/>
+    <mergeCell ref="U64:X64"/>
+    <mergeCell ref="U65:X65"/>
+    <mergeCell ref="U66:X66"/>
+    <mergeCell ref="U55:X55"/>
+    <mergeCell ref="U56:X56"/>
+    <mergeCell ref="U57:X57"/>
+    <mergeCell ref="U58:X58"/>
+    <mergeCell ref="U59:X59"/>
+    <mergeCell ref="U60:X60"/>
+    <mergeCell ref="U61:X61"/>
+    <mergeCell ref="U62:X62"/>
+    <mergeCell ref="U63:X63"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/topmeperp_v1/UploadFile/expense_form.xlsx
+++ b/topmeperp_v1/UploadFile/expense_form.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="費用表" sheetId="1" r:id="rId1"/>
@@ -1520,7 +1520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1711,9 +1711,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1726,9 +1723,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1783,15 +1777,18 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1852,37 +1849,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2289,9 +2259,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -2381,6 +2348,51 @@
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2698,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView showZeros="0" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:I18"/>
+    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
@@ -2726,138 +2738,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.2">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="107" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="107"/>
-      <c r="W1" s="108" t="s">
+      <c r="V1" s="106"/>
+      <c r="W1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="108"/>
+      <c r="X1" s="107"/>
     </row>
     <row r="2" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="109" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
       <c r="N2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="84" t="s">
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="82"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="123" t="s">
+      <c r="U2" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="123"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="125" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="197" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="96" t="s">
+      <c r="K3" s="98"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="N3" s="96"/>
+      <c r="O3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="96" t="s">
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="101"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="98" t="s">
+      <c r="S3" s="100"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="99"/>
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="255" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="245" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
       <c r="M4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="122"/>
+      <c r="P4" s="112"/>
       <c r="Q4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2870,451 +2882,451 @@
       <c r="T4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="104"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="103"/>
     </row>
     <row r="5" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A5" s="8"/>
-      <c r="B5" s="262"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
-      <c r="G5" s="264"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="184"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="253"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="174"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="266"/>
-      <c r="O5" s="267"/>
-      <c r="P5" s="268"/>
-      <c r="Q5" s="266"/>
+      <c r="N5" s="255"/>
+      <c r="O5" s="256"/>
+      <c r="P5" s="257"/>
+      <c r="Q5" s="255"/>
       <c r="R5" s="10"/>
-      <c r="S5" s="92"/>
+      <c r="S5" s="91"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="275"/>
+      <c r="U5" s="262"/>
+      <c r="V5" s="263"/>
+      <c r="W5" s="263"/>
+      <c r="X5" s="264"/>
     </row>
     <row r="6" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A6" s="8"/>
-      <c r="B6" s="262"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="263"/>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="264"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="184"/>
+      <c r="B6" s="251"/>
+      <c r="C6" s="252"/>
+      <c r="D6" s="252"/>
+      <c r="E6" s="252"/>
+      <c r="F6" s="252"/>
+      <c r="G6" s="253"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="174"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="266"/>
-      <c r="O6" s="267"/>
-      <c r="P6" s="268"/>
-      <c r="Q6" s="266"/>
+      <c r="N6" s="255"/>
+      <c r="O6" s="256"/>
+      <c r="P6" s="257"/>
+      <c r="Q6" s="255"/>
       <c r="R6" s="10"/>
-      <c r="S6" s="92"/>
+      <c r="S6" s="91"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="273"/>
-      <c r="V6" s="274"/>
-      <c r="W6" s="274"/>
-      <c r="X6" s="275"/>
+      <c r="U6" s="262"/>
+      <c r="V6" s="263"/>
+      <c r="W6" s="263"/>
+      <c r="X6" s="264"/>
     </row>
     <row r="7" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="262"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="263"/>
-      <c r="E7" s="263"/>
-      <c r="F7" s="263"/>
-      <c r="G7" s="264"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="184"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="174"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="266"/>
-      <c r="O7" s="267"/>
-      <c r="P7" s="268"/>
-      <c r="Q7" s="266"/>
+      <c r="N7" s="255"/>
+      <c r="O7" s="256"/>
+      <c r="P7" s="257"/>
+      <c r="Q7" s="255"/>
       <c r="R7" s="10"/>
-      <c r="S7" s="92"/>
+      <c r="S7" s="91"/>
       <c r="T7" s="11"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="274"/>
-      <c r="W7" s="274"/>
-      <c r="X7" s="275"/>
+      <c r="U7" s="262"/>
+      <c r="V7" s="263"/>
+      <c r="W7" s="263"/>
+      <c r="X7" s="264"/>
     </row>
     <row r="8" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="184"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="253"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="174"/>
       <c r="M8" s="10"/>
-      <c r="N8" s="266"/>
-      <c r="O8" s="267"/>
-      <c r="P8" s="268"/>
-      <c r="Q8" s="266"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="256"/>
+      <c r="P8" s="257"/>
+      <c r="Q8" s="255"/>
       <c r="R8" s="10"/>
-      <c r="S8" s="92"/>
+      <c r="S8" s="91"/>
       <c r="T8" s="11"/>
-      <c r="U8" s="273"/>
-      <c r="V8" s="274"/>
-      <c r="W8" s="274"/>
-      <c r="X8" s="275"/>
+      <c r="U8" s="262"/>
+      <c r="V8" s="263"/>
+      <c r="W8" s="263"/>
+      <c r="X8" s="264"/>
     </row>
     <row r="9" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="262"/>
-      <c r="C9" s="263"/>
-      <c r="D9" s="263"/>
-      <c r="E9" s="263"/>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="265"/>
-      <c r="L9" s="184"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="252"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="252"/>
+      <c r="F9" s="252"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="174"/>
       <c r="M9" s="10"/>
-      <c r="N9" s="266"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="268"/>
-      <c r="Q9" s="266"/>
+      <c r="N9" s="255"/>
+      <c r="O9" s="256"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="255"/>
       <c r="R9" s="10"/>
-      <c r="S9" s="92"/>
+      <c r="S9" s="91"/>
       <c r="T9" s="11"/>
-      <c r="U9" s="273"/>
-      <c r="V9" s="274"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="275"/>
+      <c r="U9" s="262"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="264"/>
     </row>
     <row r="10" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="262"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="263"/>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="265"/>
-      <c r="L10" s="184"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="252"/>
+      <c r="D10" s="252"/>
+      <c r="E10" s="252"/>
+      <c r="F10" s="252"/>
+      <c r="G10" s="253"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="174"/>
       <c r="M10" s="10"/>
-      <c r="N10" s="266"/>
-      <c r="O10" s="267"/>
-      <c r="P10" s="268"/>
-      <c r="Q10" s="266"/>
+      <c r="N10" s="255"/>
+      <c r="O10" s="256"/>
+      <c r="P10" s="257"/>
+      <c r="Q10" s="255"/>
       <c r="R10" s="10"/>
-      <c r="S10" s="92"/>
+      <c r="S10" s="91"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="273"/>
-      <c r="V10" s="274"/>
-      <c r="W10" s="274"/>
-      <c r="X10" s="275"/>
+      <c r="U10" s="262"/>
+      <c r="V10" s="263"/>
+      <c r="W10" s="263"/>
+      <c r="X10" s="264"/>
     </row>
     <row r="11" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="262"/>
-      <c r="C11" s="263"/>
-      <c r="D11" s="263"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="184"/>
+      <c r="B11" s="251"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="253"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="174"/>
       <c r="M11" s="10"/>
-      <c r="N11" s="266"/>
-      <c r="O11" s="267"/>
-      <c r="P11" s="268"/>
-      <c r="Q11" s="266"/>
+      <c r="N11" s="255"/>
+      <c r="O11" s="256"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="255"/>
       <c r="R11" s="10"/>
-      <c r="S11" s="92"/>
+      <c r="S11" s="91"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="273"/>
-      <c r="V11" s="274"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="275"/>
+      <c r="U11" s="262"/>
+      <c r="V11" s="263"/>
+      <c r="W11" s="263"/>
+      <c r="X11" s="264"/>
     </row>
     <row r="12" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A12" s="8"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="263"/>
-      <c r="D12" s="263"/>
-      <c r="E12" s="263"/>
-      <c r="F12" s="263"/>
-      <c r="G12" s="264"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="184"/>
+      <c r="B12" s="251"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="252"/>
+      <c r="G12" s="253"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="174"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="266"/>
-      <c r="O12" s="267"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="266"/>
+      <c r="N12" s="255"/>
+      <c r="O12" s="256"/>
+      <c r="P12" s="257"/>
+      <c r="Q12" s="255"/>
       <c r="R12" s="10"/>
-      <c r="S12" s="92"/>
+      <c r="S12" s="91"/>
       <c r="T12" s="11"/>
-      <c r="U12" s="273"/>
-      <c r="V12" s="274"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="275"/>
+      <c r="U12" s="262"/>
+      <c r="V12" s="263"/>
+      <c r="W12" s="263"/>
+      <c r="X12" s="264"/>
     </row>
     <row r="13" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A13" s="8"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="263"/>
-      <c r="D13" s="263"/>
-      <c r="E13" s="263"/>
-      <c r="F13" s="263"/>
-      <c r="G13" s="264"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="184"/>
+      <c r="B13" s="251"/>
+      <c r="C13" s="252"/>
+      <c r="D13" s="252"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="253"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="174"/>
       <c r="M13" s="10"/>
-      <c r="N13" s="266"/>
-      <c r="O13" s="267"/>
-      <c r="P13" s="268"/>
-      <c r="Q13" s="266"/>
+      <c r="N13" s="255"/>
+      <c r="O13" s="256"/>
+      <c r="P13" s="257"/>
+      <c r="Q13" s="255"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="92"/>
+      <c r="S13" s="91"/>
       <c r="T13" s="11"/>
-      <c r="U13" s="273"/>
-      <c r="V13" s="274"/>
-      <c r="W13" s="274"/>
-      <c r="X13" s="275"/>
+      <c r="U13" s="262"/>
+      <c r="V13" s="263"/>
+      <c r="W13" s="263"/>
+      <c r="X13" s="264"/>
     </row>
     <row r="14" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A14" s="8"/>
-      <c r="B14" s="262"/>
-      <c r="C14" s="263"/>
-      <c r="D14" s="263"/>
-      <c r="E14" s="263"/>
-      <c r="F14" s="263"/>
-      <c r="G14" s="264"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="265"/>
-      <c r="L14" s="184"/>
+      <c r="B14" s="251"/>
+      <c r="C14" s="252"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="252"/>
+      <c r="F14" s="252"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="174"/>
       <c r="M14" s="10"/>
-      <c r="N14" s="266"/>
-      <c r="O14" s="267"/>
-      <c r="P14" s="268"/>
-      <c r="Q14" s="266"/>
+      <c r="N14" s="255"/>
+      <c r="O14" s="256"/>
+      <c r="P14" s="257"/>
+      <c r="Q14" s="255"/>
       <c r="R14" s="10"/>
-      <c r="S14" s="92"/>
+      <c r="S14" s="91"/>
       <c r="T14" s="11"/>
-      <c r="U14" s="273"/>
-      <c r="V14" s="274"/>
-      <c r="W14" s="274"/>
-      <c r="X14" s="275"/>
+      <c r="U14" s="262"/>
+      <c r="V14" s="263"/>
+      <c r="W14" s="263"/>
+      <c r="X14" s="264"/>
     </row>
     <row r="15" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A15" s="8"/>
-      <c r="B15" s="262"/>
-      <c r="C15" s="263"/>
-      <c r="D15" s="263"/>
-      <c r="E15" s="263"/>
-      <c r="F15" s="263"/>
-      <c r="G15" s="264"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="265"/>
-      <c r="L15" s="184"/>
+      <c r="B15" s="251"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="252"/>
+      <c r="E15" s="252"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="174"/>
       <c r="M15" s="10"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="267"/>
-      <c r="P15" s="268"/>
-      <c r="Q15" s="266"/>
+      <c r="N15" s="255"/>
+      <c r="O15" s="256"/>
+      <c r="P15" s="257"/>
+      <c r="Q15" s="255"/>
       <c r="R15" s="10"/>
-      <c r="S15" s="92"/>
+      <c r="S15" s="91"/>
       <c r="T15" s="11"/>
-      <c r="U15" s="273"/>
-      <c r="V15" s="274"/>
-      <c r="W15" s="274"/>
-      <c r="X15" s="275"/>
+      <c r="U15" s="262"/>
+      <c r="V15" s="263"/>
+      <c r="W15" s="263"/>
+      <c r="X15" s="264"/>
     </row>
     <row r="16" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A16" s="8"/>
-      <c r="B16" s="262"/>
-      <c r="C16" s="263"/>
-      <c r="D16" s="263"/>
-      <c r="E16" s="263"/>
-      <c r="F16" s="263"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="265"/>
-      <c r="L16" s="184"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="252"/>
+      <c r="D16" s="252"/>
+      <c r="E16" s="252"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="174"/>
       <c r="M16" s="10"/>
-      <c r="N16" s="266"/>
-      <c r="O16" s="267"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="266"/>
+      <c r="N16" s="255"/>
+      <c r="O16" s="256"/>
+      <c r="P16" s="257"/>
+      <c r="Q16" s="255"/>
       <c r="R16" s="10"/>
-      <c r="S16" s="92"/>
+      <c r="S16" s="91"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="273"/>
-      <c r="V16" s="274"/>
-      <c r="W16" s="274"/>
-      <c r="X16" s="275"/>
+      <c r="U16" s="262"/>
+      <c r="V16" s="263"/>
+      <c r="W16" s="263"/>
+      <c r="X16" s="264"/>
     </row>
     <row r="17" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A17" s="8"/>
-      <c r="B17" s="262"/>
-      <c r="C17" s="263"/>
-      <c r="D17" s="263"/>
-      <c r="E17" s="263"/>
-      <c r="F17" s="263"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="265"/>
-      <c r="L17" s="184"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="252"/>
+      <c r="D17" s="252"/>
+      <c r="E17" s="252"/>
+      <c r="F17" s="252"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="174"/>
       <c r="M17" s="10"/>
-      <c r="N17" s="266"/>
-      <c r="O17" s="267"/>
-      <c r="P17" s="268"/>
-      <c r="Q17" s="266"/>
+      <c r="N17" s="255"/>
+      <c r="O17" s="256"/>
+      <c r="P17" s="257"/>
+      <c r="Q17" s="255"/>
       <c r="R17" s="10"/>
-      <c r="S17" s="92"/>
+      <c r="S17" s="91"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="273"/>
-      <c r="V17" s="274"/>
-      <c r="W17" s="274"/>
-      <c r="X17" s="275"/>
+      <c r="U17" s="262"/>
+      <c r="V17" s="263"/>
+      <c r="W17" s="263"/>
+      <c r="X17" s="264"/>
     </row>
     <row r="18" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A18" s="8"/>
-      <c r="B18" s="262"/>
-      <c r="C18" s="263"/>
-      <c r="D18" s="263"/>
-      <c r="E18" s="263"/>
-      <c r="F18" s="263"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="265"/>
-      <c r="L18" s="184"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="252"/>
+      <c r="D18" s="252"/>
+      <c r="E18" s="252"/>
+      <c r="F18" s="252"/>
+      <c r="G18" s="253"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="174"/>
       <c r="M18" s="10"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="267"/>
-      <c r="P18" s="268"/>
-      <c r="Q18" s="266"/>
+      <c r="N18" s="255"/>
+      <c r="O18" s="256"/>
+      <c r="P18" s="257"/>
+      <c r="Q18" s="255"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="92"/>
+      <c r="S18" s="91"/>
       <c r="T18" s="11"/>
-      <c r="U18" s="273"/>
-      <c r="V18" s="274"/>
-      <c r="W18" s="274"/>
-      <c r="X18" s="275"/>
+      <c r="U18" s="262"/>
+      <c r="V18" s="263"/>
+      <c r="W18" s="263"/>
+      <c r="X18" s="264"/>
     </row>
     <row r="19" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A19" s="13"/>
-      <c r="B19" s="262"/>
-      <c r="C19" s="263"/>
-      <c r="D19" s="263"/>
-      <c r="E19" s="263"/>
-      <c r="F19" s="263"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="265"/>
-      <c r="L19" s="269"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="252"/>
+      <c r="D19" s="252"/>
+      <c r="E19" s="252"/>
+      <c r="F19" s="252"/>
+      <c r="G19" s="253"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="258"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="270"/>
-      <c r="O19" s="271"/>
-      <c r="P19" s="272"/>
-      <c r="Q19" s="270"/>
+      <c r="N19" s="259"/>
+      <c r="O19" s="260"/>
+      <c r="P19" s="261"/>
+      <c r="Q19" s="259"/>
       <c r="R19" s="14"/>
-      <c r="S19" s="93"/>
+      <c r="S19" s="92"/>
       <c r="T19" s="15"/>
-      <c r="U19" s="276"/>
-      <c r="V19" s="277"/>
-      <c r="W19" s="277"/>
-      <c r="X19" s="278"/>
+      <c r="U19" s="265"/>
+      <c r="V19" s="266"/>
+      <c r="W19" s="266"/>
+      <c r="X19" s="267"/>
     </row>
     <row r="20" spans="1:24" s="20" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="85"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="83"/>
       <c r="M20" s="16"/>
       <c r="N20" s="17"/>
-      <c r="O20" s="142"/>
-      <c r="P20" s="142"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="19"/>
       <c r="S20" s="19"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
-      <c r="W20" s="143"/>
-      <c r="X20" s="144"/>
+      <c r="T20" s="133"/>
+      <c r="U20" s="133"/>
+      <c r="V20" s="133"/>
+      <c r="W20" s="133"/>
+      <c r="X20" s="134"/>
     </row>
     <row r="21" spans="1:24" s="25" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A21" s="133" t="s">
+      <c r="A21" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="134"/>
-      <c r="C21" s="135"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="135"/>
-      <c r="H21" s="136" t="s">
+      <c r="G21" s="125"/>
+      <c r="H21" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="135"/>
-      <c r="J21" s="136" t="s">
+      <c r="I21" s="125"/>
+      <c r="J21" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="135"/>
+      <c r="K21" s="125"/>
       <c r="L21" s="21" t="s">
         <v>19</v>
       </c>
@@ -3324,10 +3336,10 @@
       <c r="N21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="136" t="s">
+      <c r="O21" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="135"/>
+      <c r="P21" s="125"/>
       <c r="Q21" s="21" t="s">
         <v>23</v>
       </c>
@@ -3337,11 +3349,11 @@
       <c r="S21" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T21" s="137" t="s">
+      <c r="T21" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="U21" s="138"/>
-      <c r="V21" s="139"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="129"/>
       <c r="W21" s="23" t="s">
         <v>27</v>
       </c>
@@ -3350,86 +3362,86 @@
       </c>
     </row>
     <row r="22" spans="1:24" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="147"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="137"/>
       <c r="D22" s="9"/>
       <c r="E22" s="26"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="148"/>
+      <c r="F22" s="138"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="138"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="138"/>
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
       <c r="N22" s="26"/>
-      <c r="O22" s="149"/>
-      <c r="P22" s="150"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="140"/>
       <c r="Q22" s="26"/>
       <c r="R22" s="26"/>
       <c r="S22" s="9"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="152"/>
-      <c r="V22" s="153"/>
+      <c r="T22" s="141"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="143"/>
       <c r="W22" s="27"/>
       <c r="X22" s="28"/>
     </row>
     <row r="23" spans="1:24" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="137"/>
       <c r="D23" s="9"/>
       <c r="E23" s="26"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="138"/>
       <c r="L23" s="26"/>
       <c r="M23" s="26"/>
       <c r="N23" s="26"/>
-      <c r="O23" s="149"/>
-      <c r="P23" s="150"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="140"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="26"/>
       <c r="S23" s="9"/>
-      <c r="T23" s="151"/>
-      <c r="U23" s="152"/>
-      <c r="V23" s="153"/>
+      <c r="T23" s="141"/>
+      <c r="U23" s="142"/>
+      <c r="V23" s="143"/>
       <c r="W23" s="27"/>
       <c r="X23" s="28"/>
     </row>
     <row r="24" spans="1:24" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="162"/>
-      <c r="C24" s="163"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
       <c r="D24" s="29"/>
       <c r="E24" s="30"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="164"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
+      <c r="K24" s="154"/>
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
-      <c r="O24" s="165"/>
-      <c r="P24" s="166"/>
+      <c r="O24" s="155"/>
+      <c r="P24" s="156"/>
       <c r="Q24" s="30"/>
       <c r="R24" s="30"/>
       <c r="S24" s="29"/>
-      <c r="T24" s="167"/>
-      <c r="U24" s="168"/>
-      <c r="V24" s="169"/>
+      <c r="T24" s="157"/>
+      <c r="U24" s="158"/>
+      <c r="V24" s="159"/>
       <c r="W24" s="31"/>
       <c r="X24" s="32"/>
     </row>
@@ -3452,12 +3464,12 @@
       <c r="P25" s="34"/>
       <c r="Q25" s="34"/>
       <c r="R25" s="34"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="154"/>
+      <c r="S25" s="144"/>
+      <c r="T25" s="144"/>
       <c r="U25" s="35"/>
-      <c r="V25" s="155"/>
-      <c r="W25" s="155"/>
-      <c r="X25" s="156"/>
+      <c r="V25" s="145"/>
+      <c r="W25" s="145"/>
+      <c r="X25" s="146"/>
     </row>
     <row r="26" spans="1:24" s="25" customFormat="1" ht="11.1" customHeight="1">
       <c r="A26" s="36" t="s">
@@ -3465,181 +3477,181 @@
       </c>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
       <c r="N26" s="38" t="s">
         <v>33</v>
       </c>
       <c r="O26" s="38"/>
-      <c r="P26" s="158"/>
-      <c r="Q26" s="158"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="157" t="s">
+      <c r="P26" s="148"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="148"/>
+      <c r="S26" s="148"/>
+      <c r="T26" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="U26" s="157"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="160"/>
+      <c r="U26" s="147"/>
+      <c r="V26" s="149"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="150"/>
     </row>
     <row r="27" spans="1:24" s="25" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="170"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="160"/>
       <c r="D27" s="39" t="s">
         <v>36</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="171" t="s">
+      <c r="F27" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="173"/>
+      <c r="G27" s="162"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="163"/>
       <c r="N27" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="171" t="s">
+      <c r="O27" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
       <c r="T27" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="174" t="s">
+      <c r="U27" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="V27" s="175"/>
-      <c r="W27" s="171" t="s">
+      <c r="V27" s="165"/>
+      <c r="W27" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="X27" s="176"/>
+      <c r="X27" s="166"/>
     </row>
     <row r="28" spans="1:24" s="25" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A28" s="177"/>
-      <c r="B28" s="178"/>
-      <c r="C28" s="178"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="42"/>
       <c r="E28" s="26"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="181"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="171"/>
       <c r="N28" s="43"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="180"/>
-      <c r="R28" s="180"/>
-      <c r="S28" s="181"/>
+      <c r="O28" s="169"/>
+      <c r="P28" s="170"/>
+      <c r="Q28" s="170"/>
+      <c r="R28" s="170"/>
+      <c r="S28" s="171"/>
       <c r="T28" s="44"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="183"/>
-      <c r="W28" s="149"/>
-      <c r="X28" s="184"/>
+      <c r="U28" s="172"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="174"/>
     </row>
     <row r="29" spans="1:24" s="25" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A29" s="177"/>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
+      <c r="A29" s="167"/>
+      <c r="B29" s="168"/>
+      <c r="C29" s="168"/>
       <c r="D29" s="42"/>
       <c r="E29" s="26"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="181"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="170"/>
+      <c r="J29" s="170"/>
+      <c r="K29" s="170"/>
+      <c r="L29" s="170"/>
+      <c r="M29" s="171"/>
       <c r="N29" s="43"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="180"/>
-      <c r="R29" s="180"/>
-      <c r="S29" s="181"/>
+      <c r="O29" s="169"/>
+      <c r="P29" s="170"/>
+      <c r="Q29" s="170"/>
+      <c r="R29" s="170"/>
+      <c r="S29" s="171"/>
       <c r="T29" s="44"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="184"/>
+      <c r="U29" s="172"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="174"/>
     </row>
     <row r="30" spans="1:24" s="45" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A30" s="177"/>
-      <c r="B30" s="178"/>
-      <c r="C30" s="178"/>
+      <c r="A30" s="167"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
       <c r="D30" s="42"/>
       <c r="E30" s="26"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="181"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="170"/>
+      <c r="K30" s="170"/>
+      <c r="L30" s="170"/>
+      <c r="M30" s="171"/>
       <c r="N30" s="43"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="180"/>
-      <c r="R30" s="180"/>
-      <c r="S30" s="181"/>
+      <c r="O30" s="169"/>
+      <c r="P30" s="170"/>
+      <c r="Q30" s="170"/>
+      <c r="R30" s="170"/>
+      <c r="S30" s="171"/>
       <c r="T30" s="44"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="149"/>
-      <c r="X30" s="184"/>
+      <c r="U30" s="172"/>
+      <c r="V30" s="173"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="174"/>
     </row>
     <row r="31" spans="1:24" ht="11.25" customHeight="1">
-      <c r="A31" s="185"/>
-      <c r="B31" s="186"/>
-      <c r="C31" s="186"/>
+      <c r="A31" s="175"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="46"/>
       <c r="E31" s="30"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="188"/>
-      <c r="L31" s="188"/>
-      <c r="M31" s="189"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="178"/>
+      <c r="M31" s="179"/>
       <c r="N31" s="47"/>
-      <c r="O31" s="187"/>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="188"/>
-      <c r="R31" s="188"/>
-      <c r="S31" s="189"/>
-      <c r="T31" s="190" t="s">
+      <c r="O31" s="177"/>
+      <c r="P31" s="178"/>
+      <c r="Q31" s="178"/>
+      <c r="R31" s="178"/>
+      <c r="S31" s="179"/>
+      <c r="T31" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="U31" s="191"/>
-      <c r="V31" s="192"/>
-      <c r="W31" s="193"/>
-      <c r="X31" s="194"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="183"/>
+      <c r="X31" s="184"/>
     </row>
     <row r="32" spans="1:24" ht="3" customHeight="1">
       <c r="A32" s="48"/>
@@ -3661,11 +3673,11 @@
       <c r="Q32" s="54"/>
       <c r="R32" s="54"/>
       <c r="S32" s="55"/>
-      <c r="T32" s="195"/>
-      <c r="U32" s="195"/>
-      <c r="V32" s="195"/>
-      <c r="W32" s="195"/>
-      <c r="X32" s="196"/>
+      <c r="T32" s="185"/>
+      <c r="U32" s="185"/>
+      <c r="V32" s="185"/>
+      <c r="W32" s="185"/>
+      <c r="X32" s="186"/>
     </row>
     <row r="33" spans="1:24" s="59" customFormat="1" ht="11.1" customHeight="1">
       <c r="A33" s="56" t="s">
@@ -3673,37 +3685,37 @@
       </c>
       <c r="B33" s="57"/>
       <c r="C33" s="57"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="202"/>
-      <c r="M33" s="202"/>
+      <c r="D33" s="192"/>
+      <c r="E33" s="192"/>
+      <c r="F33" s="192"/>
+      <c r="G33" s="192"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="192"/>
       <c r="N33" s="37"/>
-      <c r="O33" s="203" t="s">
+      <c r="O33" s="193" t="s">
         <v>45</v>
       </c>
-      <c r="P33" s="203"/>
-      <c r="Q33" s="202"/>
-      <c r="R33" s="202"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="192"/>
       <c r="S33" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="T33" s="159"/>
-      <c r="U33" s="159"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="159"/>
-      <c r="X33" s="160"/>
+      <c r="T33" s="149"/>
+      <c r="U33" s="149"/>
+      <c r="V33" s="149"/>
+      <c r="W33" s="149"/>
+      <c r="X33" s="150"/>
     </row>
     <row r="34" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A34" s="98" t="s">
+      <c r="A34" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="170"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="60" t="s">
         <v>48</v>
       </c>
@@ -3713,457 +3725,457 @@
       <c r="E34" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="197" t="s">
+      <c r="F34" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="170"/>
-      <c r="H34" s="197" t="s">
+      <c r="G34" s="160"/>
+      <c r="H34" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="I34" s="170"/>
-      <c r="J34" s="197" t="s">
+      <c r="I34" s="160"/>
+      <c r="J34" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="170"/>
+      <c r="K34" s="160"/>
       <c r="L34" s="60" t="s">
         <v>53</v>
       </c>
       <c r="M34" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="N34" s="197" t="s">
+      <c r="N34" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="198" t="s">
+      <c r="O34" s="98"/>
+      <c r="P34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="S34" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="T34" s="175"/>
-      <c r="U34" s="174" t="s">
+      <c r="T34" s="165"/>
+      <c r="U34" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="V34" s="175"/>
-      <c r="W34" s="174" t="s">
+      <c r="V34" s="165"/>
+      <c r="W34" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="X34" s="199"/>
+      <c r="X34" s="189"/>
     </row>
     <row r="35" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A35" s="200"/>
-      <c r="B35" s="201"/>
+      <c r="A35" s="190"/>
+      <c r="B35" s="191"/>
       <c r="C35" s="61"/>
       <c r="D35" s="42"/>
       <c r="E35" s="42"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="150"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="140"/>
       <c r="L35" s="26"/>
       <c r="M35" s="26"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="180"/>
-      <c r="Q35" s="180"/>
-      <c r="R35" s="181"/>
-      <c r="S35" s="214"/>
-      <c r="T35" s="215"/>
-      <c r="U35" s="204"/>
-      <c r="V35" s="205"/>
-      <c r="W35" s="208"/>
-      <c r="X35" s="209"/>
+      <c r="N35" s="169"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="170"/>
+      <c r="Q35" s="170"/>
+      <c r="R35" s="171"/>
+      <c r="S35" s="204"/>
+      <c r="T35" s="205"/>
+      <c r="U35" s="194"/>
+      <c r="V35" s="195"/>
+      <c r="W35" s="198"/>
+      <c r="X35" s="199"/>
     </row>
     <row r="36" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A36" s="200"/>
-      <c r="B36" s="201"/>
+      <c r="A36" s="190"/>
+      <c r="B36" s="191"/>
       <c r="C36" s="61"/>
       <c r="D36" s="42"/>
       <c r="E36" s="42"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="150"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="140"/>
       <c r="L36" s="26"/>
       <c r="M36" s="26"/>
-      <c r="N36" s="179"/>
-      <c r="O36" s="180"/>
-      <c r="P36" s="180"/>
-      <c r="Q36" s="180"/>
-      <c r="R36" s="181"/>
-      <c r="S36" s="216"/>
-      <c r="T36" s="217"/>
-      <c r="U36" s="218"/>
-      <c r="V36" s="219"/>
-      <c r="W36" s="220"/>
-      <c r="X36" s="221"/>
+      <c r="N36" s="169"/>
+      <c r="O36" s="170"/>
+      <c r="P36" s="170"/>
+      <c r="Q36" s="170"/>
+      <c r="R36" s="171"/>
+      <c r="S36" s="206"/>
+      <c r="T36" s="207"/>
+      <c r="U36" s="208"/>
+      <c r="V36" s="209"/>
+      <c r="W36" s="210"/>
+      <c r="X36" s="211"/>
     </row>
     <row r="37" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A37" s="200"/>
-      <c r="B37" s="201"/>
+      <c r="A37" s="190"/>
+      <c r="B37" s="191"/>
       <c r="C37" s="61"/>
       <c r="D37" s="42"/>
       <c r="E37" s="42"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="150"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="140"/>
       <c r="L37" s="26"/>
       <c r="M37" s="26"/>
-      <c r="N37" s="179"/>
-      <c r="O37" s="180"/>
-      <c r="P37" s="180"/>
-      <c r="Q37" s="180"/>
-      <c r="R37" s="181"/>
-      <c r="S37" s="214"/>
-      <c r="T37" s="215"/>
-      <c r="U37" s="204"/>
-      <c r="V37" s="205"/>
-      <c r="W37" s="208"/>
-      <c r="X37" s="209"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="170"/>
+      <c r="P37" s="170"/>
+      <c r="Q37" s="170"/>
+      <c r="R37" s="171"/>
+      <c r="S37" s="204"/>
+      <c r="T37" s="205"/>
+      <c r="U37" s="194"/>
+      <c r="V37" s="195"/>
+      <c r="W37" s="198"/>
+      <c r="X37" s="199"/>
     </row>
     <row r="38" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A38" s="200"/>
-      <c r="B38" s="201"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="191"/>
       <c r="C38" s="61"/>
       <c r="D38" s="42"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="150"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="140"/>
       <c r="L38" s="26"/>
       <c r="M38" s="26"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="180"/>
-      <c r="P38" s="180"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="181"/>
-      <c r="S38" s="216"/>
-      <c r="T38" s="217"/>
-      <c r="U38" s="218"/>
-      <c r="V38" s="219"/>
-      <c r="W38" s="220"/>
-      <c r="X38" s="221"/>
+      <c r="N38" s="169"/>
+      <c r="O38" s="170"/>
+      <c r="P38" s="170"/>
+      <c r="Q38" s="170"/>
+      <c r="R38" s="171"/>
+      <c r="S38" s="206"/>
+      <c r="T38" s="207"/>
+      <c r="U38" s="208"/>
+      <c r="V38" s="209"/>
+      <c r="W38" s="210"/>
+      <c r="X38" s="211"/>
     </row>
     <row r="39" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A39" s="200"/>
-      <c r="B39" s="201"/>
+      <c r="A39" s="190"/>
+      <c r="B39" s="191"/>
       <c r="C39" s="61"/>
       <c r="D39" s="42"/>
       <c r="E39" s="42"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="150"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="140"/>
       <c r="L39" s="26"/>
       <c r="M39" s="26"/>
-      <c r="N39" s="179"/>
-      <c r="O39" s="180"/>
-      <c r="P39" s="180"/>
-      <c r="Q39" s="180"/>
-      <c r="R39" s="181"/>
-      <c r="S39" s="214"/>
-      <c r="T39" s="215"/>
-      <c r="U39" s="204"/>
-      <c r="V39" s="205"/>
-      <c r="W39" s="208"/>
-      <c r="X39" s="209"/>
+      <c r="N39" s="169"/>
+      <c r="O39" s="170"/>
+      <c r="P39" s="170"/>
+      <c r="Q39" s="170"/>
+      <c r="R39" s="171"/>
+      <c r="S39" s="204"/>
+      <c r="T39" s="205"/>
+      <c r="U39" s="194"/>
+      <c r="V39" s="195"/>
+      <c r="W39" s="198"/>
+      <c r="X39" s="199"/>
     </row>
     <row r="40" spans="1:24" s="59" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A40" s="200"/>
-      <c r="B40" s="201"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="191"/>
       <c r="C40" s="61"/>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="150"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="140"/>
       <c r="L40" s="26"/>
       <c r="M40" s="62"/>
-      <c r="N40" s="212"/>
-      <c r="O40" s="213"/>
-      <c r="P40" s="180"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="181"/>
-      <c r="S40" s="216"/>
-      <c r="T40" s="217"/>
-      <c r="U40" s="206"/>
-      <c r="V40" s="207"/>
-      <c r="W40" s="210"/>
-      <c r="X40" s="211"/>
+      <c r="N40" s="202"/>
+      <c r="O40" s="203"/>
+      <c r="P40" s="170"/>
+      <c r="Q40" s="170"/>
+      <c r="R40" s="171"/>
+      <c r="S40" s="206"/>
+      <c r="T40" s="207"/>
+      <c r="U40" s="196"/>
+      <c r="V40" s="197"/>
+      <c r="W40" s="200"/>
+      <c r="X40" s="201"/>
     </row>
     <row r="41" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A41" s="224" t="s">
+      <c r="A41" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="228"/>
-      <c r="C41" s="229"/>
-      <c r="D41" s="229"/>
-      <c r="E41" s="229"/>
-      <c r="F41" s="229"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="229"/>
-      <c r="I41" s="229"/>
-      <c r="J41" s="229"/>
-      <c r="K41" s="229"/>
-      <c r="L41" s="229"/>
+      <c r="B41" s="218"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
+      <c r="K41" s="219"/>
+      <c r="L41" s="219"/>
       <c r="M41" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="N41" s="279"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="234" t="s">
+      <c r="N41" s="268"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="Q41" s="235"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="224" t="s">
+      <c r="Q41" s="225"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="U41" s="236"/>
-      <c r="V41" s="237"/>
-      <c r="W41" s="237"/>
-      <c r="X41" s="238"/>
+      <c r="U41" s="226"/>
+      <c r="V41" s="227"/>
+      <c r="W41" s="227"/>
+      <c r="X41" s="228"/>
     </row>
     <row r="42" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A42" s="225"/>
-      <c r="B42" s="230"/>
-      <c r="C42" s="231"/>
-      <c r="D42" s="231"/>
-      <c r="E42" s="231"/>
-      <c r="F42" s="231"/>
-      <c r="G42" s="231"/>
-      <c r="H42" s="231"/>
-      <c r="I42" s="231"/>
-      <c r="J42" s="231"/>
-      <c r="K42" s="231"/>
-      <c r="L42" s="231"/>
-      <c r="M42" s="68" t="s">
+      <c r="A42" s="215"/>
+      <c r="B42" s="220"/>
+      <c r="C42" s="221"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="67" t="s">
         <v>76</v>
       </c>
       <c r="N42" s="27"/>
-      <c r="O42" s="70"/>
-      <c r="P42" s="239" t="s">
+      <c r="O42" s="68"/>
+      <c r="P42" s="229" t="s">
         <v>61</v>
       </c>
-      <c r="Q42" s="240"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="225"/>
-      <c r="U42" s="241"/>
-      <c r="V42" s="242"/>
-      <c r="W42" s="242"/>
-      <c r="X42" s="243"/>
+      <c r="Q42" s="230"/>
+      <c r="R42" s="69"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="215"/>
+      <c r="U42" s="231"/>
+      <c r="V42" s="232"/>
+      <c r="W42" s="232"/>
+      <c r="X42" s="233"/>
     </row>
     <row r="43" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A43" s="225"/>
-      <c r="B43" s="230"/>
-      <c r="C43" s="231"/>
-      <c r="D43" s="231"/>
-      <c r="E43" s="231"/>
-      <c r="F43" s="231"/>
-      <c r="G43" s="231"/>
-      <c r="H43" s="231"/>
-      <c r="I43" s="231"/>
-      <c r="J43" s="231"/>
-      <c r="K43" s="231"/>
-      <c r="L43" s="231"/>
-      <c r="M43" s="68" t="s">
+      <c r="A43" s="215"/>
+      <c r="B43" s="220"/>
+      <c r="C43" s="221"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="67" t="s">
         <v>77</v>
       </c>
       <c r="N43" s="27"/>
-      <c r="O43" s="70"/>
-      <c r="P43" s="244" t="s">
+      <c r="O43" s="68"/>
+      <c r="P43" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="Q43" s="245"/>
-      <c r="R43" s="73">
+      <c r="Q43" s="235"/>
+      <c r="R43" s="71">
         <f>S24</f>
         <v>0</v>
       </c>
-      <c r="S43" s="74"/>
-      <c r="T43" s="225"/>
-      <c r="U43" s="241"/>
-      <c r="V43" s="242"/>
-      <c r="W43" s="242"/>
-      <c r="X43" s="243"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="215"/>
+      <c r="U43" s="231"/>
+      <c r="V43" s="232"/>
+      <c r="W43" s="232"/>
+      <c r="X43" s="233"/>
     </row>
     <row r="44" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A44" s="225"/>
-      <c r="B44" s="230"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="231"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="68" t="s">
+      <c r="A44" s="215"/>
+      <c r="B44" s="220"/>
+      <c r="C44" s="221"/>
+      <c r="D44" s="221"/>
+      <c r="E44" s="221"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
+      <c r="K44" s="221"/>
+      <c r="L44" s="221"/>
+      <c r="M44" s="67" t="s">
         <v>78</v>
       </c>
       <c r="N44" s="27"/>
-      <c r="O44" s="70" t="str">
+      <c r="O44" s="68" t="str">
         <f>IF($N$43=0,"",N44/$N$43)</f>
         <v/>
       </c>
-      <c r="P44" s="246" t="s">
+      <c r="P44" s="236" t="s">
         <v>63</v>
       </c>
-      <c r="Q44" s="75" t="s">
+      <c r="Q44" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="R44" s="76"/>
-      <c r="S44" s="77"/>
-      <c r="T44" s="225"/>
-      <c r="U44" s="241"/>
-      <c r="V44" s="242"/>
-      <c r="W44" s="242"/>
-      <c r="X44" s="243"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="215"/>
+      <c r="U44" s="231"/>
+      <c r="V44" s="232"/>
+      <c r="W44" s="232"/>
+      <c r="X44" s="233"/>
     </row>
     <row r="45" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A45" s="226"/>
-      <c r="B45" s="230"/>
-      <c r="C45" s="231"/>
-      <c r="D45" s="231"/>
-      <c r="E45" s="231"/>
-      <c r="F45" s="231"/>
-      <c r="G45" s="231"/>
-      <c r="H45" s="231"/>
-      <c r="I45" s="231"/>
-      <c r="J45" s="231"/>
-      <c r="K45" s="231"/>
-      <c r="L45" s="231"/>
-      <c r="M45" s="68" t="s">
+      <c r="A45" s="216"/>
+      <c r="B45" s="220"/>
+      <c r="C45" s="221"/>
+      <c r="D45" s="221"/>
+      <c r="E45" s="221"/>
+      <c r="F45" s="221"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="221"/>
+      <c r="K45" s="221"/>
+      <c r="L45" s="221"/>
+      <c r="M45" s="67" t="s">
         <v>79</v>
       </c>
       <c r="N45" s="27"/>
-      <c r="O45" s="70" t="str">
+      <c r="O45" s="68" t="str">
         <f>IF($N$43=0,"",N45/$N$43)</f>
         <v/>
       </c>
-      <c r="P45" s="247"/>
-      <c r="Q45" s="68" t="s">
+      <c r="P45" s="237"/>
+      <c r="Q45" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="R45" s="78"/>
-      <c r="S45" s="79"/>
-      <c r="T45" s="226"/>
-      <c r="U45" s="249"/>
-      <c r="V45" s="250"/>
-      <c r="W45" s="250"/>
-      <c r="X45" s="251"/>
+      <c r="R45" s="76"/>
+      <c r="S45" s="77"/>
+      <c r="T45" s="216"/>
+      <c r="U45" s="239"/>
+      <c r="V45" s="240"/>
+      <c r="W45" s="240"/>
+      <c r="X45" s="241"/>
     </row>
     <row r="46" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A46" s="226"/>
-      <c r="B46" s="230"/>
-      <c r="C46" s="231"/>
-      <c r="D46" s="231"/>
-      <c r="E46" s="231"/>
-      <c r="F46" s="231"/>
-      <c r="G46" s="231"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="231"/>
-      <c r="J46" s="231"/>
-      <c r="K46" s="231"/>
-      <c r="L46" s="231"/>
-      <c r="M46" s="68" t="s">
+      <c r="A46" s="216"/>
+      <c r="B46" s="220"/>
+      <c r="C46" s="221"/>
+      <c r="D46" s="221"/>
+      <c r="E46" s="221"/>
+      <c r="F46" s="221"/>
+      <c r="G46" s="221"/>
+      <c r="H46" s="221"/>
+      <c r="I46" s="221"/>
+      <c r="J46" s="221"/>
+      <c r="K46" s="221"/>
+      <c r="L46" s="221"/>
+      <c r="M46" s="67" t="s">
         <v>80</v>
       </c>
       <c r="N46" s="27"/>
-      <c r="O46" s="70" t="str">
+      <c r="O46" s="68" t="str">
         <f>IF($N$43=0,"",N46/$N$43)</f>
         <v/>
       </c>
-      <c r="P46" s="247"/>
-      <c r="Q46" s="68" t="s">
+      <c r="P46" s="237"/>
+      <c r="Q46" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="R46" s="78"/>
-      <c r="S46" s="79"/>
-      <c r="T46" s="226"/>
-      <c r="U46" s="249"/>
-      <c r="V46" s="250"/>
-      <c r="W46" s="250"/>
-      <c r="X46" s="251"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="77"/>
+      <c r="T46" s="216"/>
+      <c r="U46" s="239"/>
+      <c r="V46" s="240"/>
+      <c r="W46" s="240"/>
+      <c r="X46" s="241"/>
     </row>
     <row r="47" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A47" s="227"/>
-      <c r="B47" s="232"/>
-      <c r="C47" s="233"/>
-      <c r="D47" s="233"/>
-      <c r="E47" s="233"/>
-      <c r="F47" s="233"/>
-      <c r="G47" s="233"/>
-      <c r="H47" s="233"/>
-      <c r="I47" s="233"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="233"/>
-      <c r="L47" s="233"/>
-      <c r="M47" s="80" t="s">
+      <c r="A47" s="217"/>
+      <c r="B47" s="222"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="223"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="223"/>
+      <c r="H47" s="223"/>
+      <c r="I47" s="223"/>
+      <c r="J47" s="223"/>
+      <c r="K47" s="223"/>
+      <c r="L47" s="223"/>
+      <c r="M47" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="N47" s="81"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="248"/>
-      <c r="Q47" s="83" t="s">
+      <c r="N47" s="79"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="238"/>
+      <c r="Q47" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="R47" s="73">
+      <c r="R47" s="71">
         <f>IF(R41="其他","",R46-R43)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="74"/>
-      <c r="T47" s="227"/>
-      <c r="U47" s="252"/>
-      <c r="V47" s="253"/>
-      <c r="W47" s="253"/>
-      <c r="X47" s="254"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="217"/>
+      <c r="U47" s="242"/>
+      <c r="V47" s="243"/>
+      <c r="W47" s="243"/>
+      <c r="X47" s="244"/>
     </row>
     <row r="48" spans="1:24" ht="12" customHeight="1">
-      <c r="A48" s="222" t="s">
+      <c r="A48" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="222"/>
-      <c r="C48" s="222"/>
-      <c r="D48" s="222"/>
-      <c r="E48" s="222"/>
-      <c r="F48" s="222"/>
-      <c r="G48" s="222"/>
-      <c r="H48" s="222"/>
-      <c r="I48" s="222"/>
-      <c r="J48" s="222"/>
-      <c r="K48" s="222"/>
-      <c r="L48" s="222"/>
-      <c r="M48" s="222"/>
-      <c r="N48" s="222"/>
-      <c r="O48" s="222"/>
-      <c r="P48" s="222"/>
-      <c r="Q48" s="222"/>
-      <c r="R48" s="222"/>
-      <c r="S48" s="222"/>
-      <c r="T48" s="222"/>
-      <c r="U48" s="222"/>
-      <c r="V48" s="222"/>
-      <c r="W48" s="223"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="212"/>
+      <c r="D48" s="212"/>
+      <c r="E48" s="212"/>
+      <c r="F48" s="212"/>
+      <c r="G48" s="212"/>
+      <c r="H48" s="212"/>
+      <c r="I48" s="212"/>
+      <c r="J48" s="212"/>
+      <c r="K48" s="212"/>
+      <c r="L48" s="212"/>
+      <c r="M48" s="212"/>
+      <c r="N48" s="212"/>
+      <c r="O48" s="212"/>
+      <c r="P48" s="212"/>
+      <c r="Q48" s="212"/>
+      <c r="R48" s="212"/>
+      <c r="S48" s="212"/>
+      <c r="T48" s="212"/>
+      <c r="U48" s="212"/>
+      <c r="V48" s="212"/>
+      <c r="W48" s="213"/>
     </row>
     <row r="49" ht="12" customHeight="1"/>
   </sheetData>
@@ -4403,8 +4415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5:X48"/>
+    <sheetView showZeros="0" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.6"/>
@@ -4431,138 +4443,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="22.2">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="107" t="s">
+      <c r="A1" s="104"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="V1" s="107"/>
-      <c r="W1" s="108" t="s">
+      <c r="V1" s="106"/>
+      <c r="W1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="108"/>
+      <c r="X1" s="107"/>
     </row>
     <row r="2" spans="1:24" ht="24.75" customHeight="1">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="109" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="109"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
       <c r="N2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="84" t="s">
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="82"/>
       <c r="T2" s="3"/>
-      <c r="U2" s="123" t="s">
+      <c r="U2" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="V2" s="123"/>
-      <c r="W2" s="124"/>
-      <c r="X2" s="124"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
     </row>
     <row r="3" spans="1:24" s="4" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="125" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="197" t="s">
+      <c r="I3" s="116"/>
+      <c r="J3" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="99"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="96" t="s">
+      <c r="K3" s="98"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="97"/>
-      <c r="O3" s="98" t="s">
+      <c r="N3" s="96"/>
+      <c r="O3" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="96" t="s">
+      <c r="P3" s="98"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="101"/>
-      <c r="T3" s="97"/>
-      <c r="U3" s="98" t="s">
+      <c r="S3" s="100"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="100"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="99"/>
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A4" s="95"/>
-      <c r="B4" s="127"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="127"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="255" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="245" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="103"/>
       <c r="M4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="102" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="122"/>
+      <c r="P4" s="112"/>
       <c r="Q4" s="7" t="s">
         <v>11</v>
       </c>
@@ -4575,1288 +4587,1288 @@
       <c r="T4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="102"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="104"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="102"/>
+      <c r="W4" s="102"/>
+      <c r="X4" s="103"/>
     </row>
     <row r="5" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="259"/>
-      <c r="C5" s="260"/>
-      <c r="D5" s="260"/>
-      <c r="E5" s="260"/>
-      <c r="F5" s="260"/>
-      <c r="G5" s="261"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="265"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="283"/>
-      <c r="P5" s="284"/>
-      <c r="Q5" s="91"/>
-      <c r="R5" s="87"/>
+      <c r="A5" s="84"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="249"/>
+      <c r="D5" s="249"/>
+      <c r="E5" s="249"/>
+      <c r="F5" s="249"/>
+      <c r="G5" s="250"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="139"/>
+      <c r="K5" s="254"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="272"/>
+      <c r="P5" s="273"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="85"/>
       <c r="S5" s="89"/>
       <c r="T5" s="88"/>
-      <c r="U5" s="273"/>
-      <c r="V5" s="274"/>
-      <c r="W5" s="274"/>
-      <c r="X5" s="275"/>
+      <c r="U5" s="278"/>
+      <c r="V5" s="279"/>
+      <c r="W5" s="279"/>
+      <c r="X5" s="280"/>
     </row>
     <row r="6" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A6" s="86"/>
-      <c r="B6" s="259"/>
-      <c r="C6" s="260"/>
-      <c r="D6" s="260"/>
-      <c r="E6" s="260"/>
-      <c r="F6" s="260"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="283"/>
-      <c r="P6" s="284"/>
-      <c r="Q6" s="91"/>
-      <c r="R6" s="87"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="248"/>
+      <c r="C6" s="249"/>
+      <c r="D6" s="249"/>
+      <c r="E6" s="249"/>
+      <c r="F6" s="249"/>
+      <c r="G6" s="250"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="139"/>
+      <c r="K6" s="254"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="90"/>
+      <c r="O6" s="272"/>
+      <c r="P6" s="273"/>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="85"/>
       <c r="S6" s="89"/>
       <c r="T6" s="88"/>
-      <c r="U6" s="273"/>
-      <c r="V6" s="274"/>
-      <c r="W6" s="274"/>
-      <c r="X6" s="275"/>
+      <c r="U6" s="278"/>
+      <c r="V6" s="279"/>
+      <c r="W6" s="279"/>
+      <c r="X6" s="280"/>
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A7" s="86"/>
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="260"/>
-      <c r="E7" s="260"/>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="265"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="283"/>
-      <c r="P7" s="284"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="87"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="248"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="272"/>
+      <c r="P7" s="273"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="85"/>
       <c r="S7" s="89"/>
       <c r="T7" s="88"/>
-      <c r="U7" s="273"/>
-      <c r="V7" s="274"/>
-      <c r="W7" s="274"/>
-      <c r="X7" s="275"/>
+      <c r="U7" s="278"/>
+      <c r="V7" s="279"/>
+      <c r="W7" s="279"/>
+      <c r="X7" s="280"/>
     </row>
     <row r="8" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A8" s="86"/>
-      <c r="B8" s="259"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="260"/>
-      <c r="E8" s="260"/>
-      <c r="F8" s="260"/>
-      <c r="G8" s="261"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="265"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="283"/>
-      <c r="P8" s="284"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="87"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="248"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="250"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="272"/>
+      <c r="P8" s="273"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="89"/>
       <c r="T8" s="88"/>
-      <c r="U8" s="273"/>
-      <c r="V8" s="274"/>
-      <c r="W8" s="274"/>
-      <c r="X8" s="275"/>
+      <c r="U8" s="278"/>
+      <c r="V8" s="279"/>
+      <c r="W8" s="279"/>
+      <c r="X8" s="280"/>
     </row>
     <row r="9" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="259"/>
-      <c r="C9" s="260"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="261"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="265"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="283"/>
-      <c r="P9" s="284"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="87"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="249"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="250"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="139"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="272"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="85"/>
       <c r="S9" s="89"/>
       <c r="T9" s="88"/>
-      <c r="U9" s="273"/>
-      <c r="V9" s="274"/>
-      <c r="W9" s="274"/>
-      <c r="X9" s="275"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="279"/>
+      <c r="W9" s="279"/>
+      <c r="X9" s="280"/>
     </row>
     <row r="10" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="259"/>
-      <c r="C10" s="260"/>
-      <c r="D10" s="260"/>
-      <c r="E10" s="260"/>
-      <c r="F10" s="260"/>
-      <c r="G10" s="261"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="265"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="283"/>
-      <c r="P10" s="284"/>
-      <c r="Q10" s="91"/>
-      <c r="R10" s="87"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="248"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="250"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="273"/>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="85"/>
       <c r="S10" s="89"/>
       <c r="T10" s="88"/>
-      <c r="U10" s="273"/>
-      <c r="V10" s="274"/>
-      <c r="W10" s="274"/>
-      <c r="X10" s="275"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="279"/>
+      <c r="W10" s="279"/>
+      <c r="X10" s="280"/>
     </row>
     <row r="11" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A11" s="86"/>
-      <c r="B11" s="259"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
-      <c r="E11" s="260"/>
-      <c r="F11" s="260"/>
-      <c r="G11" s="261"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="265"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="283"/>
-      <c r="P11" s="284"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="87"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="248"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="254"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="272"/>
+      <c r="P11" s="273"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="85"/>
       <c r="S11" s="89"/>
       <c r="T11" s="88"/>
-      <c r="U11" s="273"/>
-      <c r="V11" s="274"/>
-      <c r="W11" s="274"/>
-      <c r="X11" s="275"/>
+      <c r="U11" s="278"/>
+      <c r="V11" s="279"/>
+      <c r="W11" s="279"/>
+      <c r="X11" s="280"/>
     </row>
     <row r="12" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A12" s="86"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
-      <c r="E12" s="260"/>
-      <c r="F12" s="260"/>
-      <c r="G12" s="261"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="283"/>
-      <c r="P12" s="284"/>
-      <c r="Q12" s="91"/>
-      <c r="R12" s="87"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="248"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="254"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="272"/>
+      <c r="P12" s="273"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="85"/>
       <c r="S12" s="89"/>
       <c r="T12" s="88"/>
-      <c r="U12" s="273"/>
-      <c r="V12" s="274"/>
-      <c r="W12" s="274"/>
-      <c r="X12" s="275"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="279"/>
+      <c r="W12" s="279"/>
+      <c r="X12" s="280"/>
     </row>
     <row r="13" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A13" s="86"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="260"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="265"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="283"/>
-      <c r="P13" s="284"/>
-      <c r="Q13" s="91"/>
-      <c r="R13" s="87"/>
+      <c r="A13" s="84"/>
+      <c r="B13" s="248"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="250"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="254"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="272"/>
+      <c r="P13" s="273"/>
+      <c r="Q13" s="90"/>
+      <c r="R13" s="85"/>
       <c r="S13" s="89"/>
       <c r="T13" s="88"/>
-      <c r="U13" s="273"/>
-      <c r="V13" s="274"/>
-      <c r="W13" s="274"/>
-      <c r="X13" s="275"/>
+      <c r="U13" s="278"/>
+      <c r="V13" s="279"/>
+      <c r="W13" s="279"/>
+      <c r="X13" s="280"/>
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A14" s="86"/>
-      <c r="B14" s="259"/>
-      <c r="C14" s="260"/>
-      <c r="D14" s="260"/>
-      <c r="E14" s="260"/>
-      <c r="F14" s="260"/>
-      <c r="G14" s="261"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="265"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="283"/>
-      <c r="P14" s="284"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="87"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="248"/>
+      <c r="C14" s="249"/>
+      <c r="D14" s="249"/>
+      <c r="E14" s="249"/>
+      <c r="F14" s="249"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="139"/>
+      <c r="K14" s="254"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="272"/>
+      <c r="P14" s="273"/>
+      <c r="Q14" s="90"/>
+      <c r="R14" s="85"/>
       <c r="S14" s="89"/>
       <c r="T14" s="88"/>
-      <c r="U14" s="273"/>
-      <c r="V14" s="274"/>
-      <c r="W14" s="274"/>
-      <c r="X14" s="275"/>
+      <c r="U14" s="278"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="279"/>
+      <c r="X14" s="280"/>
     </row>
     <row r="15" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A15" s="86"/>
-      <c r="B15" s="259"/>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="265"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="283"/>
-      <c r="P15" s="284"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="87"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="248"/>
+      <c r="C15" s="249"/>
+      <c r="D15" s="249"/>
+      <c r="E15" s="249"/>
+      <c r="F15" s="249"/>
+      <c r="G15" s="250"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="139"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="272"/>
+      <c r="P15" s="273"/>
+      <c r="Q15" s="90"/>
+      <c r="R15" s="85"/>
       <c r="S15" s="89"/>
       <c r="T15" s="88"/>
-      <c r="U15" s="273"/>
-      <c r="V15" s="274"/>
-      <c r="W15" s="274"/>
-      <c r="X15" s="275"/>
+      <c r="U15" s="278"/>
+      <c r="V15" s="279"/>
+      <c r="W15" s="279"/>
+      <c r="X15" s="280"/>
     </row>
     <row r="16" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A16" s="86"/>
-      <c r="B16" s="259"/>
-      <c r="C16" s="260"/>
-      <c r="D16" s="260"/>
-      <c r="E16" s="260"/>
-      <c r="F16" s="260"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="265"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="283"/>
-      <c r="P16" s="284"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="87"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="248"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="250"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="254"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="272"/>
+      <c r="P16" s="273"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="85"/>
       <c r="S16" s="89"/>
       <c r="T16" s="88"/>
-      <c r="U16" s="273"/>
-      <c r="V16" s="274"/>
-      <c r="W16" s="274"/>
-      <c r="X16" s="275"/>
+      <c r="U16" s="278"/>
+      <c r="V16" s="279"/>
+      <c r="W16" s="279"/>
+      <c r="X16" s="280"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A17" s="86"/>
-      <c r="B17" s="259"/>
-      <c r="C17" s="260"/>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="149"/>
-      <c r="K17" s="265"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="283"/>
-      <c r="P17" s="284"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="87"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="248"/>
+      <c r="C17" s="249"/>
+      <c r="D17" s="249"/>
+      <c r="E17" s="249"/>
+      <c r="F17" s="249"/>
+      <c r="G17" s="250"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="254"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="85"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="272"/>
+      <c r="P17" s="273"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="85"/>
       <c r="S17" s="89"/>
       <c r="T17" s="88"/>
-      <c r="U17" s="273"/>
-      <c r="V17" s="274"/>
-      <c r="W17" s="274"/>
-      <c r="X17" s="275"/>
+      <c r="U17" s="278"/>
+      <c r="V17" s="279"/>
+      <c r="W17" s="279"/>
+      <c r="X17" s="280"/>
     </row>
     <row r="18" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A18" s="86"/>
-      <c r="B18" s="259"/>
-      <c r="C18" s="260"/>
-      <c r="D18" s="260"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="265"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="283"/>
-      <c r="P18" s="284"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="87"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="248"/>
+      <c r="C18" s="249"/>
+      <c r="D18" s="249"/>
+      <c r="E18" s="249"/>
+      <c r="F18" s="249"/>
+      <c r="G18" s="250"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="254"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="85"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="272"/>
+      <c r="P18" s="273"/>
+      <c r="Q18" s="90"/>
+      <c r="R18" s="85"/>
       <c r="S18" s="89"/>
       <c r="T18" s="88"/>
-      <c r="U18" s="273"/>
-      <c r="V18" s="274"/>
-      <c r="W18" s="274"/>
-      <c r="X18" s="275"/>
+      <c r="U18" s="278"/>
+      <c r="V18" s="279"/>
+      <c r="W18" s="279"/>
+      <c r="X18" s="280"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A19" s="86"/>
-      <c r="B19" s="259"/>
-      <c r="C19" s="260"/>
-      <c r="D19" s="260"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="260"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="265"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="283"/>
-      <c r="P19" s="284"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="87"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="248"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="249"/>
+      <c r="F19" s="249"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="254"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="272"/>
+      <c r="P19" s="273"/>
+      <c r="Q19" s="90"/>
+      <c r="R19" s="85"/>
       <c r="S19" s="89"/>
       <c r="T19" s="88"/>
-      <c r="U19" s="273"/>
-      <c r="V19" s="274"/>
-      <c r="W19" s="274"/>
-      <c r="X19" s="275"/>
+      <c r="U19" s="278"/>
+      <c r="V19" s="279"/>
+      <c r="W19" s="279"/>
+      <c r="X19" s="280"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A20" s="86"/>
-      <c r="B20" s="259"/>
-      <c r="C20" s="260"/>
-      <c r="D20" s="260"/>
-      <c r="E20" s="260"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="261"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="265"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="283"/>
-      <c r="P20" s="284"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="87"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="248"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="249"/>
+      <c r="F20" s="249"/>
+      <c r="G20" s="250"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="174"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="272"/>
+      <c r="P20" s="273"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="85"/>
       <c r="S20" s="89"/>
       <c r="T20" s="88"/>
-      <c r="U20" s="273"/>
-      <c r="V20" s="274"/>
-      <c r="W20" s="274"/>
-      <c r="X20" s="275"/>
+      <c r="U20" s="278"/>
+      <c r="V20" s="279"/>
+      <c r="W20" s="279"/>
+      <c r="X20" s="280"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A21" s="86"/>
-      <c r="B21" s="259"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="261"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="265"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="283"/>
-      <c r="P21" s="284"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="87"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="248"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="249"/>
+      <c r="F21" s="249"/>
+      <c r="G21" s="250"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="254"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="85"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="272"/>
+      <c r="P21" s="273"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="85"/>
       <c r="S21" s="89"/>
       <c r="T21" s="88"/>
-      <c r="U21" s="273"/>
-      <c r="V21" s="274"/>
-      <c r="W21" s="274"/>
-      <c r="X21" s="275"/>
+      <c r="U21" s="278"/>
+      <c r="V21" s="279"/>
+      <c r="W21" s="279"/>
+      <c r="X21" s="280"/>
     </row>
     <row r="22" spans="1:24" s="4" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A22" s="86"/>
-      <c r="B22" s="259"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="265"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="283"/>
-      <c r="P22" s="284"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="87"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="248"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="249"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="250"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="254"/>
+      <c r="L22" s="174"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="272"/>
+      <c r="P22" s="273"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="85"/>
       <c r="S22" s="89"/>
       <c r="T22" s="88"/>
-      <c r="U22" s="273"/>
-      <c r="V22" s="274"/>
-      <c r="W22" s="274"/>
-      <c r="X22" s="275"/>
+      <c r="U22" s="278"/>
+      <c r="V22" s="279"/>
+      <c r="W22" s="279"/>
+      <c r="X22" s="280"/>
     </row>
     <row r="23" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A23" s="86"/>
-      <c r="B23" s="259"/>
-      <c r="C23" s="260"/>
-      <c r="D23" s="260"/>
-      <c r="E23" s="260"/>
-      <c r="F23" s="260"/>
-      <c r="G23" s="261"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="265"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="283"/>
-      <c r="P23" s="284"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="87"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="249"/>
+      <c r="E23" s="249"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="254"/>
+      <c r="L23" s="174"/>
+      <c r="M23" s="85"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="272"/>
+      <c r="P23" s="273"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="85"/>
       <c r="S23" s="89"/>
       <c r="T23" s="88"/>
-      <c r="U23" s="273"/>
-      <c r="V23" s="274"/>
-      <c r="W23" s="274"/>
-      <c r="X23" s="275"/>
+      <c r="U23" s="278"/>
+      <c r="V23" s="279"/>
+      <c r="W23" s="279"/>
+      <c r="X23" s="280"/>
     </row>
     <row r="24" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A24" s="86"/>
-      <c r="B24" s="259"/>
-      <c r="C24" s="260"/>
-      <c r="D24" s="260"/>
-      <c r="E24" s="260"/>
-      <c r="F24" s="260"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="265"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="283"/>
-      <c r="P24" s="284"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="87"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="248"/>
+      <c r="C24" s="249"/>
+      <c r="D24" s="249"/>
+      <c r="E24" s="249"/>
+      <c r="F24" s="249"/>
+      <c r="G24" s="250"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="139"/>
+      <c r="K24" s="254"/>
+      <c r="L24" s="174"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="272"/>
+      <c r="P24" s="273"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="85"/>
       <c r="S24" s="89"/>
       <c r="T24" s="88"/>
-      <c r="U24" s="273"/>
-      <c r="V24" s="274"/>
-      <c r="W24" s="274"/>
-      <c r="X24" s="275"/>
+      <c r="U24" s="278"/>
+      <c r="V24" s="279"/>
+      <c r="W24" s="279"/>
+      <c r="X24" s="280"/>
     </row>
     <row r="25" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A25" s="86"/>
-      <c r="B25" s="259"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="260"/>
-      <c r="F25" s="260"/>
-      <c r="G25" s="261"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="265"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="283"/>
-      <c r="P25" s="284"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="87"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="248"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="139"/>
+      <c r="K25" s="254"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="272"/>
+      <c r="P25" s="273"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="85"/>
       <c r="S25" s="89"/>
       <c r="T25" s="88"/>
-      <c r="U25" s="273"/>
-      <c r="V25" s="274"/>
-      <c r="W25" s="274"/>
-      <c r="X25" s="275"/>
+      <c r="U25" s="278"/>
+      <c r="V25" s="279"/>
+      <c r="W25" s="279"/>
+      <c r="X25" s="280"/>
     </row>
     <row r="26" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A26" s="86"/>
-      <c r="B26" s="259"/>
-      <c r="C26" s="260"/>
-      <c r="D26" s="260"/>
-      <c r="E26" s="260"/>
-      <c r="F26" s="260"/>
-      <c r="G26" s="261"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="265"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="283"/>
-      <c r="P26" s="284"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="87"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="248"/>
+      <c r="C26" s="249"/>
+      <c r="D26" s="249"/>
+      <c r="E26" s="249"/>
+      <c r="F26" s="249"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="254"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="85"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="272"/>
+      <c r="P26" s="273"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="85"/>
       <c r="S26" s="89"/>
       <c r="T26" s="88"/>
-      <c r="U26" s="273"/>
-      <c r="V26" s="274"/>
-      <c r="W26" s="274"/>
-      <c r="X26" s="275"/>
+      <c r="U26" s="278"/>
+      <c r="V26" s="279"/>
+      <c r="W26" s="279"/>
+      <c r="X26" s="280"/>
     </row>
     <row r="27" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A27" s="86"/>
-      <c r="B27" s="259"/>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="265"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="87"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="283"/>
-      <c r="P27" s="284"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="87"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="249"/>
+      <c r="D27" s="249"/>
+      <c r="E27" s="249"/>
+      <c r="F27" s="249"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="139"/>
+      <c r="K27" s="254"/>
+      <c r="L27" s="174"/>
+      <c r="M27" s="85"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="272"/>
+      <c r="P27" s="273"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="85"/>
       <c r="S27" s="89"/>
       <c r="T27" s="88"/>
-      <c r="U27" s="273"/>
-      <c r="V27" s="274"/>
-      <c r="W27" s="274"/>
-      <c r="X27" s="275"/>
+      <c r="U27" s="278"/>
+      <c r="V27" s="279"/>
+      <c r="W27" s="279"/>
+      <c r="X27" s="280"/>
     </row>
     <row r="28" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A28" s="86"/>
-      <c r="B28" s="259"/>
-      <c r="C28" s="260"/>
-      <c r="D28" s="260"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="260"/>
-      <c r="G28" s="261"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="265"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="87"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="283"/>
-      <c r="P28" s="284"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="87"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="248"/>
+      <c r="C28" s="249"/>
+      <c r="D28" s="249"/>
+      <c r="E28" s="249"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="254"/>
+      <c r="L28" s="174"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="272"/>
+      <c r="P28" s="273"/>
+      <c r="Q28" s="90"/>
+      <c r="R28" s="85"/>
       <c r="S28" s="89"/>
       <c r="T28" s="88"/>
-      <c r="U28" s="273"/>
-      <c r="V28" s="274"/>
-      <c r="W28" s="274"/>
-      <c r="X28" s="275"/>
+      <c r="U28" s="278"/>
+      <c r="V28" s="279"/>
+      <c r="W28" s="279"/>
+      <c r="X28" s="280"/>
     </row>
     <row r="29" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A29" s="86"/>
-      <c r="B29" s="259"/>
-      <c r="C29" s="260"/>
-      <c r="D29" s="260"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="260"/>
-      <c r="G29" s="261"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="265"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="283"/>
-      <c r="P29" s="284"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="87"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="248"/>
+      <c r="C29" s="249"/>
+      <c r="D29" s="249"/>
+      <c r="E29" s="249"/>
+      <c r="F29" s="249"/>
+      <c r="G29" s="250"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="254"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="272"/>
+      <c r="P29" s="273"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="85"/>
       <c r="S29" s="89"/>
       <c r="T29" s="88"/>
-      <c r="U29" s="273"/>
-      <c r="V29" s="274"/>
-      <c r="W29" s="274"/>
-      <c r="X29" s="275"/>
+      <c r="U29" s="278"/>
+      <c r="V29" s="279"/>
+      <c r="W29" s="279"/>
+      <c r="X29" s="280"/>
     </row>
     <row r="30" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A30" s="86"/>
-      <c r="B30" s="259"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="260"/>
-      <c r="G30" s="261"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="265"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="283"/>
-      <c r="P30" s="284"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="87"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="248"/>
+      <c r="C30" s="249"/>
+      <c r="D30" s="249"/>
+      <c r="E30" s="249"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="254"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="272"/>
+      <c r="P30" s="273"/>
+      <c r="Q30" s="90"/>
+      <c r="R30" s="85"/>
       <c r="S30" s="89"/>
       <c r="T30" s="88"/>
-      <c r="U30" s="273"/>
-      <c r="V30" s="274"/>
-      <c r="W30" s="274"/>
-      <c r="X30" s="275"/>
+      <c r="U30" s="278"/>
+      <c r="V30" s="279"/>
+      <c r="W30" s="279"/>
+      <c r="X30" s="280"/>
     </row>
     <row r="31" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A31" s="86"/>
-      <c r="B31" s="259"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="260"/>
-      <c r="F31" s="260"/>
-      <c r="G31" s="261"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="265"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="283"/>
-      <c r="P31" s="284"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="87"/>
+      <c r="A31" s="84"/>
+      <c r="B31" s="248"/>
+      <c r="C31" s="249"/>
+      <c r="D31" s="249"/>
+      <c r="E31" s="249"/>
+      <c r="F31" s="249"/>
+      <c r="G31" s="250"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="254"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="272"/>
+      <c r="P31" s="273"/>
+      <c r="Q31" s="90"/>
+      <c r="R31" s="85"/>
       <c r="S31" s="89"/>
       <c r="T31" s="88"/>
-      <c r="U31" s="273"/>
-      <c r="V31" s="274"/>
-      <c r="W31" s="274"/>
-      <c r="X31" s="275"/>
+      <c r="U31" s="278"/>
+      <c r="V31" s="279"/>
+      <c r="W31" s="279"/>
+      <c r="X31" s="280"/>
     </row>
     <row r="32" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A32" s="86"/>
-      <c r="B32" s="259"/>
-      <c r="C32" s="260"/>
-      <c r="D32" s="260"/>
-      <c r="E32" s="260"/>
-      <c r="F32" s="260"/>
-      <c r="G32" s="261"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="265"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="283"/>
-      <c r="P32" s="284"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="87"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="248"/>
+      <c r="C32" s="249"/>
+      <c r="D32" s="249"/>
+      <c r="E32" s="249"/>
+      <c r="F32" s="249"/>
+      <c r="G32" s="250"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="254"/>
+      <c r="L32" s="174"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="272"/>
+      <c r="P32" s="273"/>
+      <c r="Q32" s="90"/>
+      <c r="R32" s="85"/>
       <c r="S32" s="89"/>
       <c r="T32" s="88"/>
-      <c r="U32" s="273"/>
-      <c r="V32" s="274"/>
-      <c r="W32" s="274"/>
-      <c r="X32" s="275"/>
+      <c r="U32" s="278"/>
+      <c r="V32" s="279"/>
+      <c r="W32" s="279"/>
+      <c r="X32" s="280"/>
     </row>
     <row r="33" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A33" s="86"/>
-      <c r="B33" s="259"/>
-      <c r="C33" s="260"/>
-      <c r="D33" s="260"/>
-      <c r="E33" s="260"/>
-      <c r="F33" s="260"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="265"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="283"/>
-      <c r="P33" s="284"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="87"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="248"/>
+      <c r="C33" s="249"/>
+      <c r="D33" s="249"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="249"/>
+      <c r="G33" s="250"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="139"/>
+      <c r="K33" s="254"/>
+      <c r="L33" s="174"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="272"/>
+      <c r="P33" s="273"/>
+      <c r="Q33" s="90"/>
+      <c r="R33" s="85"/>
       <c r="S33" s="89"/>
       <c r="T33" s="88"/>
-      <c r="U33" s="273"/>
-      <c r="V33" s="274"/>
-      <c r="W33" s="274"/>
-      <c r="X33" s="275"/>
+      <c r="U33" s="278"/>
+      <c r="V33" s="279"/>
+      <c r="W33" s="279"/>
+      <c r="X33" s="280"/>
     </row>
     <row r="34" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A34" s="86"/>
-      <c r="B34" s="259"/>
-      <c r="C34" s="260"/>
-      <c r="D34" s="260"/>
-      <c r="E34" s="260"/>
-      <c r="F34" s="260"/>
-      <c r="G34" s="261"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="265"/>
-      <c r="L34" s="184"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="283"/>
-      <c r="P34" s="284"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="87"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="248"/>
+      <c r="C34" s="249"/>
+      <c r="D34" s="249"/>
+      <c r="E34" s="249"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="250"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="254"/>
+      <c r="L34" s="174"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="90"/>
+      <c r="O34" s="272"/>
+      <c r="P34" s="273"/>
+      <c r="Q34" s="90"/>
+      <c r="R34" s="85"/>
       <c r="S34" s="89"/>
       <c r="T34" s="88"/>
-      <c r="U34" s="273"/>
-      <c r="V34" s="274"/>
-      <c r="W34" s="274"/>
-      <c r="X34" s="275"/>
+      <c r="U34" s="278"/>
+      <c r="V34" s="279"/>
+      <c r="W34" s="279"/>
+      <c r="X34" s="280"/>
     </row>
     <row r="35" spans="1:24" s="12" customFormat="1" ht="10.8" customHeight="1">
-      <c r="A35" s="86"/>
-      <c r="B35" s="259"/>
-      <c r="C35" s="260"/>
-      <c r="D35" s="260"/>
-      <c r="E35" s="260"/>
-      <c r="F35" s="260"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="265"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="87"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="283"/>
-      <c r="P35" s="284"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="87"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="248"/>
+      <c r="C35" s="249"/>
+      <c r="D35" s="249"/>
+      <c r="E35" s="249"/>
+      <c r="F35" s="249"/>
+      <c r="G35" s="250"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="254"/>
+      <c r="L35" s="174"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="90"/>
+      <c r="O35" s="272"/>
+      <c r="P35" s="273"/>
+      <c r="Q35" s="90"/>
+      <c r="R35" s="85"/>
       <c r="S35" s="89"/>
       <c r="T35" s="88"/>
-      <c r="U35" s="273"/>
-      <c r="V35" s="274"/>
-      <c r="W35" s="274"/>
-      <c r="X35" s="275"/>
+      <c r="U35" s="278"/>
+      <c r="V35" s="279"/>
+      <c r="W35" s="279"/>
+      <c r="X35" s="280"/>
     </row>
     <row r="36" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A36" s="86"/>
-      <c r="B36" s="259"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="260"/>
-      <c r="F36" s="260"/>
-      <c r="G36" s="261"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="265"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="283"/>
-      <c r="P36" s="284"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="87"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="248"/>
+      <c r="C36" s="249"/>
+      <c r="D36" s="249"/>
+      <c r="E36" s="249"/>
+      <c r="F36" s="249"/>
+      <c r="G36" s="250"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="139"/>
+      <c r="K36" s="254"/>
+      <c r="L36" s="174"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="272"/>
+      <c r="P36" s="273"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="85"/>
       <c r="S36" s="89"/>
       <c r="T36" s="88"/>
-      <c r="U36" s="273"/>
-      <c r="V36" s="274"/>
-      <c r="W36" s="274"/>
-      <c r="X36" s="275"/>
+      <c r="U36" s="278"/>
+      <c r="V36" s="279"/>
+      <c r="W36" s="279"/>
+      <c r="X36" s="280"/>
     </row>
     <row r="37" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A37" s="86"/>
-      <c r="B37" s="259"/>
-      <c r="C37" s="260"/>
-      <c r="D37" s="260"/>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="261"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="265"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="87"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="283"/>
-      <c r="P37" s="284"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="87"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="248"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="249"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="250"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="139"/>
+      <c r="K37" s="254"/>
+      <c r="L37" s="174"/>
+      <c r="M37" s="85"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="272"/>
+      <c r="P37" s="273"/>
+      <c r="Q37" s="90"/>
+      <c r="R37" s="85"/>
       <c r="S37" s="89"/>
       <c r="T37" s="88"/>
-      <c r="U37" s="273"/>
-      <c r="V37" s="274"/>
-      <c r="W37" s="274"/>
-      <c r="X37" s="275"/>
+      <c r="U37" s="278"/>
+      <c r="V37" s="279"/>
+      <c r="W37" s="279"/>
+      <c r="X37" s="280"/>
     </row>
     <row r="38" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A38" s="86"/>
-      <c r="B38" s="259"/>
-      <c r="C38" s="260"/>
-      <c r="D38" s="260"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="261"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="265"/>
-      <c r="L38" s="184"/>
-      <c r="M38" s="87"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="283"/>
-      <c r="P38" s="284"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="87"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="248"/>
+      <c r="C38" s="249"/>
+      <c r="D38" s="249"/>
+      <c r="E38" s="249"/>
+      <c r="F38" s="249"/>
+      <c r="G38" s="250"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="139"/>
+      <c r="K38" s="254"/>
+      <c r="L38" s="174"/>
+      <c r="M38" s="85"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="272"/>
+      <c r="P38" s="273"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="85"/>
       <c r="S38" s="89"/>
       <c r="T38" s="88"/>
-      <c r="U38" s="273"/>
-      <c r="V38" s="274"/>
-      <c r="W38" s="274"/>
-      <c r="X38" s="275"/>
+      <c r="U38" s="278"/>
+      <c r="V38" s="279"/>
+      <c r="W38" s="279"/>
+      <c r="X38" s="280"/>
     </row>
     <row r="39" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A39" s="86"/>
-      <c r="B39" s="259"/>
-      <c r="C39" s="260"/>
-      <c r="D39" s="260"/>
-      <c r="E39" s="260"/>
-      <c r="F39" s="260"/>
-      <c r="G39" s="261"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="265"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="87"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="283"/>
-      <c r="P39" s="284"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="87"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="248"/>
+      <c r="C39" s="249"/>
+      <c r="D39" s="249"/>
+      <c r="E39" s="249"/>
+      <c r="F39" s="249"/>
+      <c r="G39" s="250"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="139"/>
+      <c r="K39" s="254"/>
+      <c r="L39" s="174"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="272"/>
+      <c r="P39" s="273"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="85"/>
       <c r="S39" s="89"/>
       <c r="T39" s="88"/>
-      <c r="U39" s="273"/>
-      <c r="V39" s="274"/>
-      <c r="W39" s="274"/>
-      <c r="X39" s="275"/>
+      <c r="U39" s="278"/>
+      <c r="V39" s="279"/>
+      <c r="W39" s="279"/>
+      <c r="X39" s="280"/>
     </row>
     <row r="40" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A40" s="86"/>
-      <c r="B40" s="259"/>
-      <c r="C40" s="260"/>
-      <c r="D40" s="260"/>
-      <c r="E40" s="260"/>
-      <c r="F40" s="260"/>
-      <c r="G40" s="261"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="265"/>
-      <c r="L40" s="184"/>
-      <c r="M40" s="87"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="283"/>
-      <c r="P40" s="284"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="87"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="248"/>
+      <c r="C40" s="249"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="250"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="139"/>
+      <c r="K40" s="254"/>
+      <c r="L40" s="174"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="272"/>
+      <c r="P40" s="273"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="85"/>
       <c r="S40" s="89"/>
       <c r="T40" s="88"/>
-      <c r="U40" s="273"/>
-      <c r="V40" s="274"/>
-      <c r="W40" s="274"/>
-      <c r="X40" s="275"/>
+      <c r="U40" s="278"/>
+      <c r="V40" s="279"/>
+      <c r="W40" s="279"/>
+      <c r="X40" s="280"/>
     </row>
     <row r="41" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A41" s="86"/>
-      <c r="B41" s="259"/>
-      <c r="C41" s="260"/>
-      <c r="D41" s="260"/>
-      <c r="E41" s="260"/>
-      <c r="F41" s="260"/>
-      <c r="G41" s="261"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="87"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="283"/>
-      <c r="P41" s="284"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="87"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="248"/>
+      <c r="C41" s="249"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="250"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="139"/>
+      <c r="K41" s="254"/>
+      <c r="L41" s="174"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="272"/>
+      <c r="P41" s="273"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="85"/>
       <c r="S41" s="89"/>
       <c r="T41" s="88"/>
-      <c r="U41" s="273"/>
-      <c r="V41" s="274"/>
-      <c r="W41" s="274"/>
-      <c r="X41" s="275"/>
+      <c r="U41" s="278"/>
+      <c r="V41" s="279"/>
+      <c r="W41" s="279"/>
+      <c r="X41" s="280"/>
     </row>
     <row r="42" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A42" s="86"/>
-      <c r="B42" s="259"/>
-      <c r="C42" s="260"/>
-      <c r="D42" s="260"/>
-      <c r="E42" s="260"/>
-      <c r="F42" s="260"/>
-      <c r="G42" s="261"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="265"/>
-      <c r="L42" s="184"/>
-      <c r="M42" s="87"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="283"/>
-      <c r="P42" s="284"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="87"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="248"/>
+      <c r="C42" s="249"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="250"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="254"/>
+      <c r="L42" s="174"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="90"/>
+      <c r="O42" s="272"/>
+      <c r="P42" s="273"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="85"/>
       <c r="S42" s="89"/>
       <c r="T42" s="88"/>
-      <c r="U42" s="273"/>
-      <c r="V42" s="274"/>
-      <c r="W42" s="274"/>
-      <c r="X42" s="275"/>
+      <c r="U42" s="278"/>
+      <c r="V42" s="279"/>
+      <c r="W42" s="279"/>
+      <c r="X42" s="280"/>
     </row>
     <row r="43" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A43" s="86"/>
-      <c r="B43" s="259"/>
-      <c r="C43" s="260"/>
-      <c r="D43" s="260"/>
-      <c r="E43" s="260"/>
-      <c r="F43" s="260"/>
-      <c r="G43" s="261"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="265"/>
-      <c r="L43" s="184"/>
-      <c r="M43" s="87"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="283"/>
-      <c r="P43" s="284"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="87"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="248"/>
+      <c r="C43" s="249"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
+      <c r="F43" s="249"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="139"/>
+      <c r="K43" s="254"/>
+      <c r="L43" s="174"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="90"/>
+      <c r="O43" s="272"/>
+      <c r="P43" s="273"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="85"/>
       <c r="S43" s="89"/>
       <c r="T43" s="88"/>
-      <c r="U43" s="273"/>
-      <c r="V43" s="274"/>
-      <c r="W43" s="274"/>
-      <c r="X43" s="275"/>
+      <c r="U43" s="278"/>
+      <c r="V43" s="279"/>
+      <c r="W43" s="279"/>
+      <c r="X43" s="280"/>
     </row>
     <row r="44" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A44" s="86"/>
-      <c r="B44" s="259"/>
-      <c r="C44" s="260"/>
-      <c r="D44" s="260"/>
-      <c r="E44" s="260"/>
-      <c r="F44" s="260"/>
-      <c r="G44" s="261"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="149"/>
-      <c r="K44" s="265"/>
-      <c r="L44" s="184"/>
-      <c r="M44" s="87"/>
-      <c r="N44" s="91"/>
-      <c r="O44" s="283"/>
-      <c r="P44" s="284"/>
-      <c r="Q44" s="91"/>
-      <c r="R44" s="87"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="248"/>
+      <c r="C44" s="249"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="249"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="139"/>
+      <c r="K44" s="254"/>
+      <c r="L44" s="174"/>
+      <c r="M44" s="85"/>
+      <c r="N44" s="90"/>
+      <c r="O44" s="272"/>
+      <c r="P44" s="273"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="85"/>
       <c r="S44" s="89"/>
       <c r="T44" s="88"/>
-      <c r="U44" s="273"/>
-      <c r="V44" s="274"/>
-      <c r="W44" s="274"/>
-      <c r="X44" s="275"/>
+      <c r="U44" s="278"/>
+      <c r="V44" s="279"/>
+      <c r="W44" s="279"/>
+      <c r="X44" s="280"/>
     </row>
     <row r="45" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A45" s="86"/>
-      <c r="B45" s="259"/>
-      <c r="C45" s="260"/>
-      <c r="D45" s="260"/>
-      <c r="E45" s="260"/>
-      <c r="F45" s="260"/>
-      <c r="G45" s="261"/>
-      <c r="H45" s="114"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="149"/>
-      <c r="K45" s="265"/>
-      <c r="L45" s="184"/>
-      <c r="M45" s="87"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="283"/>
-      <c r="P45" s="284"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="87"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="248"/>
+      <c r="C45" s="249"/>
+      <c r="D45" s="249"/>
+      <c r="E45" s="249"/>
+      <c r="F45" s="249"/>
+      <c r="G45" s="250"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="139"/>
+      <c r="K45" s="254"/>
+      <c r="L45" s="174"/>
+      <c r="M45" s="85"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="272"/>
+      <c r="P45" s="273"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="85"/>
       <c r="S45" s="89"/>
       <c r="T45" s="88"/>
-      <c r="U45" s="273"/>
-      <c r="V45" s="274"/>
-      <c r="W45" s="274"/>
-      <c r="X45" s="275"/>
+      <c r="U45" s="278"/>
+      <c r="V45" s="279"/>
+      <c r="W45" s="279"/>
+      <c r="X45" s="280"/>
     </row>
     <row r="46" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A46" s="86"/>
-      <c r="B46" s="259"/>
-      <c r="C46" s="260"/>
-      <c r="D46" s="260"/>
-      <c r="E46" s="260"/>
-      <c r="F46" s="260"/>
-      <c r="G46" s="261"/>
-      <c r="H46" s="114"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="149"/>
-      <c r="K46" s="265"/>
-      <c r="L46" s="184"/>
-      <c r="M46" s="87"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="283"/>
-      <c r="P46" s="284"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="87"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="248"/>
+      <c r="C46" s="249"/>
+      <c r="D46" s="249"/>
+      <c r="E46" s="249"/>
+      <c r="F46" s="249"/>
+      <c r="G46" s="250"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="139"/>
+      <c r="K46" s="254"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="85"/>
+      <c r="N46" s="90"/>
+      <c r="O46" s="272"/>
+      <c r="P46" s="273"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="85"/>
       <c r="S46" s="89"/>
       <c r="T46" s="88"/>
-      <c r="U46" s="273"/>
-      <c r="V46" s="274"/>
-      <c r="W46" s="274"/>
-      <c r="X46" s="275"/>
+      <c r="U46" s="278"/>
+      <c r="V46" s="279"/>
+      <c r="W46" s="279"/>
+      <c r="X46" s="280"/>
     </row>
     <row r="47" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A47" s="86"/>
-      <c r="B47" s="259"/>
-      <c r="C47" s="260"/>
-      <c r="D47" s="260"/>
-      <c r="E47" s="260"/>
-      <c r="F47" s="260"/>
-      <c r="G47" s="261"/>
-      <c r="H47" s="114"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="184"/>
-      <c r="M47" s="87"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="283"/>
-      <c r="P47" s="284"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="87"/>
+      <c r="A47" s="84"/>
+      <c r="B47" s="248"/>
+      <c r="C47" s="249"/>
+      <c r="D47" s="249"/>
+      <c r="E47" s="249"/>
+      <c r="F47" s="249"/>
+      <c r="G47" s="250"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="139"/>
+      <c r="K47" s="254"/>
+      <c r="L47" s="174"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="90"/>
+      <c r="O47" s="272"/>
+      <c r="P47" s="273"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="85"/>
       <c r="S47" s="89"/>
       <c r="T47" s="88"/>
-      <c r="U47" s="273"/>
-      <c r="V47" s="274"/>
-      <c r="W47" s="274"/>
-      <c r="X47" s="275"/>
+      <c r="U47" s="278"/>
+      <c r="V47" s="279"/>
+      <c r="W47" s="279"/>
+      <c r="X47" s="280"/>
     </row>
     <row r="48" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
       <c r="A48" s="13"/>
-      <c r="B48" s="280"/>
-      <c r="C48" s="281"/>
-      <c r="D48" s="281"/>
-      <c r="E48" s="281"/>
-      <c r="F48" s="281"/>
-      <c r="G48" s="282"/>
-      <c r="H48" s="256"/>
-      <c r="I48" s="257"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="285"/>
-      <c r="L48" s="286"/>
+      <c r="B48" s="269"/>
+      <c r="C48" s="270"/>
+      <c r="D48" s="270"/>
+      <c r="E48" s="270"/>
+      <c r="F48" s="270"/>
+      <c r="G48" s="271"/>
+      <c r="H48" s="246"/>
+      <c r="I48" s="247"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="274"/>
+      <c r="L48" s="275"/>
       <c r="M48" s="14"/>
-      <c r="N48" s="270"/>
-      <c r="O48" s="287"/>
-      <c r="P48" s="288"/>
-      <c r="Q48" s="270"/>
+      <c r="N48" s="259"/>
+      <c r="O48" s="276"/>
+      <c r="P48" s="277"/>
+      <c r="Q48" s="259"/>
       <c r="R48" s="14"/>
-      <c r="S48" s="93"/>
+      <c r="S48" s="92"/>
       <c r="T48" s="15"/>
-      <c r="U48" s="276"/>
-      <c r="V48" s="277"/>
-      <c r="W48" s="277"/>
-      <c r="X48" s="278"/>
+      <c r="U48" s="281"/>
+      <c r="V48" s="282"/>
+      <c r="W48" s="282"/>
+      <c r="X48" s="283"/>
     </row>
     <row r="49" spans="1:24" s="12" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A49" s="105"/>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="106"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="106"/>
-      <c r="K49" s="106"/>
-      <c r="L49" s="106"/>
-      <c r="M49" s="106"/>
-      <c r="N49" s="106"/>
-      <c r="O49" s="106"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="106"/>
-      <c r="R49" s="106"/>
-      <c r="S49" s="106"/>
-      <c r="T49" s="106"/>
-      <c r="U49" s="107" t="s">
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
+      <c r="K49" s="105"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="105"/>
+      <c r="R49" s="105"/>
+      <c r="S49" s="105"/>
+      <c r="T49" s="105"/>
+      <c r="U49" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="V49" s="107"/>
-      <c r="W49" s="108" t="s">
+      <c r="V49" s="106"/>
+      <c r="W49" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="X49" s="108"/>
+      <c r="X49" s="107"/>
     </row>
     <row r="50" spans="1:24" s="12" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A50" s="109" t="s">
+      <c r="A50" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="109"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="110"/>
-      <c r="H50" s="109" t="s">
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="I50" s="109"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="131"/>
-      <c r="L50" s="131"/>
-      <c r="M50" s="131"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="121"/>
+      <c r="K50" s="121"/>
+      <c r="L50" s="121"/>
+      <c r="M50" s="121"/>
       <c r="N50" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O50" s="132"/>
-      <c r="P50" s="132"/>
-      <c r="Q50" s="132"/>
-      <c r="R50" s="84" t="s">
+      <c r="O50" s="122"/>
+      <c r="P50" s="122"/>
+      <c r="Q50" s="122"/>
+      <c r="R50" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="S50" s="84"/>
+      <c r="S50" s="82"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="123" t="s">
+      <c r="U50" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="V50" s="123"/>
-      <c r="W50" s="124"/>
-      <c r="X50" s="124"/>
+      <c r="V50" s="113"/>
+      <c r="W50" s="114"/>
+      <c r="X50" s="114"/>
     </row>
     <row r="51" spans="1:24" s="12" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="125" t="s">
+      <c r="B51" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="126"/>
-      <c r="H51" s="125" t="s">
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="I51" s="126"/>
-      <c r="J51" s="197" t="s">
+      <c r="I51" s="116"/>
+      <c r="J51" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="K51" s="99"/>
-      <c r="L51" s="100"/>
-      <c r="M51" s="96" t="s">
+      <c r="K51" s="98"/>
+      <c r="L51" s="99"/>
+      <c r="M51" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="97"/>
-      <c r="O51" s="98" t="s">
+      <c r="N51" s="96"/>
+      <c r="O51" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="P51" s="99"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="96" t="s">
+      <c r="P51" s="98"/>
+      <c r="Q51" s="99"/>
+      <c r="R51" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="S51" s="101"/>
-      <c r="T51" s="97"/>
-      <c r="U51" s="98" t="s">
+      <c r="S51" s="100"/>
+      <c r="T51" s="96"/>
+      <c r="U51" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="V51" s="99"/>
-      <c r="W51" s="99"/>
-      <c r="X51" s="100"/>
+      <c r="V51" s="98"/>
+      <c r="W51" s="98"/>
+      <c r="X51" s="99"/>
     </row>
     <row r="52" spans="1:24" s="12" customFormat="1" ht="16.2" customHeight="1">
-      <c r="A52" s="95"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="130"/>
-      <c r="D52" s="130"/>
-      <c r="E52" s="130"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="128"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="128"/>
-      <c r="J52" s="255" t="s">
+      <c r="A52" s="94"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="245" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="103"/>
-      <c r="L52" s="104"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="103"/>
       <c r="M52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="N52" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O52" s="102" t="s">
+      <c r="O52" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="122"/>
+      <c r="P52" s="112"/>
       <c r="Q52" s="7" t="s">
         <v>11</v>
       </c>
@@ -5869,399 +5881,399 @@
       <c r="T52" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="U52" s="102"/>
-      <c r="V52" s="103"/>
-      <c r="W52" s="103"/>
-      <c r="X52" s="104"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="102"/>
+      <c r="W52" s="102"/>
+      <c r="X52" s="103"/>
     </row>
     <row r="53" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A53" s="86"/>
-      <c r="B53" s="116"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="118"/>
-      <c r="H53" s="114"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="119"/>
-      <c r="K53" s="120"/>
-      <c r="L53" s="121"/>
-      <c r="M53" s="90"/>
-      <c r="N53" s="91"/>
-      <c r="O53" s="258"/>
-      <c r="P53" s="115"/>
-      <c r="Q53" s="91"/>
-      <c r="R53" s="90"/>
-      <c r="S53" s="89"/>
-      <c r="T53" s="88"/>
-      <c r="U53" s="111"/>
-      <c r="V53" s="112"/>
-      <c r="W53" s="112"/>
-      <c r="X53" s="113"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="248"/>
+      <c r="C53" s="249"/>
+      <c r="D53" s="249"/>
+      <c r="E53" s="249"/>
+      <c r="F53" s="249"/>
+      <c r="G53" s="250"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="284"/>
+      <c r="K53" s="285"/>
+      <c r="L53" s="286"/>
+      <c r="M53" s="287"/>
+      <c r="N53" s="86"/>
+      <c r="O53" s="288"/>
+      <c r="P53" s="289"/>
+      <c r="Q53" s="86"/>
+      <c r="R53" s="287"/>
+      <c r="S53" s="87"/>
+      <c r="T53" s="290"/>
+      <c r="U53" s="262"/>
+      <c r="V53" s="263"/>
+      <c r="W53" s="263"/>
+      <c r="X53" s="264"/>
     </row>
     <row r="54" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A54" s="86"/>
-      <c r="B54" s="116"/>
-      <c r="C54" s="117"/>
-      <c r="D54" s="117"/>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="118"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="120"/>
-      <c r="L54" s="121"/>
-      <c r="M54" s="90"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="258"/>
-      <c r="P54" s="115"/>
-      <c r="Q54" s="91"/>
-      <c r="R54" s="90"/>
-      <c r="S54" s="89"/>
-      <c r="T54" s="88"/>
-      <c r="U54" s="111"/>
-      <c r="V54" s="112"/>
-      <c r="W54" s="112"/>
-      <c r="X54" s="113"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="248"/>
+      <c r="C54" s="249"/>
+      <c r="D54" s="249"/>
+      <c r="E54" s="249"/>
+      <c r="F54" s="249"/>
+      <c r="G54" s="250"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="284"/>
+      <c r="K54" s="285"/>
+      <c r="L54" s="286"/>
+      <c r="M54" s="287"/>
+      <c r="N54" s="86"/>
+      <c r="O54" s="288"/>
+      <c r="P54" s="289"/>
+      <c r="Q54" s="86"/>
+      <c r="R54" s="287"/>
+      <c r="S54" s="87"/>
+      <c r="T54" s="290"/>
+      <c r="U54" s="262"/>
+      <c r="V54" s="263"/>
+      <c r="W54" s="263"/>
+      <c r="X54" s="264"/>
     </row>
     <row r="55" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A55" s="86"/>
-      <c r="B55" s="116"/>
-      <c r="C55" s="117"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="119"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="121"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="91"/>
-      <c r="O55" s="258"/>
-      <c r="P55" s="115"/>
-      <c r="Q55" s="91"/>
-      <c r="R55" s="90"/>
-      <c r="S55" s="89"/>
-      <c r="T55" s="88"/>
-      <c r="U55" s="111"/>
-      <c r="V55" s="112"/>
-      <c r="W55" s="112"/>
-      <c r="X55" s="113"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="248"/>
+      <c r="C55" s="249"/>
+      <c r="D55" s="249"/>
+      <c r="E55" s="249"/>
+      <c r="F55" s="249"/>
+      <c r="G55" s="250"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="284"/>
+      <c r="K55" s="285"/>
+      <c r="L55" s="286"/>
+      <c r="M55" s="287"/>
+      <c r="N55" s="86"/>
+      <c r="O55" s="288"/>
+      <c r="P55" s="289"/>
+      <c r="Q55" s="86"/>
+      <c r="R55" s="287"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="290"/>
+      <c r="U55" s="262"/>
+      <c r="V55" s="263"/>
+      <c r="W55" s="263"/>
+      <c r="X55" s="264"/>
     </row>
     <row r="56" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A56" s="86"/>
-      <c r="B56" s="116"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="114"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="121"/>
-      <c r="M56" s="90"/>
-      <c r="N56" s="91"/>
-      <c r="O56" s="258"/>
-      <c r="P56" s="115"/>
-      <c r="Q56" s="91"/>
-      <c r="R56" s="90"/>
-      <c r="S56" s="89"/>
-      <c r="T56" s="88"/>
-      <c r="U56" s="111"/>
-      <c r="V56" s="112"/>
-      <c r="W56" s="112"/>
-      <c r="X56" s="113"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="248"/>
+      <c r="C56" s="249"/>
+      <c r="D56" s="249"/>
+      <c r="E56" s="249"/>
+      <c r="F56" s="249"/>
+      <c r="G56" s="250"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="284"/>
+      <c r="K56" s="285"/>
+      <c r="L56" s="286"/>
+      <c r="M56" s="287"/>
+      <c r="N56" s="86"/>
+      <c r="O56" s="288"/>
+      <c r="P56" s="289"/>
+      <c r="Q56" s="86"/>
+      <c r="R56" s="287"/>
+      <c r="S56" s="87"/>
+      <c r="T56" s="290"/>
+      <c r="U56" s="262"/>
+      <c r="V56" s="263"/>
+      <c r="W56" s="263"/>
+      <c r="X56" s="264"/>
     </row>
     <row r="57" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A57" s="86"/>
-      <c r="B57" s="116"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="114"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="119"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="121"/>
-      <c r="M57" s="90"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="258"/>
-      <c r="P57" s="115"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="90"/>
-      <c r="S57" s="89"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="111"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
-      <c r="X57" s="113"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="248"/>
+      <c r="C57" s="249"/>
+      <c r="D57" s="249"/>
+      <c r="E57" s="249"/>
+      <c r="F57" s="249"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="284"/>
+      <c r="K57" s="285"/>
+      <c r="L57" s="286"/>
+      <c r="M57" s="287"/>
+      <c r="N57" s="86"/>
+      <c r="O57" s="288"/>
+      <c r="P57" s="289"/>
+      <c r="Q57" s="86"/>
+      <c r="R57" s="287"/>
+      <c r="S57" s="87"/>
+      <c r="T57" s="290"/>
+      <c r="U57" s="262"/>
+      <c r="V57" s="263"/>
+      <c r="W57" s="263"/>
+      <c r="X57" s="264"/>
     </row>
     <row r="58" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A58" s="86"/>
-      <c r="B58" s="116"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="114"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="119"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="90"/>
-      <c r="N58" s="91"/>
-      <c r="O58" s="258"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="91"/>
-      <c r="R58" s="90"/>
-      <c r="S58" s="89"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="111"/>
-      <c r="V58" s="112"/>
-      <c r="W58" s="112"/>
-      <c r="X58" s="113"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="248"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="249"/>
+      <c r="E58" s="249"/>
+      <c r="F58" s="249"/>
+      <c r="G58" s="250"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="284"/>
+      <c r="K58" s="285"/>
+      <c r="L58" s="286"/>
+      <c r="M58" s="287"/>
+      <c r="N58" s="86"/>
+      <c r="O58" s="288"/>
+      <c r="P58" s="289"/>
+      <c r="Q58" s="86"/>
+      <c r="R58" s="287"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="290"/>
+      <c r="U58" s="262"/>
+      <c r="V58" s="263"/>
+      <c r="W58" s="263"/>
+      <c r="X58" s="264"/>
     </row>
     <row r="59" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A59" s="86"/>
-      <c r="B59" s="116"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="119"/>
-      <c r="K59" s="120"/>
-      <c r="L59" s="121"/>
-      <c r="M59" s="90"/>
-      <c r="N59" s="91"/>
-      <c r="O59" s="258"/>
-      <c r="P59" s="115"/>
-      <c r="Q59" s="91"/>
-      <c r="R59" s="90"/>
-      <c r="S59" s="89"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="111"/>
-      <c r="V59" s="112"/>
-      <c r="W59" s="112"/>
-      <c r="X59" s="113"/>
+      <c r="A59" s="84"/>
+      <c r="B59" s="248"/>
+      <c r="C59" s="249"/>
+      <c r="D59" s="249"/>
+      <c r="E59" s="249"/>
+      <c r="F59" s="249"/>
+      <c r="G59" s="250"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="284"/>
+      <c r="K59" s="285"/>
+      <c r="L59" s="286"/>
+      <c r="M59" s="287"/>
+      <c r="N59" s="86"/>
+      <c r="O59" s="288"/>
+      <c r="P59" s="289"/>
+      <c r="Q59" s="86"/>
+      <c r="R59" s="287"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="290"/>
+      <c r="U59" s="262"/>
+      <c r="V59" s="263"/>
+      <c r="W59" s="263"/>
+      <c r="X59" s="264"/>
     </row>
     <row r="60" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A60" s="86"/>
-      <c r="B60" s="116"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="118"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="120"/>
-      <c r="L60" s="121"/>
-      <c r="M60" s="90"/>
-      <c r="N60" s="91"/>
-      <c r="O60" s="258"/>
-      <c r="P60" s="115"/>
-      <c r="Q60" s="91"/>
-      <c r="R60" s="90"/>
-      <c r="S60" s="89"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="111"/>
-      <c r="V60" s="112"/>
-      <c r="W60" s="112"/>
-      <c r="X60" s="113"/>
+      <c r="A60" s="84"/>
+      <c r="B60" s="248"/>
+      <c r="C60" s="249"/>
+      <c r="D60" s="249"/>
+      <c r="E60" s="249"/>
+      <c r="F60" s="249"/>
+      <c r="G60" s="250"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="284"/>
+      <c r="K60" s="285"/>
+      <c r="L60" s="286"/>
+      <c r="M60" s="287"/>
+      <c r="N60" s="86"/>
+      <c r="O60" s="288"/>
+      <c r="P60" s="289"/>
+      <c r="Q60" s="86"/>
+      <c r="R60" s="287"/>
+      <c r="S60" s="87"/>
+      <c r="T60" s="290"/>
+      <c r="U60" s="262"/>
+      <c r="V60" s="263"/>
+      <c r="W60" s="263"/>
+      <c r="X60" s="264"/>
     </row>
     <row r="61" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A61" s="86"/>
-      <c r="B61" s="116"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="117"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="118"/>
-      <c r="H61" s="114"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="119"/>
-      <c r="K61" s="120"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="90"/>
-      <c r="N61" s="91"/>
-      <c r="O61" s="258"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="91"/>
-      <c r="R61" s="90"/>
-      <c r="S61" s="89"/>
-      <c r="T61" s="88"/>
-      <c r="U61" s="111"/>
-      <c r="V61" s="112"/>
-      <c r="W61" s="112"/>
-      <c r="X61" s="113"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="248"/>
+      <c r="C61" s="249"/>
+      <c r="D61" s="249"/>
+      <c r="E61" s="249"/>
+      <c r="F61" s="249"/>
+      <c r="G61" s="250"/>
+      <c r="H61" s="110"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="284"/>
+      <c r="K61" s="285"/>
+      <c r="L61" s="286"/>
+      <c r="M61" s="287"/>
+      <c r="N61" s="86"/>
+      <c r="O61" s="288"/>
+      <c r="P61" s="289"/>
+      <c r="Q61" s="86"/>
+      <c r="R61" s="287"/>
+      <c r="S61" s="87"/>
+      <c r="T61" s="290"/>
+      <c r="U61" s="262"/>
+      <c r="V61" s="263"/>
+      <c r="W61" s="263"/>
+      <c r="X61" s="264"/>
     </row>
     <row r="62" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A62" s="86"/>
-      <c r="B62" s="116"/>
-      <c r="C62" s="117"/>
-      <c r="D62" s="117"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="118"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="120"/>
-      <c r="L62" s="121"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="91"/>
-      <c r="O62" s="258"/>
-      <c r="P62" s="115"/>
-      <c r="Q62" s="91"/>
-      <c r="R62" s="90"/>
-      <c r="S62" s="89"/>
-      <c r="T62" s="88"/>
-      <c r="U62" s="111"/>
-      <c r="V62" s="112"/>
-      <c r="W62" s="112"/>
-      <c r="X62" s="113"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="248"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="249"/>
+      <c r="E62" s="249"/>
+      <c r="F62" s="249"/>
+      <c r="G62" s="250"/>
+      <c r="H62" s="110"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="284"/>
+      <c r="K62" s="285"/>
+      <c r="L62" s="286"/>
+      <c r="M62" s="287"/>
+      <c r="N62" s="86"/>
+      <c r="O62" s="288"/>
+      <c r="P62" s="289"/>
+      <c r="Q62" s="86"/>
+      <c r="R62" s="287"/>
+      <c r="S62" s="87"/>
+      <c r="T62" s="290"/>
+      <c r="U62" s="262"/>
+      <c r="V62" s="263"/>
+      <c r="W62" s="263"/>
+      <c r="X62" s="264"/>
     </row>
     <row r="63" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A63" s="86"/>
-      <c r="B63" s="116"/>
-      <c r="C63" s="117"/>
-      <c r="D63" s="117"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="118"/>
-      <c r="H63" s="114"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="119"/>
-      <c r="K63" s="120"/>
-      <c r="L63" s="121"/>
-      <c r="M63" s="90"/>
-      <c r="N63" s="91"/>
-      <c r="O63" s="258"/>
-      <c r="P63" s="115"/>
-      <c r="Q63" s="91"/>
-      <c r="R63" s="90"/>
-      <c r="S63" s="89"/>
-      <c r="T63" s="88"/>
-      <c r="U63" s="111"/>
-      <c r="V63" s="112"/>
-      <c r="W63" s="112"/>
-      <c r="X63" s="113"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="248"/>
+      <c r="C63" s="249"/>
+      <c r="D63" s="249"/>
+      <c r="E63" s="249"/>
+      <c r="F63" s="249"/>
+      <c r="G63" s="250"/>
+      <c r="H63" s="110"/>
+      <c r="I63" s="111"/>
+      <c r="J63" s="284"/>
+      <c r="K63" s="285"/>
+      <c r="L63" s="286"/>
+      <c r="M63" s="287"/>
+      <c r="N63" s="86"/>
+      <c r="O63" s="288"/>
+      <c r="P63" s="289"/>
+      <c r="Q63" s="86"/>
+      <c r="R63" s="287"/>
+      <c r="S63" s="87"/>
+      <c r="T63" s="290"/>
+      <c r="U63" s="262"/>
+      <c r="V63" s="263"/>
+      <c r="W63" s="263"/>
+      <c r="X63" s="264"/>
     </row>
     <row r="64" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A64" s="86"/>
-      <c r="B64" s="116"/>
-      <c r="C64" s="117"/>
-      <c r="D64" s="117"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="118"/>
-      <c r="H64" s="114"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="119"/>
-      <c r="K64" s="120"/>
-      <c r="L64" s="121"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="91"/>
-      <c r="O64" s="258"/>
-      <c r="P64" s="115"/>
-      <c r="Q64" s="91"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="89"/>
-      <c r="T64" s="88"/>
-      <c r="U64" s="111"/>
-      <c r="V64" s="112"/>
-      <c r="W64" s="112"/>
-      <c r="X64" s="113"/>
+      <c r="A64" s="84"/>
+      <c r="B64" s="248"/>
+      <c r="C64" s="249"/>
+      <c r="D64" s="249"/>
+      <c r="E64" s="249"/>
+      <c r="F64" s="249"/>
+      <c r="G64" s="250"/>
+      <c r="H64" s="110"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="284"/>
+      <c r="K64" s="285"/>
+      <c r="L64" s="286"/>
+      <c r="M64" s="287"/>
+      <c r="N64" s="86"/>
+      <c r="O64" s="288"/>
+      <c r="P64" s="289"/>
+      <c r="Q64" s="86"/>
+      <c r="R64" s="287"/>
+      <c r="S64" s="87"/>
+      <c r="T64" s="290"/>
+      <c r="U64" s="262"/>
+      <c r="V64" s="263"/>
+      <c r="W64" s="263"/>
+      <c r="X64" s="264"/>
     </row>
     <row r="65" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A65" s="86"/>
-      <c r="B65" s="116"/>
-      <c r="C65" s="117"/>
-      <c r="D65" s="117"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="118"/>
-      <c r="H65" s="114"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="119"/>
-      <c r="K65" s="120"/>
-      <c r="L65" s="121"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="91"/>
-      <c r="O65" s="258"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="91"/>
-      <c r="R65" s="90"/>
-      <c r="S65" s="89"/>
-      <c r="T65" s="88"/>
-      <c r="U65" s="111"/>
-      <c r="V65" s="112"/>
-      <c r="W65" s="112"/>
-      <c r="X65" s="113"/>
+      <c r="A65" s="84"/>
+      <c r="B65" s="248"/>
+      <c r="C65" s="249"/>
+      <c r="D65" s="249"/>
+      <c r="E65" s="249"/>
+      <c r="F65" s="249"/>
+      <c r="G65" s="250"/>
+      <c r="H65" s="110"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="284"/>
+      <c r="K65" s="285"/>
+      <c r="L65" s="286"/>
+      <c r="M65" s="287"/>
+      <c r="N65" s="86"/>
+      <c r="O65" s="288"/>
+      <c r="P65" s="289"/>
+      <c r="Q65" s="86"/>
+      <c r="R65" s="287"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="290"/>
+      <c r="U65" s="262"/>
+      <c r="V65" s="263"/>
+      <c r="W65" s="263"/>
+      <c r="X65" s="264"/>
     </row>
     <row r="66" spans="1:24" s="12" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A66" s="86"/>
-      <c r="B66" s="116"/>
-      <c r="C66" s="117"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="118"/>
-      <c r="H66" s="114"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="119"/>
-      <c r="K66" s="120"/>
-      <c r="L66" s="121"/>
-      <c r="M66" s="90"/>
-      <c r="N66" s="91"/>
-      <c r="O66" s="258"/>
-      <c r="P66" s="115"/>
-      <c r="Q66" s="91"/>
-      <c r="R66" s="90"/>
-      <c r="S66" s="89"/>
-      <c r="T66" s="88"/>
-      <c r="U66" s="111"/>
-      <c r="V66" s="112"/>
-      <c r="W66" s="112"/>
-      <c r="X66" s="113"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="248"/>
+      <c r="C66" s="249"/>
+      <c r="D66" s="249"/>
+      <c r="E66" s="249"/>
+      <c r="F66" s="249"/>
+      <c r="G66" s="250"/>
+      <c r="H66" s="110"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="284"/>
+      <c r="K66" s="285"/>
+      <c r="L66" s="286"/>
+      <c r="M66" s="287"/>
+      <c r="N66" s="86"/>
+      <c r="O66" s="288"/>
+      <c r="P66" s="289"/>
+      <c r="Q66" s="86"/>
+      <c r="R66" s="287"/>
+      <c r="S66" s="87"/>
+      <c r="T66" s="290"/>
+      <c r="U66" s="262"/>
+      <c r="V66" s="263"/>
+      <c r="W66" s="263"/>
+      <c r="X66" s="264"/>
     </row>
     <row r="67" spans="1:24" s="25" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A67" s="133" t="s">
+      <c r="A67" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="134"/>
-      <c r="C67" s="135"/>
+      <c r="B67" s="124"/>
+      <c r="C67" s="125"/>
       <c r="D67" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E67" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="136" t="s">
+      <c r="F67" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="G67" s="135"/>
-      <c r="H67" s="136" t="s">
+      <c r="G67" s="125"/>
+      <c r="H67" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="135"/>
-      <c r="J67" s="136" t="s">
+      <c r="I67" s="125"/>
+      <c r="J67" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="135"/>
+      <c r="K67" s="125"/>
       <c r="L67" s="21" t="s">
         <v>19</v>
       </c>
@@ -6271,10 +6283,10 @@
       <c r="N67" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="O67" s="136" t="s">
+      <c r="O67" s="126" t="s">
         <v>22</v>
       </c>
-      <c r="P67" s="135"/>
+      <c r="P67" s="125"/>
       <c r="Q67" s="21" t="s">
         <v>23</v>
       </c>
@@ -6284,11 +6296,11 @@
       <c r="S67" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="T67" s="137" t="s">
+      <c r="T67" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="U67" s="138"/>
-      <c r="V67" s="139"/>
+      <c r="U67" s="128"/>
+      <c r="V67" s="129"/>
       <c r="W67" s="23" t="s">
         <v>27</v>
       </c>
@@ -6297,86 +6309,86 @@
       </c>
     </row>
     <row r="68" spans="1:24" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A68" s="145" t="s">
+      <c r="A68" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B68" s="146"/>
-      <c r="C68" s="147"/>
+      <c r="B68" s="136"/>
+      <c r="C68" s="137"/>
       <c r="D68" s="9"/>
       <c r="E68" s="26"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
-      <c r="J68" s="148"/>
-      <c r="K68" s="148"/>
+      <c r="F68" s="138"/>
+      <c r="G68" s="138"/>
+      <c r="H68" s="138"/>
+      <c r="I68" s="138"/>
+      <c r="J68" s="138"/>
+      <c r="K68" s="138"/>
       <c r="L68" s="26"/>
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
-      <c r="O68" s="149"/>
-      <c r="P68" s="150"/>
+      <c r="O68" s="139"/>
+      <c r="P68" s="140"/>
       <c r="Q68" s="26"/>
       <c r="R68" s="26"/>
       <c r="S68" s="9"/>
-      <c r="T68" s="151"/>
-      <c r="U68" s="152"/>
-      <c r="V68" s="153"/>
+      <c r="T68" s="141"/>
+      <c r="U68" s="142"/>
+      <c r="V68" s="143"/>
       <c r="W68" s="27"/>
       <c r="X68" s="28"/>
     </row>
     <row r="69" spans="1:24" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A69" s="145" t="s">
+      <c r="A69" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="B69" s="146"/>
-      <c r="C69" s="147"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="137"/>
       <c r="D69" s="9"/>
       <c r="E69" s="26"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
-      <c r="J69" s="148"/>
-      <c r="K69" s="148"/>
+      <c r="F69" s="138"/>
+      <c r="G69" s="138"/>
+      <c r="H69" s="138"/>
+      <c r="I69" s="138"/>
+      <c r="J69" s="138"/>
+      <c r="K69" s="138"/>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
       <c r="N69" s="26"/>
-      <c r="O69" s="149"/>
-      <c r="P69" s="150"/>
+      <c r="O69" s="139"/>
+      <c r="P69" s="140"/>
       <c r="Q69" s="26"/>
       <c r="R69" s="26"/>
       <c r="S69" s="9"/>
-      <c r="T69" s="151"/>
-      <c r="U69" s="152"/>
-      <c r="V69" s="153"/>
+      <c r="T69" s="141"/>
+      <c r="U69" s="142"/>
+      <c r="V69" s="143"/>
       <c r="W69" s="27"/>
       <c r="X69" s="28"/>
     </row>
     <row r="70" spans="1:24" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A70" s="161" t="s">
+      <c r="A70" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="B70" s="162"/>
-      <c r="C70" s="163"/>
+      <c r="B70" s="152"/>
+      <c r="C70" s="153"/>
       <c r="D70" s="29"/>
       <c r="E70" s="30"/>
-      <c r="F70" s="164"/>
-      <c r="G70" s="164"/>
-      <c r="H70" s="164"/>
-      <c r="I70" s="164"/>
-      <c r="J70" s="164"/>
-      <c r="K70" s="164"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="154"/>
+      <c r="H70" s="154"/>
+      <c r="I70" s="154"/>
+      <c r="J70" s="154"/>
+      <c r="K70" s="154"/>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
       <c r="N70" s="30"/>
-      <c r="O70" s="165"/>
-      <c r="P70" s="166"/>
+      <c r="O70" s="155"/>
+      <c r="P70" s="156"/>
       <c r="Q70" s="30"/>
       <c r="R70" s="30"/>
       <c r="S70" s="29"/>
-      <c r="T70" s="167"/>
-      <c r="U70" s="168"/>
-      <c r="V70" s="169"/>
+      <c r="T70" s="157"/>
+      <c r="U70" s="158"/>
+      <c r="V70" s="159"/>
       <c r="W70" s="31"/>
       <c r="X70" s="32"/>
     </row>
@@ -6399,12 +6411,12 @@
       <c r="P71" s="34"/>
       <c r="Q71" s="34"/>
       <c r="R71" s="34"/>
-      <c r="S71" s="154"/>
-      <c r="T71" s="154"/>
+      <c r="S71" s="144"/>
+      <c r="T71" s="144"/>
       <c r="U71" s="35"/>
-      <c r="V71" s="155"/>
-      <c r="W71" s="155"/>
-      <c r="X71" s="156"/>
+      <c r="V71" s="145"/>
+      <c r="W71" s="145"/>
+      <c r="X71" s="146"/>
     </row>
     <row r="72" spans="1:24" s="25" customFormat="1" ht="11.1" customHeight="1">
       <c r="A72" s="36" t="s">
@@ -6412,181 +6424,181 @@
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
-      <c r="D72" s="157"/>
-      <c r="E72" s="157"/>
-      <c r="F72" s="157"/>
-      <c r="G72" s="157"/>
-      <c r="H72" s="157"/>
-      <c r="I72" s="157"/>
-      <c r="J72" s="157"/>
-      <c r="K72" s="157"/>
-      <c r="L72" s="157"/>
-      <c r="M72" s="157"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="147"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="147"/>
+      <c r="H72" s="147"/>
+      <c r="I72" s="147"/>
+      <c r="J72" s="147"/>
+      <c r="K72" s="147"/>
+      <c r="L72" s="147"/>
+      <c r="M72" s="147"/>
       <c r="N72" s="38" t="s">
         <v>33</v>
       </c>
       <c r="O72" s="38"/>
-      <c r="P72" s="158"/>
-      <c r="Q72" s="158"/>
-      <c r="R72" s="158"/>
-      <c r="S72" s="158"/>
-      <c r="T72" s="157" t="s">
+      <c r="P72" s="148"/>
+      <c r="Q72" s="148"/>
+      <c r="R72" s="148"/>
+      <c r="S72" s="148"/>
+      <c r="T72" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="U72" s="157"/>
-      <c r="V72" s="159"/>
-      <c r="W72" s="159"/>
-      <c r="X72" s="160"/>
+      <c r="U72" s="147"/>
+      <c r="V72" s="149"/>
+      <c r="W72" s="149"/>
+      <c r="X72" s="150"/>
     </row>
     <row r="73" spans="1:24" s="25" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A73" s="98" t="s">
+      <c r="A73" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="99"/>
-      <c r="C73" s="170"/>
+      <c r="B73" s="98"/>
+      <c r="C73" s="160"/>
       <c r="D73" s="39" t="s">
         <v>36</v>
       </c>
       <c r="E73" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F73" s="171" t="s">
+      <c r="F73" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="G73" s="172"/>
-      <c r="H73" s="172"/>
-      <c r="I73" s="172"/>
-      <c r="J73" s="172"/>
-      <c r="K73" s="172"/>
-      <c r="L73" s="172"/>
-      <c r="M73" s="173"/>
+      <c r="G73" s="162"/>
+      <c r="H73" s="162"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="162"/>
+      <c r="K73" s="162"/>
+      <c r="L73" s="162"/>
+      <c r="M73" s="163"/>
       <c r="N73" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="O73" s="171" t="s">
+      <c r="O73" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="P73" s="172"/>
-      <c r="Q73" s="172"/>
-      <c r="R73" s="172"/>
-      <c r="S73" s="172"/>
+      <c r="P73" s="162"/>
+      <c r="Q73" s="162"/>
+      <c r="R73" s="162"/>
+      <c r="S73" s="162"/>
       <c r="T73" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="U73" s="174" t="s">
+      <c r="U73" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="V73" s="175"/>
-      <c r="W73" s="171" t="s">
+      <c r="V73" s="165"/>
+      <c r="W73" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="X73" s="176"/>
+      <c r="X73" s="166"/>
     </row>
     <row r="74" spans="1:24" s="25" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A74" s="177"/>
-      <c r="B74" s="178"/>
-      <c r="C74" s="178"/>
+      <c r="A74" s="167"/>
+      <c r="B74" s="168"/>
+      <c r="C74" s="168"/>
       <c r="D74" s="42"/>
       <c r="E74" s="26"/>
-      <c r="F74" s="179"/>
-      <c r="G74" s="180"/>
-      <c r="H74" s="180"/>
-      <c r="I74" s="180"/>
-      <c r="J74" s="180"/>
-      <c r="K74" s="180"/>
-      <c r="L74" s="180"/>
-      <c r="M74" s="181"/>
+      <c r="F74" s="169"/>
+      <c r="G74" s="170"/>
+      <c r="H74" s="170"/>
+      <c r="I74" s="170"/>
+      <c r="J74" s="170"/>
+      <c r="K74" s="170"/>
+      <c r="L74" s="170"/>
+      <c r="M74" s="171"/>
       <c r="N74" s="43"/>
-      <c r="O74" s="179"/>
-      <c r="P74" s="180"/>
-      <c r="Q74" s="180"/>
-      <c r="R74" s="180"/>
-      <c r="S74" s="181"/>
+      <c r="O74" s="169"/>
+      <c r="P74" s="170"/>
+      <c r="Q74" s="170"/>
+      <c r="R74" s="170"/>
+      <c r="S74" s="171"/>
       <c r="T74" s="44"/>
-      <c r="U74" s="182"/>
-      <c r="V74" s="183"/>
-      <c r="W74" s="149"/>
-      <c r="X74" s="184"/>
+      <c r="U74" s="172"/>
+      <c r="V74" s="173"/>
+      <c r="W74" s="284"/>
+      <c r="X74" s="286"/>
     </row>
     <row r="75" spans="1:24" s="25" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A75" s="177"/>
-      <c r="B75" s="178"/>
-      <c r="C75" s="178"/>
+      <c r="A75" s="167"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="168"/>
       <c r="D75" s="42"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="179"/>
-      <c r="G75" s="180"/>
-      <c r="H75" s="180"/>
-      <c r="I75" s="180"/>
-      <c r="J75" s="180"/>
-      <c r="K75" s="180"/>
-      <c r="L75" s="180"/>
-      <c r="M75" s="181"/>
+      <c r="F75" s="169"/>
+      <c r="G75" s="170"/>
+      <c r="H75" s="170"/>
+      <c r="I75" s="170"/>
+      <c r="J75" s="170"/>
+      <c r="K75" s="170"/>
+      <c r="L75" s="170"/>
+      <c r="M75" s="171"/>
       <c r="N75" s="43"/>
-      <c r="O75" s="179"/>
-      <c r="P75" s="180"/>
-      <c r="Q75" s="180"/>
-      <c r="R75" s="180"/>
-      <c r="S75" s="181"/>
+      <c r="O75" s="169"/>
+      <c r="P75" s="170"/>
+      <c r="Q75" s="170"/>
+      <c r="R75" s="170"/>
+      <c r="S75" s="171"/>
       <c r="T75" s="44"/>
-      <c r="U75" s="182"/>
-      <c r="V75" s="183"/>
-      <c r="W75" s="149"/>
-      <c r="X75" s="184"/>
+      <c r="U75" s="172"/>
+      <c r="V75" s="173"/>
+      <c r="W75" s="284"/>
+      <c r="X75" s="286"/>
     </row>
     <row r="76" spans="1:24" s="45" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A76" s="177"/>
-      <c r="B76" s="178"/>
-      <c r="C76" s="178"/>
+      <c r="A76" s="167"/>
+      <c r="B76" s="168"/>
+      <c r="C76" s="168"/>
       <c r="D76" s="42"/>
       <c r="E76" s="26"/>
-      <c r="F76" s="179"/>
-      <c r="G76" s="180"/>
-      <c r="H76" s="180"/>
-      <c r="I76" s="180"/>
-      <c r="J76" s="180"/>
-      <c r="K76" s="180"/>
-      <c r="L76" s="180"/>
-      <c r="M76" s="181"/>
+      <c r="F76" s="169"/>
+      <c r="G76" s="170"/>
+      <c r="H76" s="170"/>
+      <c r="I76" s="170"/>
+      <c r="J76" s="170"/>
+      <c r="K76" s="170"/>
+      <c r="L76" s="170"/>
+      <c r="M76" s="171"/>
       <c r="N76" s="43"/>
-      <c r="O76" s="179"/>
-      <c r="P76" s="180"/>
-      <c r="Q76" s="180"/>
-      <c r="R76" s="180"/>
-      <c r="S76" s="181"/>
+      <c r="O76" s="169"/>
+      <c r="P76" s="170"/>
+      <c r="Q76" s="170"/>
+      <c r="R76" s="170"/>
+      <c r="S76" s="171"/>
       <c r="T76" s="44"/>
-      <c r="U76" s="182"/>
-      <c r="V76" s="183"/>
-      <c r="W76" s="149"/>
-      <c r="X76" s="184"/>
+      <c r="U76" s="172"/>
+      <c r="V76" s="173"/>
+      <c r="W76" s="284"/>
+      <c r="X76" s="286"/>
     </row>
     <row r="77" spans="1:24" ht="11.25" customHeight="1">
-      <c r="A77" s="185"/>
-      <c r="B77" s="186"/>
-      <c r="C77" s="186"/>
+      <c r="A77" s="175"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="176"/>
       <c r="D77" s="46"/>
       <c r="E77" s="30"/>
-      <c r="F77" s="187"/>
-      <c r="G77" s="188"/>
-      <c r="H77" s="188"/>
-      <c r="I77" s="188"/>
-      <c r="J77" s="188"/>
-      <c r="K77" s="188"/>
-      <c r="L77" s="188"/>
-      <c r="M77" s="189"/>
+      <c r="F77" s="177"/>
+      <c r="G77" s="178"/>
+      <c r="H77" s="178"/>
+      <c r="I77" s="178"/>
+      <c r="J77" s="178"/>
+      <c r="K77" s="178"/>
+      <c r="L77" s="178"/>
+      <c r="M77" s="179"/>
       <c r="N77" s="47"/>
-      <c r="O77" s="187"/>
-      <c r="P77" s="188"/>
-      <c r="Q77" s="188"/>
-      <c r="R77" s="188"/>
-      <c r="S77" s="189"/>
-      <c r="T77" s="190" t="s">
+      <c r="O77" s="177"/>
+      <c r="P77" s="178"/>
+      <c r="Q77" s="178"/>
+      <c r="R77" s="178"/>
+      <c r="S77" s="179"/>
+      <c r="T77" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="U77" s="191"/>
-      <c r="V77" s="192"/>
-      <c r="W77" s="193"/>
-      <c r="X77" s="194"/>
+      <c r="U77" s="181"/>
+      <c r="V77" s="182"/>
+      <c r="W77" s="291"/>
+      <c r="X77" s="292"/>
     </row>
     <row r="78" spans="1:24" ht="3" customHeight="1">
       <c r="A78" s="48"/>
@@ -6608,11 +6620,11 @@
       <c r="Q78" s="54"/>
       <c r="R78" s="54"/>
       <c r="S78" s="55"/>
-      <c r="T78" s="195"/>
-      <c r="U78" s="195"/>
-      <c r="V78" s="195"/>
-      <c r="W78" s="195"/>
-      <c r="X78" s="196"/>
+      <c r="T78" s="185"/>
+      <c r="U78" s="185"/>
+      <c r="V78" s="185"/>
+      <c r="W78" s="185"/>
+      <c r="X78" s="186"/>
     </row>
     <row r="79" spans="1:24" s="59" customFormat="1" ht="11.1" customHeight="1">
       <c r="A79" s="56" t="s">
@@ -6620,37 +6632,37 @@
       </c>
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
-      <c r="D79" s="202"/>
-      <c r="E79" s="202"/>
-      <c r="F79" s="202"/>
-      <c r="G79" s="202"/>
-      <c r="H79" s="202"/>
-      <c r="I79" s="202"/>
-      <c r="J79" s="202"/>
-      <c r="K79" s="202"/>
-      <c r="L79" s="202"/>
-      <c r="M79" s="202"/>
+      <c r="D79" s="192"/>
+      <c r="E79" s="192"/>
+      <c r="F79" s="192"/>
+      <c r="G79" s="192"/>
+      <c r="H79" s="192"/>
+      <c r="I79" s="192"/>
+      <c r="J79" s="192"/>
+      <c r="K79" s="192"/>
+      <c r="L79" s="192"/>
+      <c r="M79" s="192"/>
       <c r="N79" s="37"/>
-      <c r="O79" s="203" t="s">
+      <c r="O79" s="193" t="s">
         <v>45</v>
       </c>
-      <c r="P79" s="203"/>
-      <c r="Q79" s="202"/>
-      <c r="R79" s="202"/>
+      <c r="P79" s="193"/>
+      <c r="Q79" s="192"/>
+      <c r="R79" s="192"/>
       <c r="S79" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="T79" s="159"/>
-      <c r="U79" s="159"/>
-      <c r="V79" s="159"/>
-      <c r="W79" s="159"/>
-      <c r="X79" s="160"/>
+      <c r="T79" s="149"/>
+      <c r="U79" s="149"/>
+      <c r="V79" s="149"/>
+      <c r="W79" s="149"/>
+      <c r="X79" s="150"/>
     </row>
     <row r="80" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A80" s="98" t="s">
+      <c r="A80" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="170"/>
+      <c r="B80" s="160"/>
       <c r="C80" s="60" t="s">
         <v>48</v>
       </c>
@@ -6660,457 +6672,457 @@
       <c r="E80" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="197" t="s">
+      <c r="F80" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="G80" s="170"/>
-      <c r="H80" s="197" t="s">
+      <c r="G80" s="160"/>
+      <c r="H80" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="I80" s="170"/>
-      <c r="J80" s="197" t="s">
+      <c r="I80" s="160"/>
+      <c r="J80" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="K80" s="170"/>
+      <c r="K80" s="160"/>
       <c r="L80" s="60" t="s">
         <v>53</v>
       </c>
       <c r="M80" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="N80" s="197" t="s">
+      <c r="N80" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="O80" s="99"/>
-      <c r="P80" s="99"/>
-      <c r="Q80" s="99"/>
-      <c r="R80" s="99"/>
-      <c r="S80" s="198" t="s">
+      <c r="O80" s="98"/>
+      <c r="P80" s="98"/>
+      <c r="Q80" s="98"/>
+      <c r="R80" s="98"/>
+      <c r="S80" s="188" t="s">
         <v>55</v>
       </c>
-      <c r="T80" s="175"/>
-      <c r="U80" s="174" t="s">
+      <c r="T80" s="165"/>
+      <c r="U80" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="V80" s="175"/>
-      <c r="W80" s="174" t="s">
+      <c r="V80" s="165"/>
+      <c r="W80" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="X80" s="199"/>
+      <c r="X80" s="189"/>
     </row>
     <row r="81" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A81" s="200"/>
-      <c r="B81" s="201"/>
+      <c r="A81" s="190"/>
+      <c r="B81" s="191"/>
       <c r="C81" s="61"/>
       <c r="D81" s="42"/>
       <c r="E81" s="42"/>
-      <c r="F81" s="149"/>
-      <c r="G81" s="150"/>
-      <c r="H81" s="149"/>
-      <c r="I81" s="150"/>
-      <c r="J81" s="149"/>
-      <c r="K81" s="150"/>
+      <c r="F81" s="139"/>
+      <c r="G81" s="140"/>
+      <c r="H81" s="139"/>
+      <c r="I81" s="140"/>
+      <c r="J81" s="139"/>
+      <c r="K81" s="140"/>
       <c r="L81" s="26"/>
       <c r="M81" s="26"/>
-      <c r="N81" s="179"/>
-      <c r="O81" s="180"/>
-      <c r="P81" s="180"/>
-      <c r="Q81" s="180"/>
-      <c r="R81" s="181"/>
-      <c r="S81" s="214"/>
-      <c r="T81" s="215"/>
-      <c r="U81" s="204"/>
-      <c r="V81" s="205"/>
-      <c r="W81" s="208"/>
-      <c r="X81" s="209"/>
+      <c r="N81" s="169"/>
+      <c r="O81" s="170"/>
+      <c r="P81" s="170"/>
+      <c r="Q81" s="170"/>
+      <c r="R81" s="171"/>
+      <c r="S81" s="204"/>
+      <c r="T81" s="205"/>
+      <c r="U81" s="194"/>
+      <c r="V81" s="195"/>
+      <c r="W81" s="198"/>
+      <c r="X81" s="199"/>
     </row>
     <row r="82" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A82" s="200"/>
-      <c r="B82" s="201"/>
+      <c r="A82" s="190"/>
+      <c r="B82" s="191"/>
       <c r="C82" s="61"/>
       <c r="D82" s="42"/>
       <c r="E82" s="42"/>
-      <c r="F82" s="149"/>
-      <c r="G82" s="150"/>
-      <c r="H82" s="149"/>
-      <c r="I82" s="150"/>
-      <c r="J82" s="149"/>
-      <c r="K82" s="150"/>
+      <c r="F82" s="139"/>
+      <c r="G82" s="140"/>
+      <c r="H82" s="139"/>
+      <c r="I82" s="140"/>
+      <c r="J82" s="139"/>
+      <c r="K82" s="140"/>
       <c r="L82" s="26"/>
       <c r="M82" s="26"/>
-      <c r="N82" s="179"/>
-      <c r="O82" s="180"/>
-      <c r="P82" s="180"/>
-      <c r="Q82" s="180"/>
-      <c r="R82" s="181"/>
-      <c r="S82" s="216"/>
-      <c r="T82" s="217"/>
-      <c r="U82" s="218"/>
-      <c r="V82" s="219"/>
-      <c r="W82" s="220"/>
-      <c r="X82" s="221"/>
+      <c r="N82" s="169"/>
+      <c r="O82" s="170"/>
+      <c r="P82" s="170"/>
+      <c r="Q82" s="170"/>
+      <c r="R82" s="171"/>
+      <c r="S82" s="206"/>
+      <c r="T82" s="207"/>
+      <c r="U82" s="208"/>
+      <c r="V82" s="209"/>
+      <c r="W82" s="210"/>
+      <c r="X82" s="211"/>
     </row>
     <row r="83" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A83" s="200"/>
-      <c r="B83" s="201"/>
+      <c r="A83" s="190"/>
+      <c r="B83" s="191"/>
       <c r="C83" s="61"/>
       <c r="D83" s="42"/>
       <c r="E83" s="42"/>
-      <c r="F83" s="149"/>
-      <c r="G83" s="150"/>
-      <c r="H83" s="149"/>
-      <c r="I83" s="150"/>
-      <c r="J83" s="149"/>
-      <c r="K83" s="150"/>
+      <c r="F83" s="139"/>
+      <c r="G83" s="140"/>
+      <c r="H83" s="139"/>
+      <c r="I83" s="140"/>
+      <c r="J83" s="139"/>
+      <c r="K83" s="140"/>
       <c r="L83" s="26"/>
       <c r="M83" s="26"/>
-      <c r="N83" s="179"/>
-      <c r="O83" s="180"/>
-      <c r="P83" s="180"/>
-      <c r="Q83" s="180"/>
-      <c r="R83" s="181"/>
-      <c r="S83" s="214"/>
-      <c r="T83" s="215"/>
-      <c r="U83" s="204"/>
-      <c r="V83" s="205"/>
-      <c r="W83" s="208"/>
-      <c r="X83" s="209"/>
+      <c r="N83" s="169"/>
+      <c r="O83" s="170"/>
+      <c r="P83" s="170"/>
+      <c r="Q83" s="170"/>
+      <c r="R83" s="171"/>
+      <c r="S83" s="204"/>
+      <c r="T83" s="205"/>
+      <c r="U83" s="194"/>
+      <c r="V83" s="195"/>
+      <c r="W83" s="198"/>
+      <c r="X83" s="199"/>
     </row>
     <row r="84" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A84" s="200"/>
-      <c r="B84" s="201"/>
+      <c r="A84" s="190"/>
+      <c r="B84" s="191"/>
       <c r="C84" s="61"/>
       <c r="D84" s="42"/>
       <c r="E84" s="42"/>
-      <c r="F84" s="149"/>
-      <c r="G84" s="150"/>
-      <c r="H84" s="149"/>
-      <c r="I84" s="150"/>
-      <c r="J84" s="149"/>
-      <c r="K84" s="150"/>
+      <c r="F84" s="139"/>
+      <c r="G84" s="140"/>
+      <c r="H84" s="139"/>
+      <c r="I84" s="140"/>
+      <c r="J84" s="139"/>
+      <c r="K84" s="140"/>
       <c r="L84" s="26"/>
       <c r="M84" s="26"/>
-      <c r="N84" s="179"/>
-      <c r="O84" s="180"/>
-      <c r="P84" s="180"/>
-      <c r="Q84" s="180"/>
-      <c r="R84" s="181"/>
-      <c r="S84" s="216"/>
-      <c r="T84" s="217"/>
-      <c r="U84" s="218"/>
-      <c r="V84" s="219"/>
-      <c r="W84" s="220"/>
-      <c r="X84" s="221"/>
+      <c r="N84" s="169"/>
+      <c r="O84" s="170"/>
+      <c r="P84" s="170"/>
+      <c r="Q84" s="170"/>
+      <c r="R84" s="171"/>
+      <c r="S84" s="206"/>
+      <c r="T84" s="207"/>
+      <c r="U84" s="208"/>
+      <c r="V84" s="209"/>
+      <c r="W84" s="210"/>
+      <c r="X84" s="211"/>
     </row>
     <row r="85" spans="1:24" ht="11.1" customHeight="1">
-      <c r="A85" s="200"/>
-      <c r="B85" s="201"/>
+      <c r="A85" s="190"/>
+      <c r="B85" s="191"/>
       <c r="C85" s="61"/>
       <c r="D85" s="42"/>
       <c r="E85" s="42"/>
-      <c r="F85" s="149"/>
-      <c r="G85" s="150"/>
-      <c r="H85" s="149"/>
-      <c r="I85" s="150"/>
-      <c r="J85" s="149"/>
-      <c r="K85" s="150"/>
+      <c r="F85" s="139"/>
+      <c r="G85" s="140"/>
+      <c r="H85" s="139"/>
+      <c r="I85" s="140"/>
+      <c r="J85" s="139"/>
+      <c r="K85" s="140"/>
       <c r="L85" s="26"/>
       <c r="M85" s="26"/>
-      <c r="N85" s="179"/>
-      <c r="O85" s="180"/>
-      <c r="P85" s="180"/>
-      <c r="Q85" s="180"/>
-      <c r="R85" s="181"/>
-      <c r="S85" s="214"/>
-      <c r="T85" s="215"/>
-      <c r="U85" s="204"/>
-      <c r="V85" s="205"/>
-      <c r="W85" s="208"/>
-      <c r="X85" s="209"/>
+      <c r="N85" s="169"/>
+      <c r="O85" s="170"/>
+      <c r="P85" s="170"/>
+      <c r="Q85" s="170"/>
+      <c r="R85" s="171"/>
+      <c r="S85" s="204"/>
+      <c r="T85" s="205"/>
+      <c r="U85" s="194"/>
+      <c r="V85" s="195"/>
+      <c r="W85" s="198"/>
+      <c r="X85" s="199"/>
     </row>
     <row r="86" spans="1:24" s="59" customFormat="1" ht="11.1" customHeight="1">
-      <c r="A86" s="200"/>
-      <c r="B86" s="201"/>
+      <c r="A86" s="190"/>
+      <c r="B86" s="191"/>
       <c r="C86" s="61"/>
       <c r="D86" s="42"/>
       <c r="E86" s="42"/>
-      <c r="F86" s="149"/>
-      <c r="G86" s="150"/>
-      <c r="H86" s="149"/>
-      <c r="I86" s="150"/>
-      <c r="J86" s="149"/>
-      <c r="K86" s="150"/>
+      <c r="F86" s="139"/>
+      <c r="G86" s="140"/>
+      <c r="H86" s="139"/>
+      <c r="I86" s="140"/>
+      <c r="J86" s="139"/>
+      <c r="K86" s="140"/>
       <c r="L86" s="26"/>
       <c r="M86" s="62"/>
-      <c r="N86" s="212"/>
-      <c r="O86" s="213"/>
-      <c r="P86" s="180"/>
-      <c r="Q86" s="180"/>
-      <c r="R86" s="181"/>
-      <c r="S86" s="216"/>
-      <c r="T86" s="217"/>
-      <c r="U86" s="206"/>
-      <c r="V86" s="207"/>
-      <c r="W86" s="210"/>
-      <c r="X86" s="211"/>
+      <c r="N86" s="202"/>
+      <c r="O86" s="203"/>
+      <c r="P86" s="170"/>
+      <c r="Q86" s="170"/>
+      <c r="R86" s="171"/>
+      <c r="S86" s="206"/>
+      <c r="T86" s="207"/>
+      <c r="U86" s="196"/>
+      <c r="V86" s="197"/>
+      <c r="W86" s="200"/>
+      <c r="X86" s="201"/>
     </row>
     <row r="87" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A87" s="224" t="s">
+      <c r="A87" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="228"/>
-      <c r="C87" s="229"/>
-      <c r="D87" s="229"/>
-      <c r="E87" s="229"/>
-      <c r="F87" s="229"/>
-      <c r="G87" s="229"/>
-      <c r="H87" s="229"/>
-      <c r="I87" s="229"/>
-      <c r="J87" s="229"/>
-      <c r="K87" s="229"/>
-      <c r="L87" s="229"/>
+      <c r="B87" s="218"/>
+      <c r="C87" s="219"/>
+      <c r="D87" s="219"/>
+      <c r="E87" s="219"/>
+      <c r="F87" s="219"/>
+      <c r="G87" s="219"/>
+      <c r="H87" s="219"/>
+      <c r="I87" s="219"/>
+      <c r="J87" s="219"/>
+      <c r="K87" s="219"/>
+      <c r="L87" s="219"/>
       <c r="M87" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="N87" s="64"/>
-      <c r="O87" s="65"/>
-      <c r="P87" s="234" t="s">
+      <c r="N87" s="268"/>
+      <c r="O87" s="64"/>
+      <c r="P87" s="224" t="s">
         <v>59</v>
       </c>
-      <c r="Q87" s="235"/>
-      <c r="R87" s="66"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="224" t="s">
+      <c r="Q87" s="225"/>
+      <c r="R87" s="65"/>
+      <c r="S87" s="66"/>
+      <c r="T87" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="U87" s="236"/>
-      <c r="V87" s="237"/>
-      <c r="W87" s="237"/>
-      <c r="X87" s="238"/>
+      <c r="U87" s="226"/>
+      <c r="V87" s="227"/>
+      <c r="W87" s="227"/>
+      <c r="X87" s="228"/>
     </row>
     <row r="88" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A88" s="225"/>
-      <c r="B88" s="230"/>
-      <c r="C88" s="231"/>
-      <c r="D88" s="231"/>
-      <c r="E88" s="231"/>
-      <c r="F88" s="231"/>
-      <c r="G88" s="231"/>
-      <c r="H88" s="231"/>
-      <c r="I88" s="231"/>
-      <c r="J88" s="231"/>
-      <c r="K88" s="231"/>
-      <c r="L88" s="231"/>
-      <c r="M88" s="68" t="s">
+      <c r="A88" s="215"/>
+      <c r="B88" s="220"/>
+      <c r="C88" s="221"/>
+      <c r="D88" s="221"/>
+      <c r="E88" s="221"/>
+      <c r="F88" s="221"/>
+      <c r="G88" s="221"/>
+      <c r="H88" s="221"/>
+      <c r="I88" s="221"/>
+      <c r="J88" s="221"/>
+      <c r="K88" s="221"/>
+      <c r="L88" s="221"/>
+      <c r="M88" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="N88" s="69"/>
-      <c r="O88" s="70"/>
-      <c r="P88" s="239" t="s">
+      <c r="N88" s="27"/>
+      <c r="O88" s="68"/>
+      <c r="P88" s="229" t="s">
         <v>61</v>
       </c>
-      <c r="Q88" s="240"/>
-      <c r="R88" s="71"/>
-      <c r="S88" s="72"/>
-      <c r="T88" s="225"/>
-      <c r="U88" s="241"/>
-      <c r="V88" s="242"/>
-      <c r="W88" s="242"/>
-      <c r="X88" s="243"/>
+      <c r="Q88" s="230"/>
+      <c r="R88" s="69"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="215"/>
+      <c r="U88" s="231"/>
+      <c r="V88" s="232"/>
+      <c r="W88" s="232"/>
+      <c r="X88" s="233"/>
     </row>
     <row r="89" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A89" s="225"/>
-      <c r="B89" s="230"/>
-      <c r="C89" s="231"/>
-      <c r="D89" s="231"/>
-      <c r="E89" s="231"/>
-      <c r="F89" s="231"/>
-      <c r="G89" s="231"/>
-      <c r="H89" s="231"/>
-      <c r="I89" s="231"/>
-      <c r="J89" s="231"/>
-      <c r="K89" s="231"/>
-      <c r="L89" s="231"/>
-      <c r="M89" s="68" t="s">
+      <c r="A89" s="215"/>
+      <c r="B89" s="220"/>
+      <c r="C89" s="221"/>
+      <c r="D89" s="221"/>
+      <c r="E89" s="221"/>
+      <c r="F89" s="221"/>
+      <c r="G89" s="221"/>
+      <c r="H89" s="221"/>
+      <c r="I89" s="221"/>
+      <c r="J89" s="221"/>
+      <c r="K89" s="221"/>
+      <c r="L89" s="221"/>
+      <c r="M89" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="N89" s="69"/>
-      <c r="O89" s="70"/>
-      <c r="P89" s="244" t="s">
+      <c r="N89" s="27"/>
+      <c r="O89" s="68"/>
+      <c r="P89" s="234" t="s">
         <v>62</v>
       </c>
-      <c r="Q89" s="245"/>
-      <c r="R89" s="73">
+      <c r="Q89" s="235"/>
+      <c r="R89" s="71">
         <f>S70</f>
         <v>0</v>
       </c>
-      <c r="S89" s="74"/>
-      <c r="T89" s="225"/>
-      <c r="U89" s="241"/>
-      <c r="V89" s="242"/>
-      <c r="W89" s="242"/>
-      <c r="X89" s="243"/>
+      <c r="S89" s="72"/>
+      <c r="T89" s="215"/>
+      <c r="U89" s="231"/>
+      <c r="V89" s="232"/>
+      <c r="W89" s="232"/>
+      <c r="X89" s="233"/>
     </row>
     <row r="90" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A90" s="225"/>
-      <c r="B90" s="230"/>
-      <c r="C90" s="231"/>
-      <c r="D90" s="231"/>
-      <c r="E90" s="231"/>
-      <c r="F90" s="231"/>
-      <c r="G90" s="231"/>
-      <c r="H90" s="231"/>
-      <c r="I90" s="231"/>
-      <c r="J90" s="231"/>
-      <c r="K90" s="231"/>
-      <c r="L90" s="231"/>
-      <c r="M90" s="68" t="s">
+      <c r="A90" s="215"/>
+      <c r="B90" s="220"/>
+      <c r="C90" s="221"/>
+      <c r="D90" s="221"/>
+      <c r="E90" s="221"/>
+      <c r="F90" s="221"/>
+      <c r="G90" s="221"/>
+      <c r="H90" s="221"/>
+      <c r="I90" s="221"/>
+      <c r="J90" s="221"/>
+      <c r="K90" s="221"/>
+      <c r="L90" s="221"/>
+      <c r="M90" s="67" t="s">
         <v>78</v>
       </c>
       <c r="N90" s="27"/>
-      <c r="O90" s="70" t="str">
+      <c r="O90" s="68" t="str">
         <f>IF($N$89=0,"",N90/$N$89)</f>
         <v/>
       </c>
-      <c r="P90" s="246" t="s">
+      <c r="P90" s="236" t="s">
         <v>63</v>
       </c>
-      <c r="Q90" s="75" t="s">
+      <c r="Q90" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="R90" s="76"/>
-      <c r="S90" s="77"/>
-      <c r="T90" s="225"/>
-      <c r="U90" s="241"/>
-      <c r="V90" s="242"/>
-      <c r="W90" s="242"/>
-      <c r="X90" s="243"/>
+      <c r="R90" s="74"/>
+      <c r="S90" s="75"/>
+      <c r="T90" s="215"/>
+      <c r="U90" s="231"/>
+      <c r="V90" s="232"/>
+      <c r="W90" s="232"/>
+      <c r="X90" s="233"/>
     </row>
     <row r="91" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A91" s="226"/>
-      <c r="B91" s="230"/>
-      <c r="C91" s="231"/>
-      <c r="D91" s="231"/>
-      <c r="E91" s="231"/>
-      <c r="F91" s="231"/>
-      <c r="G91" s="231"/>
-      <c r="H91" s="231"/>
-      <c r="I91" s="231"/>
-      <c r="J91" s="231"/>
-      <c r="K91" s="231"/>
-      <c r="L91" s="231"/>
-      <c r="M91" s="68" t="s">
+      <c r="A91" s="216"/>
+      <c r="B91" s="220"/>
+      <c r="C91" s="221"/>
+      <c r="D91" s="221"/>
+      <c r="E91" s="221"/>
+      <c r="F91" s="221"/>
+      <c r="G91" s="221"/>
+      <c r="H91" s="221"/>
+      <c r="I91" s="221"/>
+      <c r="J91" s="221"/>
+      <c r="K91" s="221"/>
+      <c r="L91" s="221"/>
+      <c r="M91" s="67" t="s">
         <v>79</v>
       </c>
       <c r="N91" s="27"/>
-      <c r="O91" s="70" t="str">
+      <c r="O91" s="68" t="str">
         <f>IF($N$89=0,"",N91/$N$89)</f>
         <v/>
       </c>
-      <c r="P91" s="247"/>
-      <c r="Q91" s="68" t="s">
+      <c r="P91" s="237"/>
+      <c r="Q91" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="R91" s="78"/>
-      <c r="S91" s="79"/>
-      <c r="T91" s="226"/>
-      <c r="U91" s="249"/>
-      <c r="V91" s="250"/>
-      <c r="W91" s="250"/>
-      <c r="X91" s="251"/>
+      <c r="R91" s="76"/>
+      <c r="S91" s="77"/>
+      <c r="T91" s="216"/>
+      <c r="U91" s="239"/>
+      <c r="V91" s="240"/>
+      <c r="W91" s="240"/>
+      <c r="X91" s="241"/>
     </row>
     <row r="92" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A92" s="226"/>
-      <c r="B92" s="230"/>
-      <c r="C92" s="231"/>
-      <c r="D92" s="231"/>
-      <c r="E92" s="231"/>
-      <c r="F92" s="231"/>
-      <c r="G92" s="231"/>
-      <c r="H92" s="231"/>
-      <c r="I92" s="231"/>
-      <c r="J92" s="231"/>
-      <c r="K92" s="231"/>
-      <c r="L92" s="231"/>
-      <c r="M92" s="68" t="s">
+      <c r="A92" s="216"/>
+      <c r="B92" s="220"/>
+      <c r="C92" s="221"/>
+      <c r="D92" s="221"/>
+      <c r="E92" s="221"/>
+      <c r="F92" s="221"/>
+      <c r="G92" s="221"/>
+      <c r="H92" s="221"/>
+      <c r="I92" s="221"/>
+      <c r="J92" s="221"/>
+      <c r="K92" s="221"/>
+      <c r="L92" s="221"/>
+      <c r="M92" s="67" t="s">
         <v>80</v>
       </c>
       <c r="N92" s="27"/>
-      <c r="O92" s="70" t="str">
+      <c r="O92" s="68" t="str">
         <f>IF($N$89=0,"",N92/$N$89)</f>
         <v/>
       </c>
-      <c r="P92" s="247"/>
-      <c r="Q92" s="68" t="s">
+      <c r="P92" s="237"/>
+      <c r="Q92" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="R92" s="78"/>
-      <c r="S92" s="79"/>
-      <c r="T92" s="226"/>
-      <c r="U92" s="249"/>
-      <c r="V92" s="250"/>
-      <c r="W92" s="250"/>
-      <c r="X92" s="251"/>
+      <c r="R92" s="76"/>
+      <c r="S92" s="77"/>
+      <c r="T92" s="216"/>
+      <c r="U92" s="239"/>
+      <c r="V92" s="240"/>
+      <c r="W92" s="240"/>
+      <c r="X92" s="241"/>
     </row>
     <row r="93" spans="1:24" ht="9.9" customHeight="1">
-      <c r="A93" s="227"/>
-      <c r="B93" s="232"/>
-      <c r="C93" s="233"/>
-      <c r="D93" s="233"/>
-      <c r="E93" s="233"/>
-      <c r="F93" s="233"/>
-      <c r="G93" s="233"/>
-      <c r="H93" s="233"/>
-      <c r="I93" s="233"/>
-      <c r="J93" s="233"/>
-      <c r="K93" s="233"/>
-      <c r="L93" s="233"/>
-      <c r="M93" s="80" t="s">
+      <c r="A93" s="217"/>
+      <c r="B93" s="222"/>
+      <c r="C93" s="223"/>
+      <c r="D93" s="223"/>
+      <c r="E93" s="223"/>
+      <c r="F93" s="223"/>
+      <c r="G93" s="223"/>
+      <c r="H93" s="223"/>
+      <c r="I93" s="223"/>
+      <c r="J93" s="223"/>
+      <c r="K93" s="223"/>
+      <c r="L93" s="223"/>
+      <c r="M93" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="N93" s="81"/>
-      <c r="O93" s="82"/>
-      <c r="P93" s="248"/>
-      <c r="Q93" s="83" t="s">
+      <c r="N93" s="79"/>
+      <c r="O93" s="80"/>
+      <c r="P93" s="238"/>
+      <c r="Q93" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="R93" s="73">
+      <c r="R93" s="71">
         <f>IF(R87="其他","",R92-R89)</f>
         <v>0</v>
       </c>
-      <c r="S93" s="74"/>
-      <c r="T93" s="227"/>
-      <c r="U93" s="252"/>
-      <c r="V93" s="253"/>
-      <c r="W93" s="253"/>
-      <c r="X93" s="254"/>
+      <c r="S93" s="72"/>
+      <c r="T93" s="217"/>
+      <c r="U93" s="242"/>
+      <c r="V93" s="243"/>
+      <c r="W93" s="243"/>
+      <c r="X93" s="244"/>
     </row>
     <row r="94" spans="1:24" ht="12" customHeight="1">
-      <c r="A94" s="222" t="s">
+      <c r="A94" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="B94" s="222"/>
-      <c r="C94" s="222"/>
-      <c r="D94" s="222"/>
-      <c r="E94" s="222"/>
-      <c r="F94" s="222"/>
-      <c r="G94" s="222"/>
-      <c r="H94" s="222"/>
-      <c r="I94" s="222"/>
-      <c r="J94" s="222"/>
-      <c r="K94" s="222"/>
-      <c r="L94" s="222"/>
-      <c r="M94" s="222"/>
-      <c r="N94" s="222"/>
-      <c r="O94" s="222"/>
-      <c r="P94" s="222"/>
-      <c r="Q94" s="222"/>
-      <c r="R94" s="222"/>
-      <c r="S94" s="222"/>
-      <c r="T94" s="222"/>
-      <c r="U94" s="222"/>
-      <c r="V94" s="222"/>
-      <c r="W94" s="223"/>
+      <c r="B94" s="212"/>
+      <c r="C94" s="212"/>
+      <c r="D94" s="212"/>
+      <c r="E94" s="212"/>
+      <c r="F94" s="212"/>
+      <c r="G94" s="212"/>
+      <c r="H94" s="212"/>
+      <c r="I94" s="212"/>
+      <c r="J94" s="212"/>
+      <c r="K94" s="212"/>
+      <c r="L94" s="212"/>
+      <c r="M94" s="212"/>
+      <c r="N94" s="212"/>
+      <c r="O94" s="212"/>
+      <c r="P94" s="212"/>
+      <c r="Q94" s="212"/>
+      <c r="R94" s="212"/>
+      <c r="S94" s="212"/>
+      <c r="T94" s="212"/>
+      <c r="U94" s="212"/>
+      <c r="V94" s="212"/>
+      <c r="W94" s="213"/>
     </row>
     <row r="95" spans="1:24" ht="12" customHeight="1"/>
   </sheetData>
